--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -5,37 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/AitalkServer/doc/db/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5795419A-3FCA-8240-8227-3583FF665DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA3054E-7A1B-8D4A-8C40-2963C34FE540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
     <sheet name="表一览" sheetId="2" r:id="rId2"/>
-    <sheet name="users" sheetId="1" r:id="rId3"/>
-    <sheet name="invitations" sheetId="11" r:id="rId4"/>
-    <sheet name="friendships" sheetId="4" r:id="rId5"/>
+    <sheet name="user" sheetId="1" r:id="rId3"/>
+    <sheet name="invitation" sheetId="11" r:id="rId4"/>
+    <sheet name="friendship" sheetId="4" r:id="rId5"/>
     <sheet name="msgHist" sheetId="6" r:id="rId6"/>
-    <sheet name="offlineMsgs" sheetId="24" r:id="rId7"/>
-    <sheet name="groups" sheetId="22" r:id="rId8"/>
+    <sheet name="offlineMsg" sheetId="24" r:id="rId7"/>
+    <sheet name="group" sheetId="22" r:id="rId8"/>
     <sheet name="mucHist" sheetId="23" r:id="rId9"/>
-    <sheet name="notifications" sheetId="7" r:id="rId10"/>
-    <sheet name="lastReadMsg" sheetId="28" r:id="rId11"/>
-    <sheet name="recentContact" sheetId="21" r:id="rId12"/>
-    <sheet name="tmpConvs" sheetId="20" r:id="rId13"/>
-    <sheet name="resources" sheetId="10" r:id="rId14"/>
-    <sheet name="subscriptions【备用方案】" sheetId="5" r:id="rId15"/>
-    <sheet name="店铺咨询逻辑" sheetId="25" r:id="rId16"/>
+    <sheet name="notification" sheetId="7" r:id="rId10"/>
+    <sheet name="recentContact" sheetId="21" r:id="rId11"/>
+    <sheet name="tmpConvs" sheetId="20" r:id="rId12"/>
+    <sheet name="resource" sheetId="10" r:id="rId13"/>
+    <sheet name="subscriptions【备用方案】" sheetId="5" r:id="rId14"/>
+    <sheet name="店铺咨询逻辑" sheetId="25" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="220">
   <si>
     <t>修订历史</t>
   </si>
@@ -118,9 +117,6 @@
     <t>关注的主页/店铺</t>
   </si>
   <si>
-    <t>blocklist</t>
-  </si>
-  <si>
     <t>settings</t>
   </si>
   <si>
@@ -187,9 +183,6 @@
     <t>邀请信息</t>
   </si>
   <si>
-    <t>Blocked/Friend</t>
-  </si>
-  <si>
     <t>发送者id(userId)</t>
   </si>
   <si>
@@ -254,11 +247,11 @@
   </si>
   <si>
     <t>消息类型0：文本 1：音频 2：视频 3：位置 4：名片 5：图片 6：讯息 7：团购 8：通知 9：商品 10：易货 11：店铺  12： 抢单 13：群聊邀请 14:群通知 15 文件 16 通知 17回复 18 @  19 预购单 20 配送 21 动态</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>设备号</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -274,7 +267,7 @@
       </rPr>
       <t xml:space="preserve"> 6:发送失败</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -290,7 +283,7 @@
       </rPr>
       <t>enderId</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -306,7 +299,7 @@
       </rPr>
       <t>eceiverId</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -322,7 +315,7 @@
       </rPr>
       <t>enderType</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -338,7 +331,7 @@
       </rPr>
       <t>eceiverType</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -354,31 +347,31 @@
       </rPr>
       <t>irection</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>consult</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>store</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>out</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>存储</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -394,7 +387,7 @@
       </rPr>
       <t>sult</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -410,7 +403,7 @@
       </rPr>
       <t>tore</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -426,7 +419,7 @@
       </rPr>
       <t>n</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -442,11 +435,11 @@
       </rPr>
       <t>onsult</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>in</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -462,23 +455,23 @@
       </rPr>
       <t>ut</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A咨询B店铺</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>A店铺回复B</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>B咨询A店铺</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>B店铺回复A</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -494,11 +487,11 @@
       </rPr>
       <t>B的会话框内</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>判断当前身份 如果我为商家A</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -514,19 +507,19 @@
       </rPr>
       <t>B</t>
     </r>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>select * from conversation where (senderId=B and senderType=consult and receiverId=A and receiverType=store and direction= out and sessionType=6) or(senderId=A and senderType=store and receiverId=B and receiverType=consult and direction = in and sessionTyep=6)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>select * from conversation where (senderId=B and senderType=consult and receiverType=store and receiverId=A and direction =in and sessionType=6) or (senderId=A and senderType=store  and receiverId=B and receiverType=consult and direction = out and sessionType=6)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>我为B 我是商家别人咨询我和我回复别人</t>
-    <phoneticPr fontId="13" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>conversationId</t>
@@ -565,9 +558,6 @@
     <t>离线消息</t>
   </si>
   <si>
-    <t>friendships</t>
-  </si>
-  <si>
     <t>pages</t>
   </si>
   <si>
@@ -577,21 +567,12 @@
     <t>teams</t>
   </si>
   <si>
-    <t>offlineMsgs</t>
-  </si>
-  <si>
-    <t>notifications</t>
-  </si>
-  <si>
     <t>resouces</t>
   </si>
   <si>
     <t>subscriptions</t>
   </si>
   <si>
-    <t>invitations</t>
-  </si>
-  <si>
     <t>tmpConvs</t>
   </si>
   <si>
@@ -607,9 +588,6 @@
     <t>mucHist</t>
   </si>
   <si>
-    <t>chatRooms</t>
-  </si>
-  <si>
     <t>邀请</t>
   </si>
   <si>
@@ -629,9 +607,6 @@
   </si>
   <si>
     <t>member</t>
-  </si>
-  <si>
-    <t>groupInvitaions</t>
   </si>
   <si>
     <t>合并到 invitations</t>
@@ -728,18 +703,12 @@
     <t>blockList</t>
   </si>
   <si>
-    <t>黑名单/屏蔽</t>
-  </si>
-  <si>
     <t>消息免打扰/无声通告</t>
   </si>
   <si>
     <t>个人基本设置</t>
   </si>
   <si>
-    <t>muteNotifications</t>
-  </si>
-  <si>
     <t>黑名单/屏蔽联系人</t>
   </si>
   <si>
@@ -755,12 +724,6 @@
     <t>合并</t>
   </si>
   <si>
-    <t>好友id/群id/临时会话id(冗余数据到lastChats)</t>
-  </si>
-  <si>
-    <t>(冗余数据到lastChats)</t>
-  </si>
-  <si>
     <t>isSenderStickOnTop</t>
   </si>
   <si>
@@ -797,9 +760,6 @@
     <t>conversation id 使用friendship的 conversationId或group的 _id 或tmpConvs的_id作为会话id</t>
   </si>
   <si>
-    <t>会话id</t>
-  </si>
-  <si>
     <t>会话类型：0、P2P一对一会话；1、MUC多人会话；  2、CHANNEL一对多的会话类型</t>
   </si>
   <si>
@@ -842,9 +802,6 @@
     <t>最近联系人</t>
   </si>
   <si>
-    <t>[{lastMsgId:已读的最后一条消息id}]</t>
-  </si>
-  <si>
     <t>点对点通信历史消息（点对点消息归档）</t>
   </si>
   <si>
@@ -857,10 +814,85 @@
     <t>状态：0 发送中 1:送达 2:已读 3:删除 4:撤回 5:已撤回 6:发送失败。（只有已读/已撤回/失败三种状态）</t>
   </si>
   <si>
-    <t>群id 群备注 最后群消息时间 最后已读群消息id： last_ack_msg_id(最后已读群消息时间last_ack_msg_time)</t>
-  </si>
-  <si>
     <t>考虑是否增加此表</t>
+  </si>
+  <si>
+    <t>invitation</t>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>offlineMsg</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>muteNotification</t>
+  </si>
+  <si>
+    <t>chatRoom</t>
+  </si>
+  <si>
+    <t>groupInvitaion</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>男/女/未知；female，male，unknow</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>使用mongodb 增加validator</t>
+  </si>
+  <si>
+    <t>nickname</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>isMute</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>isBlocked</t>
+  </si>
+  <si>
+    <t>消息免打扰/禁止消息提示音</t>
+  </si>
+  <si>
+    <t>是否拉黑/是否屏蔽好友消息</t>
+  </si>
+  <si>
+    <t>Array&lt;userGroup&gt;</t>
+  </si>
+  <si>
+    <t>群id 群备注 最后群消息时间 最后已读群消息id： last_ack_msg_id(最后已读群消息时间last_ack_msg_time)/</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>lastAckMsgId</t>
+  </si>
+  <si>
+    <t>lastAckMsgTime</t>
+  </si>
+  <si>
+    <t>Array&lt;Objectid&gt;</t>
+  </si>
+  <si>
+    <t>会话id,等于invitaion的id</t>
   </si>
 </sst>
 </file>
@@ -870,12 +902,26 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -998,6 +1044,13 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1087,15 +1140,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1103,8 +1156,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1125,66 +1177,68 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1518,2234 +1572,2234 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="11" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="12" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-    </row>
-    <row r="2" spans="1:5" s="11" customFormat="1">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+    </row>
+    <row r="2" spans="1:5" s="10" customFormat="1">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>44069</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="50" t="s">
-        <v>196</v>
+      <c r="E3" s="46" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="17">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="17">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="17">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="17">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="17">
+      <c r="A25" s="16">
         <v>23</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="17">
+      <c r="A26" s="16">
         <v>24</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="17">
+      <c r="A27" s="16">
         <v>25</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="17">
+      <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="17">
+      <c r="A29" s="16">
         <v>27</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="17">
+      <c r="A30" s="16">
         <v>28</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="17">
+      <c r="A31" s="16">
         <v>29</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="17">
+      <c r="A32" s="16">
         <v>30</v>
       </c>
-      <c r="B32" s="18"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="17">
+      <c r="A33" s="16">
         <v>31</v>
       </c>
-      <c r="B33" s="18"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="17">
+      <c r="A34" s="16">
         <v>32</v>
       </c>
-      <c r="B34" s="18"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>33</v>
       </c>
-      <c r="B35" s="18"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="17">
+      <c r="A36" s="16">
         <v>34</v>
       </c>
-      <c r="B36" s="18"/>
+      <c r="B36" s="17"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="17">
+      <c r="A37" s="16">
         <v>35</v>
       </c>
-      <c r="B37" s="18"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="17">
+      <c r="A38" s="16">
         <v>36</v>
       </c>
-      <c r="B38" s="18"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="17">
+      <c r="A39" s="16">
         <v>37</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="17"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="17">
+      <c r="A40" s="16">
         <v>38</v>
       </c>
-      <c r="B40" s="18"/>
+      <c r="B40" s="17"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="17">
+      <c r="A41" s="16">
         <v>39</v>
       </c>
-      <c r="B41" s="18"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="17">
+      <c r="A42" s="16">
         <v>40</v>
       </c>
-      <c r="B42" s="18"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="17">
+      <c r="A43" s="16">
         <v>41</v>
       </c>
-      <c r="B43" s="18"/>
+      <c r="B43" s="17"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="17">
+      <c r="A44" s="16">
         <v>42</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="17"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="17">
+      <c r="A45" s="16">
         <v>43</v>
       </c>
-      <c r="B45" s="18"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="17">
+      <c r="A46" s="16">
         <v>44</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="17">
+      <c r="A47" s="16">
         <v>45</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="17"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="17">
+      <c r="A48" s="16">
         <v>46</v>
       </c>
-      <c r="B48" s="18"/>
+      <c r="B48" s="17"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="17">
+      <c r="A49" s="16">
         <v>47</v>
       </c>
-      <c r="B49" s="18"/>
+      <c r="B49" s="17"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="17">
+      <c r="A50" s="16">
         <v>48</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="17">
+      <c r="A51" s="16">
         <v>49</v>
       </c>
-      <c r="B51" s="18"/>
+      <c r="B51" s="17"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="17">
+      <c r="A52" s="16">
         <v>50</v>
       </c>
-      <c r="B52" s="18"/>
+      <c r="B52" s="17"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="17">
+      <c r="A53" s="16">
         <v>51</v>
       </c>
-      <c r="B53" s="18"/>
+      <c r="B53" s="17"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="17">
+      <c r="A54" s="16">
         <v>52</v>
       </c>
-      <c r="B54" s="18"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="17">
+      <c r="A55" s="16">
         <v>53</v>
       </c>
-      <c r="B55" s="18"/>
+      <c r="B55" s="17"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="17">
+      <c r="A56" s="16">
         <v>54</v>
       </c>
-      <c r="B56" s="18"/>
+      <c r="B56" s="17"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="17">
+      <c r="A57" s="16">
         <v>55</v>
       </c>
-      <c r="B57" s="18"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="17">
+      <c r="A58" s="16">
         <v>56</v>
       </c>
-      <c r="B58" s="18"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="17">
+      <c r="A59" s="16">
         <v>57</v>
       </c>
-      <c r="B59" s="18"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="17">
+      <c r="A60" s="16">
         <v>58</v>
       </c>
-      <c r="B60" s="18"/>
+      <c r="B60" s="17"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="17">
+      <c r="A61" s="16">
         <v>59</v>
       </c>
-      <c r="B61" s="18"/>
+      <c r="B61" s="17"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="17">
+      <c r="A62" s="16">
         <v>60</v>
       </c>
-      <c r="B62" s="18"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="17">
+      <c r="A63" s="16">
         <v>61</v>
       </c>
-      <c r="B63" s="18"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="17">
+      <c r="A64" s="16">
         <v>62</v>
       </c>
-      <c r="B64" s="18"/>
+      <c r="B64" s="17"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="17">
+      <c r="A65" s="16">
         <v>63</v>
       </c>
-      <c r="B65" s="18"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="17">
+      <c r="A66" s="16">
         <v>64</v>
       </c>
-      <c r="B66" s="18"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="17">
+      <c r="A67" s="16">
         <v>65</v>
       </c>
-      <c r="B67" s="18"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="17">
+      <c r="A68" s="16">
         <v>66</v>
       </c>
-      <c r="B68" s="18"/>
+      <c r="B68" s="17"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="17">
+      <c r="A69" s="16">
         <v>67</v>
       </c>
-      <c r="B69" s="18"/>
+      <c r="B69" s="17"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="17">
+      <c r="A70" s="16">
         <v>68</v>
       </c>
-      <c r="B70" s="18"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="17">
+      <c r="A71" s="16">
         <v>69</v>
       </c>
-      <c r="B71" s="18"/>
+      <c r="B71" s="17"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="17">
+      <c r="A72" s="16">
         <v>70</v>
       </c>
-      <c r="B72" s="18"/>
+      <c r="B72" s="17"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="17">
+      <c r="A73" s="16">
         <v>71</v>
       </c>
-      <c r="B73" s="18"/>
+      <c r="B73" s="17"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="17">
+      <c r="A74" s="16">
         <v>72</v>
       </c>
-      <c r="B74" s="18"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="17">
+      <c r="A75" s="16">
         <v>73</v>
       </c>
-      <c r="B75" s="18"/>
+      <c r="B75" s="17"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="17">
+      <c r="A76" s="16">
         <v>74</v>
       </c>
-      <c r="B76" s="18"/>
+      <c r="B76" s="17"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="17">
+      <c r="A77" s="16">
         <v>75</v>
       </c>
-      <c r="B77" s="18"/>
+      <c r="B77" s="17"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="17">
+      <c r="A78" s="16">
         <v>76</v>
       </c>
-      <c r="B78" s="18"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="17">
+      <c r="A79" s="16">
         <v>77</v>
       </c>
-      <c r="B79" s="18"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="17">
+      <c r="A80" s="16">
         <v>78</v>
       </c>
-      <c r="B80" s="18"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="17">
+      <c r="A81" s="16">
         <v>79</v>
       </c>
-      <c r="B81" s="18"/>
+      <c r="B81" s="17"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="17">
+      <c r="A82" s="16">
         <v>80</v>
       </c>
-      <c r="B82" s="18"/>
+      <c r="B82" s="17"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="17">
+      <c r="A83" s="16">
         <v>81</v>
       </c>
-      <c r="B83" s="18"/>
+      <c r="B83" s="17"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="17">
+      <c r="A84" s="16">
         <v>82</v>
       </c>
-      <c r="B84" s="18"/>
+      <c r="B84" s="17"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="17">
+      <c r="A85" s="16">
         <v>83</v>
       </c>
-      <c r="B85" s="18"/>
+      <c r="B85" s="17"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="17">
+      <c r="A86" s="16">
         <v>84</v>
       </c>
-      <c r="B86" s="18"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="17">
+      <c r="A87" s="16">
         <v>85</v>
       </c>
-      <c r="B87" s="18"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="17">
+      <c r="A88" s="16">
         <v>86</v>
       </c>
-      <c r="B88" s="18"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="17">
+      <c r="A89" s="16">
         <v>87</v>
       </c>
-      <c r="B89" s="18"/>
+      <c r="B89" s="17"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="17">
+      <c r="A90" s="16">
         <v>88</v>
       </c>
-      <c r="B90" s="18"/>
+      <c r="B90" s="17"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="17">
+      <c r="A91" s="16">
         <v>89</v>
       </c>
-      <c r="B91" s="18"/>
+      <c r="B91" s="17"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="17">
+      <c r="A92" s="16">
         <v>90</v>
       </c>
-      <c r="B92" s="18"/>
+      <c r="B92" s="17"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="17">
+      <c r="A93" s="16">
         <v>91</v>
       </c>
-      <c r="B93" s="18"/>
+      <c r="B93" s="17"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="17">
+      <c r="A94" s="16">
         <v>92</v>
       </c>
-      <c r="B94" s="18"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="17">
+      <c r="A95" s="16">
         <v>93</v>
       </c>
-      <c r="B95" s="18"/>
+      <c r="B95" s="17"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="17">
+      <c r="A96" s="16">
         <v>94</v>
       </c>
-      <c r="B96" s="18"/>
+      <c r="B96" s="17"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="17">
+      <c r="A97" s="16">
         <v>95</v>
       </c>
-      <c r="B97" s="18"/>
+      <c r="B97" s="17"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="17">
+      <c r="A98" s="16">
         <v>96</v>
       </c>
-      <c r="B98" s="18"/>
+      <c r="B98" s="17"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="17">
+      <c r="A99" s="16">
         <v>97</v>
       </c>
-      <c r="B99" s="18"/>
+      <c r="B99" s="17"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="17">
+      <c r="A100" s="16">
         <v>98</v>
       </c>
-      <c r="B100" s="18"/>
+      <c r="B100" s="17"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="17">
+      <c r="A101" s="16">
         <v>99</v>
       </c>
-      <c r="B101" s="18"/>
+      <c r="B101" s="17"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="17">
+      <c r="A102" s="16">
         <v>100</v>
       </c>
-      <c r="B102" s="18"/>
+      <c r="B102" s="17"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="17">
+      <c r="A103" s="16">
         <v>101</v>
       </c>
-      <c r="B103" s="18"/>
+      <c r="B103" s="17"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="17">
+      <c r="A104" s="16">
         <v>102</v>
       </c>
-      <c r="B104" s="18"/>
+      <c r="B104" s="17"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="17">
+      <c r="A105" s="16">
         <v>103</v>
       </c>
-      <c r="B105" s="18"/>
+      <c r="B105" s="17"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="17">
+      <c r="A106" s="16">
         <v>104</v>
       </c>
-      <c r="B106" s="18"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="17">
+      <c r="A107" s="16">
         <v>105</v>
       </c>
-      <c r="B107" s="18"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="17">
+      <c r="A108" s="16">
         <v>106</v>
       </c>
-      <c r="B108" s="18"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="17">
+      <c r="A109" s="16">
         <v>107</v>
       </c>
-      <c r="B109" s="18"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="17">
+      <c r="A110" s="16">
         <v>108</v>
       </c>
-      <c r="B110" s="18"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="17">
+      <c r="A111" s="16">
         <v>109</v>
       </c>
-      <c r="B111" s="18"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="17">
+      <c r="A112" s="16">
         <v>110</v>
       </c>
-      <c r="B112" s="18"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="17">
+      <c r="A113" s="16">
         <v>111</v>
       </c>
-      <c r="B113" s="18"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="17">
+      <c r="A114" s="16">
         <v>112</v>
       </c>
-      <c r="B114" s="18"/>
+      <c r="B114" s="17"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="17">
+      <c r="A115" s="16">
         <v>113</v>
       </c>
-      <c r="B115" s="18"/>
+      <c r="B115" s="17"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="17">
+      <c r="A116" s="16">
         <v>114</v>
       </c>
-      <c r="B116" s="18"/>
+      <c r="B116" s="17"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="17">
+      <c r="A117" s="16">
         <v>115</v>
       </c>
-      <c r="B117" s="18"/>
+      <c r="B117" s="17"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="17">
+      <c r="A118" s="16">
         <v>116</v>
       </c>
-      <c r="B118" s="18"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="17">
+      <c r="A119" s="16">
         <v>117</v>
       </c>
-      <c r="B119" s="18"/>
+      <c r="B119" s="17"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="17">
+      <c r="A120" s="16">
         <v>118</v>
       </c>
-      <c r="B120" s="18"/>
+      <c r="B120" s="17"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="17">
+      <c r="A121" s="16">
         <v>119</v>
       </c>
-      <c r="B121" s="18"/>
+      <c r="B121" s="17"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="17">
+      <c r="A122" s="16">
         <v>120</v>
       </c>
-      <c r="B122" s="18"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="17">
+      <c r="A123" s="16">
         <v>121</v>
       </c>
-      <c r="B123" s="18"/>
+      <c r="B123" s="17"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="17">
+      <c r="A124" s="16">
         <v>122</v>
       </c>
-      <c r="B124" s="18"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="17">
+      <c r="A125" s="16">
         <v>123</v>
       </c>
-      <c r="B125" s="18"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="17">
+      <c r="A126" s="16">
         <v>124</v>
       </c>
-      <c r="B126" s="18"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="17">
+      <c r="A127" s="16">
         <v>125</v>
       </c>
-      <c r="B127" s="18"/>
+      <c r="B127" s="17"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="17">
+      <c r="A128" s="16">
         <v>126</v>
       </c>
-      <c r="B128" s="18"/>
+      <c r="B128" s="17"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="17">
+      <c r="A129" s="16">
         <v>127</v>
       </c>
-      <c r="B129" s="18"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="17">
+      <c r="A130" s="16">
         <v>128</v>
       </c>
-      <c r="B130" s="18"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="17">
+      <c r="A131" s="16">
         <v>129</v>
       </c>
-      <c r="B131" s="18"/>
+      <c r="B131" s="17"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="17">
+      <c r="A132" s="16">
         <v>130</v>
       </c>
-      <c r="B132" s="18"/>
+      <c r="B132" s="17"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="17">
+      <c r="A133" s="16">
         <v>131</v>
       </c>
-      <c r="B133" s="18"/>
+      <c r="B133" s="17"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="17">
+      <c r="A134" s="16">
         <v>132</v>
       </c>
-      <c r="B134" s="18"/>
+      <c r="B134" s="17"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="17">
+      <c r="A135" s="16">
         <v>133</v>
       </c>
-      <c r="B135" s="18"/>
+      <c r="B135" s="17"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="17">
+      <c r="A136" s="16">
         <v>134</v>
       </c>
-      <c r="B136" s="18"/>
+      <c r="B136" s="17"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="17">
+      <c r="A137" s="16">
         <v>135</v>
       </c>
-      <c r="B137" s="18"/>
+      <c r="B137" s="17"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="17">
+      <c r="A138" s="16">
         <v>136</v>
       </c>
-      <c r="B138" s="18"/>
+      <c r="B138" s="17"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="17">
+      <c r="A139" s="16">
         <v>137</v>
       </c>
-      <c r="B139" s="18"/>
+      <c r="B139" s="17"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="17">
+      <c r="A140" s="16">
         <v>138</v>
       </c>
-      <c r="B140" s="18"/>
+      <c r="B140" s="17"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="17">
+      <c r="A141" s="16">
         <v>139</v>
       </c>
-      <c r="B141" s="18"/>
+      <c r="B141" s="17"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="17">
+      <c r="A142" s="16">
         <v>140</v>
       </c>
-      <c r="B142" s="18"/>
+      <c r="B142" s="17"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="17">
+      <c r="A143" s="16">
         <v>141</v>
       </c>
-      <c r="B143" s="18"/>
+      <c r="B143" s="17"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="17">
+      <c r="A144" s="16">
         <v>142</v>
       </c>
-      <c r="B144" s="18"/>
+      <c r="B144" s="17"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="17">
+      <c r="A145" s="16">
         <v>143</v>
       </c>
-      <c r="B145" s="18"/>
+      <c r="B145" s="17"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="17">
+      <c r="A146" s="16">
         <v>144</v>
       </c>
-      <c r="B146" s="18"/>
+      <c r="B146" s="17"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="17">
+      <c r="A147" s="16">
         <v>145</v>
       </c>
-      <c r="B147" s="18"/>
+      <c r="B147" s="17"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="17">
+      <c r="A148" s="16">
         <v>146</v>
       </c>
-      <c r="B148" s="18"/>
+      <c r="B148" s="17"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="17">
+      <c r="A149" s="16">
         <v>147</v>
       </c>
-      <c r="B149" s="18"/>
+      <c r="B149" s="17"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="17">
+      <c r="A150" s="16">
         <v>148</v>
       </c>
-      <c r="B150" s="18"/>
+      <c r="B150" s="17"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="17">
+      <c r="A151" s="16">
         <v>149</v>
       </c>
-      <c r="B151" s="18"/>
+      <c r="B151" s="17"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="17">
+      <c r="A152" s="16">
         <v>150</v>
       </c>
-      <c r="B152" s="18"/>
+      <c r="B152" s="17"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="17">
+      <c r="A153" s="16">
         <v>151</v>
       </c>
-      <c r="B153" s="18"/>
+      <c r="B153" s="17"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="17">
+      <c r="A154" s="16">
         <v>152</v>
       </c>
-      <c r="B154" s="18"/>
+      <c r="B154" s="17"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="17">
+      <c r="A155" s="16">
         <v>153</v>
       </c>
-      <c r="B155" s="18"/>
+      <c r="B155" s="17"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="17">
+      <c r="A156" s="16">
         <v>154</v>
       </c>
-      <c r="B156" s="18"/>
+      <c r="B156" s="17"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="17">
+      <c r="A157" s="16">
         <v>155</v>
       </c>
-      <c r="B157" s="18"/>
+      <c r="B157" s="17"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="17">
+      <c r="A158" s="16">
         <v>156</v>
       </c>
-      <c r="B158" s="18"/>
+      <c r="B158" s="17"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="17">
+      <c r="A159" s="16">
         <v>157</v>
       </c>
-      <c r="B159" s="18"/>
+      <c r="B159" s="17"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="17">
+      <c r="A160" s="16">
         <v>158</v>
       </c>
-      <c r="B160" s="18"/>
+      <c r="B160" s="17"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="17">
+      <c r="A161" s="16">
         <v>159</v>
       </c>
-      <c r="B161" s="18"/>
+      <c r="B161" s="17"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="17">
+      <c r="A162" s="16">
         <v>160</v>
       </c>
-      <c r="B162" s="18"/>
+      <c r="B162" s="17"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="17">
+      <c r="A163" s="16">
         <v>161</v>
       </c>
-      <c r="B163" s="18"/>
+      <c r="B163" s="17"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="17">
+      <c r="A164" s="16">
         <v>162</v>
       </c>
-      <c r="B164" s="18"/>
+      <c r="B164" s="17"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="17">
+      <c r="A165" s="16">
         <v>163</v>
       </c>
-      <c r="B165" s="18"/>
+      <c r="B165" s="17"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="17">
+      <c r="A166" s="16">
         <v>164</v>
       </c>
-      <c r="B166" s="18"/>
+      <c r="B166" s="17"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="17">
+      <c r="A167" s="16">
         <v>165</v>
       </c>
-      <c r="B167" s="18"/>
+      <c r="B167" s="17"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="17">
+      <c r="A168" s="16">
         <v>166</v>
       </c>
-      <c r="B168" s="18"/>
+      <c r="B168" s="17"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="17">
+      <c r="A169" s="16">
         <v>167</v>
       </c>
-      <c r="B169" s="18"/>
+      <c r="B169" s="17"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="17">
+      <c r="A170" s="16">
         <v>168</v>
       </c>
-      <c r="B170" s="18"/>
+      <c r="B170" s="17"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="17">
+      <c r="A171" s="16">
         <v>169</v>
       </c>
-      <c r="B171" s="18"/>
+      <c r="B171" s="17"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="17">
+      <c r="A172" s="16">
         <v>170</v>
       </c>
-      <c r="B172" s="18"/>
+      <c r="B172" s="17"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="17">
+      <c r="A173" s="16">
         <v>171</v>
       </c>
-      <c r="B173" s="18"/>
+      <c r="B173" s="17"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="17">
+      <c r="A174" s="16">
         <v>172</v>
       </c>
-      <c r="B174" s="18"/>
+      <c r="B174" s="17"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="17">
+      <c r="A175" s="16">
         <v>173</v>
       </c>
-      <c r="B175" s="18"/>
+      <c r="B175" s="17"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="17">
+      <c r="A176" s="16">
         <v>174</v>
       </c>
-      <c r="B176" s="18"/>
+      <c r="B176" s="17"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="17">
+      <c r="A177" s="16">
         <v>175</v>
       </c>
-      <c r="B177" s="18"/>
+      <c r="B177" s="17"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="17">
+      <c r="A178" s="16">
         <v>176</v>
       </c>
-      <c r="B178" s="18"/>
+      <c r="B178" s="17"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="17">
+      <c r="A179" s="16">
         <v>177</v>
       </c>
-      <c r="B179" s="18"/>
+      <c r="B179" s="17"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="17">
+      <c r="A180" s="16">
         <v>178</v>
       </c>
-      <c r="B180" s="18"/>
+      <c r="B180" s="17"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="17">
+      <c r="A181" s="16">
         <v>179</v>
       </c>
-      <c r="B181" s="18"/>
+      <c r="B181" s="17"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="17">
+      <c r="A182" s="16">
         <v>180</v>
       </c>
-      <c r="B182" s="18"/>
+      <c r="B182" s="17"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="17">
+      <c r="A183" s="16">
         <v>181</v>
       </c>
-      <c r="B183" s="18"/>
+      <c r="B183" s="17"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="17">
+      <c r="A184" s="16">
         <v>182</v>
       </c>
-      <c r="B184" s="18"/>
+      <c r="B184" s="17"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="17">
+      <c r="A185" s="16">
         <v>183</v>
       </c>
-      <c r="B185" s="18"/>
+      <c r="B185" s="17"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="17">
+      <c r="A186" s="16">
         <v>184</v>
       </c>
-      <c r="B186" s="18"/>
+      <c r="B186" s="17"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="17">
+      <c r="A187" s="16">
         <v>185</v>
       </c>
-      <c r="B187" s="18"/>
+      <c r="B187" s="17"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="17">
+      <c r="A188" s="16">
         <v>186</v>
       </c>
-      <c r="B188" s="18"/>
+      <c r="B188" s="17"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="17">
+      <c r="A189" s="16">
         <v>187</v>
       </c>
-      <c r="B189" s="18"/>
+      <c r="B189" s="17"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="17">
+      <c r="A190" s="16">
         <v>188</v>
       </c>
-      <c r="B190" s="18"/>
+      <c r="B190" s="17"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="17">
+      <c r="A191" s="16">
         <v>189</v>
       </c>
-      <c r="B191" s="18"/>
+      <c r="B191" s="17"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="17">
+      <c r="A192" s="16">
         <v>190</v>
       </c>
-      <c r="B192" s="18"/>
+      <c r="B192" s="17"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="17">
+      <c r="A193" s="16">
         <v>191</v>
       </c>
-      <c r="B193" s="18"/>
+      <c r="B193" s="17"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="17">
+      <c r="A194" s="16">
         <v>192</v>
       </c>
-      <c r="B194" s="18"/>
+      <c r="B194" s="17"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="17">
+      <c r="A195" s="16">
         <v>193</v>
       </c>
-      <c r="B195" s="18"/>
+      <c r="B195" s="17"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="17">
+      <c r="A196" s="16">
         <v>194</v>
       </c>
-      <c r="B196" s="18"/>
+      <c r="B196" s="17"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="17">
+      <c r="A197" s="16">
         <v>195</v>
       </c>
-      <c r="B197" s="18"/>
+      <c r="B197" s="17"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="17">
+      <c r="A198" s="16">
         <v>196</v>
       </c>
-      <c r="B198" s="18"/>
+      <c r="B198" s="17"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="17">
+      <c r="A199" s="16">
         <v>197</v>
       </c>
-      <c r="B199" s="18"/>
+      <c r="B199" s="17"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="17">
+      <c r="A200" s="16">
         <v>198</v>
       </c>
-      <c r="B200" s="18"/>
+      <c r="B200" s="17"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="17">
+      <c r="A201" s="16">
         <v>199</v>
       </c>
-      <c r="B201" s="18"/>
+      <c r="B201" s="17"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="17">
+      <c r="A202" s="16">
         <v>200</v>
       </c>
-      <c r="B202" s="18"/>
+      <c r="B202" s="17"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="17">
+      <c r="A203" s="16">
         <v>201</v>
       </c>
-      <c r="B203" s="18"/>
+      <c r="B203" s="17"/>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="17">
+      <c r="A204" s="16">
         <v>202</v>
       </c>
-      <c r="B204" s="18"/>
+      <c r="B204" s="17"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="17">
+      <c r="A205" s="16">
         <v>203</v>
       </c>
-      <c r="B205" s="18"/>
+      <c r="B205" s="17"/>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="17">
+      <c r="A206" s="16">
         <v>204</v>
       </c>
-      <c r="B206" s="18"/>
+      <c r="B206" s="17"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="17">
+      <c r="A207" s="16">
         <v>205</v>
       </c>
-      <c r="B207" s="18"/>
+      <c r="B207" s="17"/>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="17">
+      <c r="A208" s="16">
         <v>206</v>
       </c>
-      <c r="B208" s="18"/>
+      <c r="B208" s="17"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="17">
+      <c r="A209" s="16">
         <v>207</v>
       </c>
-      <c r="B209" s="18"/>
+      <c r="B209" s="17"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="17">
+      <c r="A210" s="16">
         <v>208</v>
       </c>
-      <c r="B210" s="18"/>
+      <c r="B210" s="17"/>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="17">
+      <c r="A211" s="16">
         <v>209</v>
       </c>
-      <c r="B211" s="18"/>
+      <c r="B211" s="17"/>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="17">
+      <c r="A212" s="16">
         <v>210</v>
       </c>
-      <c r="B212" s="18"/>
+      <c r="B212" s="17"/>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="17">
+      <c r="A213" s="16">
         <v>211</v>
       </c>
-      <c r="B213" s="18"/>
+      <c r="B213" s="17"/>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="17">
+      <c r="A214" s="16">
         <v>212</v>
       </c>
-      <c r="B214" s="18"/>
+      <c r="B214" s="17"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="17">
+      <c r="A215" s="16">
         <v>213</v>
       </c>
-      <c r="B215" s="18"/>
+      <c r="B215" s="17"/>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="17">
+      <c r="A216" s="16">
         <v>214</v>
       </c>
-      <c r="B216" s="18"/>
+      <c r="B216" s="17"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
       <c r="E216" s="8"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="17">
+      <c r="A217" s="16">
         <v>215</v>
       </c>
-      <c r="B217" s="18"/>
+      <c r="B217" s="17"/>
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="17">
+      <c r="A218" s="16">
         <v>216</v>
       </c>
-      <c r="B218" s="18"/>
+      <c r="B218" s="17"/>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="17">
+      <c r="A219" s="16">
         <v>217</v>
       </c>
-      <c r="B219" s="18"/>
+      <c r="B219" s="17"/>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="17">
+      <c r="A220" s="16">
         <v>218</v>
       </c>
-      <c r="B220" s="18"/>
+      <c r="B220" s="17"/>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="17">
+      <c r="A221" s="16">
         <v>219</v>
       </c>
-      <c r="B221" s="18"/>
+      <c r="B221" s="17"/>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="17">
+      <c r="A222" s="16">
         <v>220</v>
       </c>
-      <c r="B222" s="18"/>
+      <c r="B222" s="17"/>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="17">
+      <c r="A223" s="16">
         <v>221</v>
       </c>
-      <c r="B223" s="18"/>
+      <c r="B223" s="17"/>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="17">
+      <c r="A224" s="16">
         <v>222</v>
       </c>
-      <c r="B224" s="18"/>
+      <c r="B224" s="17"/>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="17">
+      <c r="A225" s="16">
         <v>223</v>
       </c>
-      <c r="B225" s="18"/>
+      <c r="B225" s="17"/>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="17">
+      <c r="A226" s="16">
         <v>224</v>
       </c>
-      <c r="B226" s="18"/>
+      <c r="B226" s="17"/>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="17">
+      <c r="A227" s="16">
         <v>225</v>
       </c>
-      <c r="B227" s="18"/>
+      <c r="B227" s="17"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="17">
+      <c r="A228" s="16">
         <v>226</v>
       </c>
-      <c r="B228" s="18"/>
+      <c r="B228" s="17"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="17">
+      <c r="A229" s="16">
         <v>227</v>
       </c>
-      <c r="B229" s="18"/>
+      <c r="B229" s="17"/>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="17">
+      <c r="A230" s="16">
         <v>228</v>
       </c>
-      <c r="B230" s="18"/>
+      <c r="B230" s="17"/>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="17">
+      <c r="A231" s="16">
         <v>229</v>
       </c>
-      <c r="B231" s="18"/>
+      <c r="B231" s="17"/>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="17">
+      <c r="A232" s="16">
         <v>230</v>
       </c>
-      <c r="B232" s="18"/>
+      <c r="B232" s="17"/>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="17">
+      <c r="A233" s="16">
         <v>231</v>
       </c>
-      <c r="B233" s="18"/>
+      <c r="B233" s="17"/>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="17">
+      <c r="A234" s="16">
         <v>232</v>
       </c>
-      <c r="B234" s="18"/>
+      <c r="B234" s="17"/>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="17">
+      <c r="A235" s="16">
         <v>233</v>
       </c>
-      <c r="B235" s="18"/>
+      <c r="B235" s="17"/>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="17">
+      <c r="A236" s="16">
         <v>234</v>
       </c>
-      <c r="B236" s="18"/>
+      <c r="B236" s="17"/>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="17">
+      <c r="A237" s="16">
         <v>235</v>
       </c>
-      <c r="B237" s="18"/>
+      <c r="B237" s="17"/>
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="17">
+      <c r="A238" s="16">
         <v>236</v>
       </c>
-      <c r="B238" s="18"/>
+      <c r="B238" s="17"/>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="17">
+      <c r="A239" s="16">
         <v>237</v>
       </c>
-      <c r="B239" s="18"/>
+      <c r="B239" s="17"/>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="17">
+      <c r="A240" s="16">
         <v>238</v>
       </c>
-      <c r="B240" s="18"/>
+      <c r="B240" s="17"/>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="17">
+      <c r="A241" s="16">
         <v>239</v>
       </c>
-      <c r="B241" s="18"/>
+      <c r="B241" s="17"/>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="17">
+      <c r="A242" s="16">
         <v>240</v>
       </c>
-      <c r="B242" s="18"/>
+      <c r="B242" s="17"/>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="17">
+      <c r="A243" s="16">
         <v>241</v>
       </c>
-      <c r="B243" s="18"/>
+      <c r="B243" s="17"/>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="17">
+      <c r="A244" s="16">
         <v>242</v>
       </c>
-      <c r="B244" s="18"/>
+      <c r="B244" s="17"/>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="17">
+      <c r="A245" s="16">
         <v>243</v>
       </c>
-      <c r="B245" s="18"/>
+      <c r="B245" s="17"/>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="17">
+      <c r="A246" s="16">
         <v>244</v>
       </c>
-      <c r="B246" s="18"/>
+      <c r="B246" s="17"/>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
@@ -3754,7 +3808,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3764,14 +3818,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -3779,7 +3833,7 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3792,30 +3846,16 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E492794-35D2-4B4D-98B8-65350AA70203}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86705FD8-FD6A-2645-8F53-B90020DD0C99}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -3828,15 +3868,15 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3847,129 +3887,129 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>186</v>
+      <c r="C2" s="45" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>51</v>
+      <c r="C3" s="34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>74</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>154</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>109</v>
+        <v>43</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>177</v>
+        <v>144</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>178</v>
+        <v>144</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>180</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3978,7 +4018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C518B2-6D0B-4356-B863-8C9155736DBC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3993,16 +4033,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4016,71 +4056,73 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>180</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
@@ -4091,7 +4133,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -4099,7 +4141,7 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4113,46 +4155,46 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4168,30 +4210,30 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -4207,7 +4249,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -4226,44 +4268,44 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716C1B4D-4771-F44B-B435-7A9E1334B376}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -4277,312 +4319,312 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="L1" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="F2" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="19" t="s">
+      <c r="J3" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="H10" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="J10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="19" t="s">
+      <c r="L14" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="18"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="18"/>
+      <c r="C19" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J11" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="19" t="s">
+    </row>
+    <row r="21" spans="1:11">
+      <c r="C21" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="19"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="19"/>
-      <c r="C19" s="19" t="s">
+    </row>
+    <row r="23" spans="1:11" ht="60" customHeight="1">
+      <c r="C23" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="C26" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="C21" s="19" t="s">
+    <row r="27" spans="1:11">
+      <c r="C27" s="59" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="60" customHeight="1">
-      <c r="C23" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="C26" s="19" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="C27" s="56" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="19" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4596,17 +4638,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
     <col min="2" max="2" width="59.33203125" customWidth="1"/>
-    <col min="3" max="3" width="52.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4619,225 +4661,219 @@
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="20" t="s">
-        <v>116</v>
+      <c r="A2" s="56" t="s">
+        <v>113</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>194</v>
+      <c r="A4" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="47"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="20" t="s">
-        <v>118</v>
+      <c r="A7" s="56" t="s">
+        <v>196</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>132</v>
+        <v>111</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="20" t="s">
-        <v>204</v>
+      <c r="A8" s="56" t="s">
+        <v>190</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>208</v>
+        <v>191</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="45" t="s">
+      <c r="A10" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" s="5" customFormat="1">
+      <c r="A11" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" s="5" customFormat="1">
-      <c r="A11" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="22"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>193</v>
+      <c r="B14" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="21" t="s">
-        <v>120</v>
+      <c r="A15" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="20"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>131</v>
+        <v>105</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="41"/>
+      <c r="C17" s="38"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="25"/>
+      <c r="A18" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="24" t="s">
+      <c r="A19" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="25" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="54" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" location="users!A1" display="users" xr:uid="{FD3551F7-5C53-E147-A9A4-2DCC946E4F47}"/>
-    <hyperlink ref="A4" location="friendships!A1" display="friendships" xr:uid="{EAD51FB8-4E34-1549-9BB1-AB05D2996A1A}"/>
-    <hyperlink ref="A6" location="msgHist!A1" display="msgHist" xr:uid="{2C6920DA-B10E-0E40-974C-A367944C05B7}"/>
-    <hyperlink ref="A9" location="mucHist!A1" display="mucHist" xr:uid="{CDE89D06-826D-C546-8D69-F76BFD1C8304}"/>
-    <hyperlink ref="A7" location="offlineMsgs!A1" display="offlineMsgs" xr:uid="{713F02B3-B02B-D94F-81D3-C227A865C239}"/>
-    <hyperlink ref="A10" location="notifications!A1" display="notifications" xr:uid="{9B2F6642-C01A-3441-A0C6-34A13C83C559}"/>
-    <hyperlink ref="A3" location="invitations!A1" display="invitations" xr:uid="{CDDB9C0E-C9F1-0D48-B82B-5418B0AAA991}"/>
-    <hyperlink ref="A12" location="tmpConvs!A1" display="tmpConvs" xr:uid="{88757BCD-F0F1-3B49-807C-7181F539CECB}"/>
-    <hyperlink ref="A5" location="groups!A1" display="groups" xr:uid="{3B79E3B9-6415-4B49-8028-BA77861E2D5A}"/>
-  </hyperlinks>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4845,10 +4881,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4859,43 +4895,43 @@
     <col min="4" max="4" width="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="39" customFormat="1">
-      <c r="A1" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:4" s="36" customFormat="1">
+      <c r="A1" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="55" t="s">
-        <v>172</v>
+      <c r="C2" s="42"/>
+      <c r="D2" s="58" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="46" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="55"/>
+      <c r="C3" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -4909,116 +4945,151 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="A5" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="D8" s="55"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="55"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="55"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" s="55"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="55"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="55"/>
+      <c r="C13" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="55"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="37" t="s">
+      <c r="D15" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1">
-      <c r="A11" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>161</v>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1">
+      <c r="A17" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5028,7 +5099,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
@@ -5039,17 +5112,17 @@
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="39" customFormat="1">
-      <c r="A1" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:5" s="36" customFormat="1">
+      <c r="A1" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5061,143 +5134,143 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>145</v>
+      <c r="C3" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>150</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>146</v>
+      <c r="C5" s="34" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>147</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
         <v>46</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>49</v>
-      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>189</v>
+      <c r="A11" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="C16" s="19"/>
+      <c r="C16" s="18"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="C17" s="19"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="D19" s="19"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="C20" s="19"/>
+      <c r="C20" s="18"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5">
@@ -5207,7 +5280,7 @@
       <c r="E22" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5215,9 +5288,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
@@ -5226,17 +5301,17 @@
     <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="39" customFormat="1">
-      <c r="A1" s="52" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:4" s="36" customFormat="1">
+      <c r="A1" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="37" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5250,13 +5325,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>187</v>
+      <c r="C3" s="55" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5272,61 +5347,72 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
+      <c r="A7" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
+      <c r="A8" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5337,7 +5423,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5350,7 +5436,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5358,7 +5444,7 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5369,137 +5455,137 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>198</v>
+      <c r="C2" s="49" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>186</v>
+      <c r="C3" s="45" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>103</v>
+      <c r="A4" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>199</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>206</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>110</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>108</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>106</v>
+        <v>43</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>180</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="71" spans="3:3">
-      <c r="C71" s="19"/>
+      <c r="C71" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5511,7 +5597,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5523,7 +5609,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5531,7 +5617,7 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5542,129 +5628,129 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>198</v>
+      <c r="C2" s="49" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>186</v>
+      <c r="C3" s="45" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>153</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>110</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
       <c r="C10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>106</v>
+        <v>43</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>180</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5678,18 +5764,18 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5697,7 +5783,7 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5711,78 +5797,75 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>139</v>
+      <c r="C3" s="34" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
+        <v>128</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" t="s">
-        <v>202</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="1"/>
     </row>
     <row r="24" spans="2:3">
-      <c r="C24" s="37"/>
+      <c r="C24" s="34"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="1"/>
@@ -5798,7 +5881,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5810,7 +5893,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5818,7 +5901,7 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5829,107 +5912,107 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>198</v>
+      <c r="C2" s="49" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="53" t="s">
-        <v>197</v>
+      <c r="C3" s="49" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>74</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>110</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>106</v>
+        <v>43</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA3054E-7A1B-8D4A-8C40-2963C34FE540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE35BA8-3C86-DC4E-A8FD-F4FD35143466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="228">
   <si>
     <t>修订历史</t>
   </si>
@@ -712,9 +712,6 @@
     <t>黑名单/屏蔽联系人</t>
   </si>
   <si>
-    <t>可用redis优化处理，并同步到mongodb</t>
-  </si>
-  <si>
     <t>uid</t>
   </si>
   <si>
@@ -893,6 +890,33 @@
   </si>
   <si>
     <t>会话id,等于invitaion的id</t>
+  </si>
+  <si>
+    <t>可用redis优化处理，并同步到mongodb/此表可以不要</t>
+  </si>
+  <si>
+    <t>unreadCount</t>
+  </si>
+  <si>
+    <t>未读数</t>
+  </si>
+  <si>
+    <t>msgId</t>
+  </si>
+  <si>
+    <t>消息id</t>
+  </si>
+  <si>
+    <t>msgStatus</t>
+  </si>
+  <si>
+    <t>msgDirection</t>
+  </si>
+  <si>
+    <t>消息方向IN、OUT</t>
+  </si>
+  <si>
+    <t>咨询方向PIN， POUT，SIN ，SOUT， NONE</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1640,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3825,7 +3849,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -3853,10 +3877,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86705FD8-FD6A-2645-8F53-B90020DD0C99}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3868,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -3888,128 +3912,161 @@
         <v>18</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>50</v>
+      <c r="C4" s="34" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>72</v>
+      <c r="C6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>146</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>107</v>
+      <c r="C10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>165</v>
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>168</v>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4022,7 +4079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C518B2-6D0B-4356-B863-8C9155736DBC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
@@ -4034,7 +4091,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>16</v>
@@ -4062,7 +4119,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4073,7 +4130,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4084,7 +4141,7 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4100,13 +4157,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4133,7 +4190,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -4249,7 +4306,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -4641,7 +4698,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4674,7 +4731,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>122</v>
@@ -4683,13 +4740,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="56" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4706,7 +4763,7 @@
         <v>120</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>126</v>
@@ -4714,7 +4771,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>111</v>
@@ -4725,13 +4782,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="C8" s="50" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4747,7 +4804,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="56" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>147</v>
@@ -4756,13 +4813,13 @@
     </row>
     <row r="11" spans="1:4" s="5" customFormat="1">
       <c r="A11" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>188</v>
-      </c>
       <c r="C11" s="51" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4776,13 +4833,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4793,7 +4850,7 @@
         <v>158</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4827,7 +4884,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>118</v>
@@ -4836,7 +4893,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>123</v>
@@ -4869,7 +4926,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4884,7 +4941,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4897,7 +4954,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="36" customFormat="1">
       <c r="A1" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>16</v>
@@ -4918,18 +4975,18 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D3" s="58"/>
     </row>
@@ -4946,27 +5003,27 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4974,50 +5031,50 @@
         <v>22</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" s="55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" s="55" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="55"/>
       <c r="C12" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="55"/>
       <c r="C13" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D13" s="55"/>
     </row>
@@ -5034,7 +5091,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -5114,7 +5171,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="36" customFormat="1">
       <c r="A1" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>16</v>
@@ -5137,7 +5194,7 @@
         <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5249,7 +5306,7 @@
         <v>141</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5303,7 +5360,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="36" customFormat="1">
       <c r="A1" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>16</v>
@@ -5331,7 +5388,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5347,46 +5404,46 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="55" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>209</v>
-      </c>
       <c r="C8" s="55" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5423,7 +5480,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5436,7 +5493,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5456,7 +5513,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5467,7 +5524,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5478,7 +5535,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5505,80 +5562,91 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>186</v>
+      <c r="C7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>191</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>104</v>
+      <c r="C12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>168</v>
+      <c r="C14" s="44" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="3:3">
@@ -5594,10 +5662,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E332DA5C-9E74-2544-80DA-1DFF3A4CBCC2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5609,7 +5677,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5629,7 +5697,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5640,7 +5708,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5651,7 +5719,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5678,79 +5746,90 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>70</v>
+      <c r="C7" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>104</v>
+      <c r="C12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>167</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5775,7 +5854,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5855,7 +5934,7 @@
         <v>128</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
         <v>136</v>
@@ -5881,7 +5960,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5893,7 +5972,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5913,7 +5992,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5924,7 +6003,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5935,7 +6014,7 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5962,7 +6041,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE35BA8-3C86-DC4E-A8FD-F4FD35143466}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA6132-478B-DA40-A214-10C529EEE9C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="225">
   <si>
     <t>修订历史</t>
   </si>
@@ -751,12 +751,6 @@
     <t>好友备注</t>
   </si>
   <si>
-    <t>等于friendships的conversationId</t>
-  </si>
-  <si>
-    <t>conversation id 使用friendship的 conversationId或group的 _id 或tmpConvs的_id作为会话id</t>
-  </si>
-  <si>
     <t>会话类型：0、P2P一对一会话；1、MUC多人会话；  2、CHANNEL一对多的会话类型</t>
   </si>
   <si>
@@ -782,9 +776,6 @@
   </si>
   <si>
     <t>v2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conversation id 使用group的 _id </t>
   </si>
   <si>
     <t>msg id 【前端需要存储而外的seq字段，用户协议响应部分】</t>
@@ -1287,13 +1278,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>80516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4501531</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>32754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1640,7 +1631,7 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3849,7 +3840,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -3892,7 +3883,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -3911,19 +3902,17 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>173</v>
-      </c>
+      <c r="C2" s="45"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3950,13 +3939,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3972,7 +3961,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -4060,13 +4049,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4079,7 +4068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C518B2-6D0B-4356-B863-8C9155736DBC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
@@ -4091,7 +4080,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>16</v>
@@ -4119,7 +4108,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4130,7 +4119,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4141,7 +4130,7 @@
         <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4190,7 +4179,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -4306,7 +4295,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -4731,7 +4720,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>122</v>
@@ -4740,13 +4729,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="56" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4763,7 +4752,7 @@
         <v>120</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>126</v>
@@ -4771,7 +4760,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="56" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>111</v>
@@ -4782,13 +4771,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="50" t="s">
         <v>189</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4804,7 +4793,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="56" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B10" s="41" t="s">
         <v>147</v>
@@ -4813,13 +4802,13 @@
     </row>
     <row r="11" spans="1:4" s="5" customFormat="1">
       <c r="A11" s="56" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4833,13 +4822,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="28" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B13" s="23" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4850,7 +4839,7 @@
         <v>158</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4884,7 +4873,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>118</v>
@@ -4893,7 +4882,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>123</v>
@@ -4926,7 +4915,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="54" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4954,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="36" customFormat="1">
       <c r="A1" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>16</v>
@@ -5003,27 +4992,27 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="55" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B5" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5031,18 +5020,18 @@
         <v>22</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="55" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D8" s="55"/>
     </row>
@@ -5054,27 +5043,27 @@
     </row>
     <row r="10" spans="1:4">
       <c r="C10" s="55" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" s="55" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="55"/>
       <c r="C12" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="55"/>
       <c r="C13" s="55" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D13" s="55"/>
     </row>
@@ -5091,7 +5080,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -5157,12 +5146,12 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
@@ -5171,7 +5160,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="36" customFormat="1">
       <c r="A1" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>16</v>
@@ -5190,12 +5179,6 @@
       <c r="B2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -5306,7 +5289,7 @@
         <v>141</v>
       </c>
       <c r="D11" s="45" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5360,7 +5343,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="36" customFormat="1">
       <c r="A1" s="48" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="36" t="s">
         <v>16</v>
@@ -5388,7 +5371,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5426,24 +5409,24 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="55" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B7" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>208</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>207</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5477,10 +5460,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5493,7 +5476,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5513,144 +5496,133 @@
         <v>18</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>100</v>
+      <c r="A3" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>173</v>
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="55" t="s">
-        <v>101</v>
+      <c r="A4" t="s">
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>226</v>
+      <c r="C7" s="18" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>191</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
+      <c r="C12" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="71" spans="3:3">
-      <c r="C71" s="18"/>
+      <c r="C13" s="44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
@@ -5662,10 +5634,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E332DA5C-9E74-2544-80DA-1DFF3A4CBCC2}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5677,7 +5649,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5697,138 +5669,127 @@
         <v>18</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>173</v>
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>226</v>
+      <c r="C7" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>108</v>
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>53</v>
+      <c r="C12" s="18" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>166</v>
-      </c>
-      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C13" s="44" t="s">
         <v>167</v>
       </c>
     </row>
@@ -5843,7 +5804,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5854,7 +5815,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5934,7 +5895,7 @@
         <v>128</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
         <v>136</v>
@@ -5957,10 +5918,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC80ECC-5853-6D45-81B5-F68D663C96D9}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5972,7 +5933,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -5992,105 +5953,94 @@
         <v>18</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>183</v>
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>108</v>
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="C10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>104</v>
       </c>
     </row>

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCA6132-478B-DA40-A214-10C529EEE9C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DAA034-5354-C540-AAFC-949A5B62335C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="mucHist" sheetId="23" r:id="rId9"/>
     <sheet name="notification" sheetId="7" r:id="rId10"/>
     <sheet name="recentContact" sheetId="21" r:id="rId11"/>
-    <sheet name="tmpConvs" sheetId="20" r:id="rId12"/>
+    <sheet name="tmpConversation" sheetId="20" r:id="rId12"/>
     <sheet name="resource" sheetId="10" r:id="rId13"/>
     <sheet name="subscriptions【备用方案】" sheetId="5" r:id="rId14"/>
     <sheet name="店铺咨询逻辑" sheetId="25" r:id="rId15"/>
@@ -247,11 +247,11 @@
   </si>
   <si>
     <t>消息类型0：文本 1：音频 2：视频 3：位置 4：名片 5：图片 6：讯息 7：团购 8：通知 9：商品 10：易货 11：店铺  12： 抢单 13：群聊邀请 14:群通知 15 文件 16 通知 17回复 18 @  19 预购单 20 配送 21 动态</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>设备号</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -267,7 +267,7 @@
       </rPr>
       <t xml:space="preserve"> 6:发送失败</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -283,7 +283,7 @@
       </rPr>
       <t>enderId</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -299,7 +299,7 @@
       </rPr>
       <t>eceiverId</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -315,7 +315,7 @@
       </rPr>
       <t>enderType</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -331,7 +331,7 @@
       </rPr>
       <t>eceiverType</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -347,31 +347,31 @@
       </rPr>
       <t>irection</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>consult</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>store</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>out</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>存储</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -387,7 +387,7 @@
       </rPr>
       <t>sult</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -403,7 +403,7 @@
       </rPr>
       <t>tore</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -419,7 +419,7 @@
       </rPr>
       <t>n</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -435,11 +435,11 @@
       </rPr>
       <t>onsult</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>in</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -455,23 +455,23 @@
       </rPr>
       <t>ut</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>A咨询B店铺</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>A店铺回复B</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>B咨询A店铺</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>B店铺回复A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -487,11 +487,11 @@
       </rPr>
       <t>B的会话框内</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>判断当前身份 如果我为商家A</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -507,19 +507,19 @@
       </rPr>
       <t>B</t>
     </r>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>select * from conversation where (senderId=B and senderType=consult and receiverId=A and receiverType=store and direction= out and sessionType=6) or(senderId=A and senderType=store and receiverId=B and receiverType=consult and direction = in and sessionTyep=6)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>select * from conversation where (senderId=B and senderType=consult and receiverType=store and receiverId=A and direction =in and sessionType=6) or (senderId=A and senderType=store  and receiverId=B and receiverType=consult and direction = out and sessionType=6)</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>我为B 我是商家别人咨询我和我回复别人</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>conversationId</t>
@@ -877,9 +877,6 @@
     <t>lastAckMsgTime</t>
   </si>
   <si>
-    <t>Array&lt;Objectid&gt;</t>
-  </si>
-  <si>
     <t>会话id,等于invitaion的id</t>
   </si>
   <si>
@@ -908,6 +905,9 @@
   </si>
   <si>
     <t>咨询方向PIN， POUT，SIN ，SOUT， NONE</t>
+  </si>
+  <si>
+    <t>Array&lt;Member&gt;</t>
   </si>
 </sst>
 </file>
@@ -917,12 +917,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1155,15 +1162,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,7 +1178,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1192,68 +1199,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3823,7 +3831,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3861,7 +3869,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3870,8 +3878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86705FD8-FD6A-2645-8F53-B90020DD0C99}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3906,13 +3914,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3939,13 +3947,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3961,7 +3969,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -4049,13 +4057,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4068,7 +4076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C518B2-6D0B-4356-B863-8C9155736DBC}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
@@ -4156,7 +4166,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4274,7 +4284,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4346,7 +4356,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4808,7 +4818,7 @@
         <v>184</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4919,7 +4929,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5135,7 +5145,7 @@
   <mergeCells count="1">
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5320,7 +5330,7 @@
       <c r="E22" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5371,7 +5381,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5452,7 +5462,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5534,13 +5544,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5556,7 +5566,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -5618,14 +5628,14 @@
         <v>31</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5707,13 +5717,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5729,7 +5739,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -5804,7 +5814,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5894,8 +5904,8 @@
       <c r="A8" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="55" t="s">
-        <v>214</v>
+      <c r="B8" s="60" t="s">
+        <v>224</v>
       </c>
       <c r="C8" t="s">
         <v>136</v>
@@ -5920,8 +5930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC80ECC-5853-6D45-81B5-F68D663C96D9}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5991,7 +6001,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DAA034-5354-C540-AAFC-949A5B62335C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA795237-73AA-E342-9AC7-B6F61A562BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="user" sheetId="1" r:id="rId3"/>
     <sheet name="invitation" sheetId="11" r:id="rId4"/>
     <sheet name="friendship" sheetId="4" r:id="rId5"/>
-    <sheet name="msgHist" sheetId="6" r:id="rId6"/>
-    <sheet name="offlineMsg" sheetId="24" r:id="rId7"/>
-    <sheet name="group" sheetId="22" r:id="rId8"/>
-    <sheet name="mucHist" sheetId="23" r:id="rId9"/>
-    <sheet name="notification" sheetId="7" r:id="rId10"/>
-    <sheet name="recentContact" sheetId="21" r:id="rId11"/>
+    <sheet name="group" sheetId="22" r:id="rId6"/>
+    <sheet name="subscription" sheetId="5" r:id="rId7"/>
+    <sheet name="msgHist" sheetId="6" r:id="rId8"/>
+    <sheet name="offlineMsg" sheetId="24" r:id="rId9"/>
+    <sheet name="mucHist" sheetId="23" r:id="rId10"/>
+    <sheet name="notification" sheetId="7" r:id="rId11"/>
     <sheet name="tmpConversation" sheetId="20" r:id="rId12"/>
     <sheet name="resource" sheetId="10" r:id="rId13"/>
-    <sheet name="subscriptions【备用方案】" sheetId="5" r:id="rId14"/>
+    <sheet name="recentContact" sheetId="21" r:id="rId14"/>
     <sheet name="店铺咨询逻辑" sheetId="25" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="236">
   <si>
     <t>修订历史</t>
   </si>
@@ -75,12 +75,6 @@
     <t>资源对象</t>
   </si>
   <si>
-    <t>关注订阅</t>
-  </si>
-  <si>
-    <t>备选方案</t>
-  </si>
-  <si>
     <t>团队</t>
   </si>
   <si>
@@ -105,21 +99,9 @@
     <t>groups</t>
   </si>
   <si>
-    <t>Array</t>
-  </si>
-  <si>
     <t>加入的群租</t>
   </si>
   <si>
-    <t>followings</t>
-  </si>
-  <si>
-    <t>关注的主页/店铺</t>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
     <t>Object</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
     <t>notice</t>
   </si>
   <si>
-    <t>QRCode</t>
-  </si>
-  <si>
     <t>owner</t>
   </si>
   <si>
@@ -159,9 +138,6 @@
     <t>邀请状态</t>
   </si>
   <si>
-    <t>Requested/Accepted/Declined/Ignored</t>
-  </si>
-  <si>
     <t>createdAt</t>
   </si>
   <si>
@@ -247,11 +223,11 @@
   </si>
   <si>
     <t>消息类型0：文本 1：音频 2：视频 3：位置 4：名片 5：图片 6：讯息 7：团购 8：通知 9：商品 10：易货 11：店铺  12： 抢单 13：群聊邀请 14:群通知 15 文件 16 通知 17回复 18 @  19 预购单 20 配送 21 动态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>设备号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -267,7 +243,7 @@
       </rPr>
       <t xml:space="preserve"> 6:发送失败</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -283,7 +259,7 @@
       </rPr>
       <t>enderId</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -299,7 +275,7 @@
       </rPr>
       <t>eceiverId</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -315,7 +291,7 @@
       </rPr>
       <t>enderType</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -331,7 +307,7 @@
       </rPr>
       <t>eceiverType</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -347,31 +323,31 @@
       </rPr>
       <t>irection</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>consult</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>store</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>out</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>存储</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -387,7 +363,7 @@
       </rPr>
       <t>sult</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -403,7 +379,7 @@
       </rPr>
       <t>tore</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -419,7 +395,7 @@
       </rPr>
       <t>n</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -435,11 +411,11 @@
       </rPr>
       <t>onsult</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>in</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -455,23 +431,23 @@
       </rPr>
       <t>ut</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A咨询B店铺</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>A店铺回复B</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>B咨询A店铺</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>B店铺回复A</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -487,11 +463,11 @@
       </rPr>
       <t>B的会话框内</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>判断当前身份 如果我为商家A</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -507,22 +483,19 @@
       </rPr>
       <t>B</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>select * from conversation where (senderId=B and senderType=consult and receiverId=A and receiverType=store and direction= out and sessionType=6) or(senderId=A and senderType=store and receiverId=B and receiverType=consult and direction = in and sessionTyep=6)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>select * from conversation where (senderId=B and senderType=consult and receiverType=store and receiverId=A and direction =in and sessionType=6) or (senderId=A and senderType=store  and receiverId=B and receiverType=consult and direction = out and sessionType=6)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>我为B 我是商家别人咨询我和我回复别人</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>conversationId</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>conversationType</t>
@@ -570,12 +543,6 @@
     <t>resouces</t>
   </si>
   <si>
-    <t>subscriptions</t>
-  </si>
-  <si>
-    <t>tmpConvs</t>
-  </si>
-  <si>
     <t>聊天室</t>
   </si>
   <si>
@@ -640,9 +607,6 @@
   </si>
   <si>
     <t>接受人/群备注</t>
-  </si>
-  <si>
-    <t>invtType</t>
   </si>
   <si>
     <t>申请类型</t>
@@ -751,9 +715,6 @@
     <t>好友备注</t>
   </si>
   <si>
-    <t>会话类型：0、P2P一对一会话；1、MUC多人会话；  2、CHANNEL一对多的会话类型</t>
-  </si>
-  <si>
     <t>加群、加好友</t>
   </si>
   <si>
@@ -877,9 +838,6 @@
     <t>lastAckMsgTime</t>
   </si>
   <si>
-    <t>会话id,等于invitaion的id</t>
-  </si>
-  <si>
     <t>可用redis优化处理，并同步到mongodb/此表可以不要</t>
   </si>
   <si>
@@ -908,6 +866,81 @@
   </si>
   <si>
     <t>Array&lt;Member&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">会话类型：0、P2P一对一会话；1、MUC多人会话；  </t>
+  </si>
+  <si>
+    <t>会话类型：0、P2P一对一会话；1、MUC多人会话；</t>
+  </si>
+  <si>
+    <t>isStickOnTop</t>
+  </si>
+  <si>
+    <t>是否置顶</t>
+  </si>
+  <si>
+    <t>tmpConversation</t>
+  </si>
+  <si>
+    <t>qrCode</t>
+  </si>
+  <si>
+    <t>包含群头像等等设置</t>
+  </si>
+  <si>
+    <t>发送者id(考虑是否冗余字段userId)</t>
+  </si>
+  <si>
+    <t>接受者id (考虑是否冗余字段userId)</t>
+  </si>
+  <si>
+    <t>预订单ID (针对系统通知而言)</t>
+  </si>
+  <si>
+    <t>接受者Id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>消息标题</t>
+  </si>
+  <si>
+    <t>消息主题内容</t>
+  </si>
+  <si>
+    <t>imagePath</t>
+  </si>
+  <si>
+    <t>图片地址</t>
+  </si>
+  <si>
+    <t>消息类型：hotel、store、user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">状态：0 发送中 1:送达 2:已读 3:删除 </t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>用户Id</t>
+  </si>
+  <si>
+    <t>inviteType</t>
+  </si>
+  <si>
+    <t>inviteStatus</t>
+  </si>
+  <si>
+    <t>Read/Requested/Accepted/Declined/Ignored</t>
+  </si>
+  <si>
+    <t>subscription</t>
+  </si>
+  <si>
+    <t>关注/订阅/粉丝关系</t>
   </si>
 </sst>
 </file>
@@ -923,6 +956,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1066,15 +1106,8 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,18 +1140,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1132,6 +1153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,15 +1189,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1178,7 +1205,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1199,69 +1225,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1286,14 +1312,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>80516</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>4501531</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32754</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>32753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1595,8 +1621,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="11" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="53.33203125" customWidth="1"/>
   </cols>
@@ -1610,2219 +1636,2219 @@
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:5" s="9" customFormat="1">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="16">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>44069</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="46" t="s">
-        <v>180</v>
+      <c r="E3" s="40" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="17"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="17"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="17"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>19</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
-      <c r="B22" s="17"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>21</v>
       </c>
-      <c r="B23" s="17"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="B24" s="17"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
-      <c r="B25" s="17"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>24</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>25</v>
       </c>
-      <c r="B27" s="17"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>26</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>27</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>29</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>30</v>
       </c>
-      <c r="B32" s="17"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>31</v>
       </c>
-      <c r="B33" s="17"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>32</v>
       </c>
-      <c r="B34" s="17"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>33</v>
       </c>
-      <c r="B35" s="17"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>34</v>
       </c>
-      <c r="B36" s="17"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>35</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>36</v>
       </c>
-      <c r="B38" s="17"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>37</v>
       </c>
-      <c r="B39" s="17"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>38</v>
       </c>
-      <c r="B40" s="17"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <v>39</v>
       </c>
-      <c r="B41" s="17"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <v>40</v>
       </c>
-      <c r="B42" s="17"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="16">
+      <c r="A43" s="15">
         <v>41</v>
       </c>
-      <c r="B43" s="17"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>42</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <v>43</v>
       </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <v>44</v>
       </c>
-      <c r="B46" s="17"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <v>45</v>
       </c>
-      <c r="B47" s="17"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="16">
+      <c r="A48" s="15">
         <v>46</v>
       </c>
-      <c r="B48" s="17"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>47</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>48</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="16"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>49</v>
       </c>
-      <c r="B51" s="17"/>
+      <c r="B51" s="16"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>50</v>
       </c>
-      <c r="B52" s="17"/>
+      <c r="B52" s="16"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>51</v>
       </c>
-      <c r="B53" s="17"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <v>52</v>
       </c>
-      <c r="B54" s="17"/>
+      <c r="B54" s="16"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>53</v>
       </c>
-      <c r="B55" s="17"/>
+      <c r="B55" s="16"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>54</v>
       </c>
-      <c r="B56" s="17"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="16">
+      <c r="A57" s="15">
         <v>55</v>
       </c>
-      <c r="B57" s="17"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="16">
+      <c r="A58" s="15">
         <v>56</v>
       </c>
-      <c r="B58" s="17"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <v>57</v>
       </c>
-      <c r="B59" s="17"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="16">
+      <c r="A60" s="15">
         <v>58</v>
       </c>
-      <c r="B60" s="17"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <v>59</v>
       </c>
-      <c r="B61" s="17"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <v>60</v>
       </c>
-      <c r="B62" s="17"/>
+      <c r="B62" s="16"/>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="16">
+      <c r="A63" s="15">
         <v>61</v>
       </c>
-      <c r="B63" s="17"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>62</v>
       </c>
-      <c r="B64" s="17"/>
+      <c r="B64" s="16"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>63</v>
       </c>
-      <c r="B65" s="17"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="16">
+      <c r="A66" s="15">
         <v>64</v>
       </c>
-      <c r="B66" s="17"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="16">
+      <c r="A67" s="15">
         <v>65</v>
       </c>
-      <c r="B67" s="17"/>
+      <c r="B67" s="16"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="16">
+      <c r="A68" s="15">
         <v>66</v>
       </c>
-      <c r="B68" s="17"/>
+      <c r="B68" s="16"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="16">
+      <c r="A69" s="15">
         <v>67</v>
       </c>
-      <c r="B69" s="17"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="16">
+      <c r="A70" s="15">
         <v>68</v>
       </c>
-      <c r="B70" s="17"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="16">
+      <c r="A71" s="15">
         <v>69</v>
       </c>
-      <c r="B71" s="17"/>
+      <c r="B71" s="16"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="16">
+      <c r="A72" s="15">
         <v>70</v>
       </c>
-      <c r="B72" s="17"/>
+      <c r="B72" s="16"/>
       <c r="C72" s="8"/>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="16">
+      <c r="A73" s="15">
         <v>71</v>
       </c>
-      <c r="B73" s="17"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="8"/>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="16">
+      <c r="A74" s="15">
         <v>72</v>
       </c>
-      <c r="B74" s="17"/>
+      <c r="B74" s="16"/>
       <c r="C74" s="8"/>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="16">
+      <c r="A75" s="15">
         <v>73</v>
       </c>
-      <c r="B75" s="17"/>
+      <c r="B75" s="16"/>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="16">
+      <c r="A76" s="15">
         <v>74</v>
       </c>
-      <c r="B76" s="17"/>
+      <c r="B76" s="16"/>
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="16">
+      <c r="A77" s="15">
         <v>75</v>
       </c>
-      <c r="B77" s="17"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="8"/>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="16">
+      <c r="A78" s="15">
         <v>76</v>
       </c>
-      <c r="B78" s="17"/>
+      <c r="B78" s="16"/>
       <c r="C78" s="8"/>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="16">
+      <c r="A79" s="15">
         <v>77</v>
       </c>
-      <c r="B79" s="17"/>
+      <c r="B79" s="16"/>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="16">
+      <c r="A80" s="15">
         <v>78</v>
       </c>
-      <c r="B80" s="17"/>
+      <c r="B80" s="16"/>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="16">
+      <c r="A81" s="15">
         <v>79</v>
       </c>
-      <c r="B81" s="17"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="16">
+      <c r="A82" s="15">
         <v>80</v>
       </c>
-      <c r="B82" s="17"/>
+      <c r="B82" s="16"/>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="16">
+      <c r="A83" s="15">
         <v>81</v>
       </c>
-      <c r="B83" s="17"/>
+      <c r="B83" s="16"/>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="16">
+      <c r="A84" s="15">
         <v>82</v>
       </c>
-      <c r="B84" s="17"/>
+      <c r="B84" s="16"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="16">
+      <c r="A85" s="15">
         <v>83</v>
       </c>
-      <c r="B85" s="17"/>
+      <c r="B85" s="16"/>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="16">
+      <c r="A86" s="15">
         <v>84</v>
       </c>
-      <c r="B86" s="17"/>
+      <c r="B86" s="16"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="16">
+      <c r="A87" s="15">
         <v>85</v>
       </c>
-      <c r="B87" s="17"/>
+      <c r="B87" s="16"/>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="16">
+      <c r="A88" s="15">
         <v>86</v>
       </c>
-      <c r="B88" s="17"/>
+      <c r="B88" s="16"/>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="16">
+      <c r="A89" s="15">
         <v>87</v>
       </c>
-      <c r="B89" s="17"/>
+      <c r="B89" s="16"/>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="16">
+      <c r="A90" s="15">
         <v>88</v>
       </c>
-      <c r="B90" s="17"/>
+      <c r="B90" s="16"/>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="16">
+      <c r="A91" s="15">
         <v>89</v>
       </c>
-      <c r="B91" s="17"/>
+      <c r="B91" s="16"/>
       <c r="C91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="16">
+      <c r="A92" s="15">
         <v>90</v>
       </c>
-      <c r="B92" s="17"/>
+      <c r="B92" s="16"/>
       <c r="C92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="16">
+      <c r="A93" s="15">
         <v>91</v>
       </c>
-      <c r="B93" s="17"/>
+      <c r="B93" s="16"/>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="16">
+      <c r="A94" s="15">
         <v>92</v>
       </c>
-      <c r="B94" s="17"/>
+      <c r="B94" s="16"/>
       <c r="C94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="16">
+      <c r="A95" s="15">
         <v>93</v>
       </c>
-      <c r="B95" s="17"/>
+      <c r="B95" s="16"/>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="16">
+      <c r="A96" s="15">
         <v>94</v>
       </c>
-      <c r="B96" s="17"/>
+      <c r="B96" s="16"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="16">
+      <c r="A97" s="15">
         <v>95</v>
       </c>
-      <c r="B97" s="17"/>
+      <c r="B97" s="16"/>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="16">
+      <c r="A98" s="15">
         <v>96</v>
       </c>
-      <c r="B98" s="17"/>
+      <c r="B98" s="16"/>
       <c r="C98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="16">
+      <c r="A99" s="15">
         <v>97</v>
       </c>
-      <c r="B99" s="17"/>
+      <c r="B99" s="16"/>
       <c r="C99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="16">
+      <c r="A100" s="15">
         <v>98</v>
       </c>
-      <c r="B100" s="17"/>
+      <c r="B100" s="16"/>
       <c r="C100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="16">
+      <c r="A101" s="15">
         <v>99</v>
       </c>
-      <c r="B101" s="17"/>
+      <c r="B101" s="16"/>
       <c r="C101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="16">
+      <c r="A102" s="15">
         <v>100</v>
       </c>
-      <c r="B102" s="17"/>
+      <c r="B102" s="16"/>
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="16">
+      <c r="A103" s="15">
         <v>101</v>
       </c>
-      <c r="B103" s="17"/>
+      <c r="B103" s="16"/>
       <c r="C103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="16">
+      <c r="A104" s="15">
         <v>102</v>
       </c>
-      <c r="B104" s="17"/>
+      <c r="B104" s="16"/>
       <c r="C104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="16">
+      <c r="A105" s="15">
         <v>103</v>
       </c>
-      <c r="B105" s="17"/>
+      <c r="B105" s="16"/>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="16">
+      <c r="A106" s="15">
         <v>104</v>
       </c>
-      <c r="B106" s="17"/>
+      <c r="B106" s="16"/>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="16">
+      <c r="A107" s="15">
         <v>105</v>
       </c>
-      <c r="B107" s="17"/>
+      <c r="B107" s="16"/>
       <c r="C107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="16">
+      <c r="A108" s="15">
         <v>106</v>
       </c>
-      <c r="B108" s="17"/>
+      <c r="B108" s="16"/>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="16">
+      <c r="A109" s="15">
         <v>107</v>
       </c>
-      <c r="B109" s="17"/>
+      <c r="B109" s="16"/>
       <c r="C109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="16">
+      <c r="A110" s="15">
         <v>108</v>
       </c>
-      <c r="B110" s="17"/>
+      <c r="B110" s="16"/>
       <c r="C110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="16">
+      <c r="A111" s="15">
         <v>109</v>
       </c>
-      <c r="B111" s="17"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="16">
+      <c r="A112" s="15">
         <v>110</v>
       </c>
-      <c r="B112" s="17"/>
+      <c r="B112" s="16"/>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="16">
+      <c r="A113" s="15">
         <v>111</v>
       </c>
-      <c r="B113" s="17"/>
+      <c r="B113" s="16"/>
       <c r="C113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="16">
+      <c r="A114" s="15">
         <v>112</v>
       </c>
-      <c r="B114" s="17"/>
+      <c r="B114" s="16"/>
       <c r="C114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="16">
+      <c r="A115" s="15">
         <v>113</v>
       </c>
-      <c r="B115" s="17"/>
+      <c r="B115" s="16"/>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="16">
+      <c r="A116" s="15">
         <v>114</v>
       </c>
-      <c r="B116" s="17"/>
+      <c r="B116" s="16"/>
       <c r="C116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="16">
+      <c r="A117" s="15">
         <v>115</v>
       </c>
-      <c r="B117" s="17"/>
+      <c r="B117" s="16"/>
       <c r="C117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="16">
+      <c r="A118" s="15">
         <v>116</v>
       </c>
-      <c r="B118" s="17"/>
+      <c r="B118" s="16"/>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="16">
+      <c r="A119" s="15">
         <v>117</v>
       </c>
-      <c r="B119" s="17"/>
+      <c r="B119" s="16"/>
       <c r="C119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="16">
+      <c r="A120" s="15">
         <v>118</v>
       </c>
-      <c r="B120" s="17"/>
+      <c r="B120" s="16"/>
       <c r="C120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="16">
+      <c r="A121" s="15">
         <v>119</v>
       </c>
-      <c r="B121" s="17"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="16">
+      <c r="A122" s="15">
         <v>120</v>
       </c>
-      <c r="B122" s="17"/>
+      <c r="B122" s="16"/>
       <c r="C122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="16">
+      <c r="A123" s="15">
         <v>121</v>
       </c>
-      <c r="B123" s="17"/>
+      <c r="B123" s="16"/>
       <c r="C123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="16">
+      <c r="A124" s="15">
         <v>122</v>
       </c>
-      <c r="B124" s="17"/>
+      <c r="B124" s="16"/>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="16">
+      <c r="A125" s="15">
         <v>123</v>
       </c>
-      <c r="B125" s="17"/>
+      <c r="B125" s="16"/>
       <c r="C125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="16">
+      <c r="A126" s="15">
         <v>124</v>
       </c>
-      <c r="B126" s="17"/>
+      <c r="B126" s="16"/>
       <c r="C126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="16">
+      <c r="A127" s="15">
         <v>125</v>
       </c>
-      <c r="B127" s="17"/>
+      <c r="B127" s="16"/>
       <c r="C127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="16">
+      <c r="A128" s="15">
         <v>126</v>
       </c>
-      <c r="B128" s="17"/>
+      <c r="B128" s="16"/>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="16">
+      <c r="A129" s="15">
         <v>127</v>
       </c>
-      <c r="B129" s="17"/>
+      <c r="B129" s="16"/>
       <c r="C129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="16">
+      <c r="A130" s="15">
         <v>128</v>
       </c>
-      <c r="B130" s="17"/>
+      <c r="B130" s="16"/>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="16">
+      <c r="A131" s="15">
         <v>129</v>
       </c>
-      <c r="B131" s="17"/>
+      <c r="B131" s="16"/>
       <c r="C131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="16">
+      <c r="A132" s="15">
         <v>130</v>
       </c>
-      <c r="B132" s="17"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="16">
+      <c r="A133" s="15">
         <v>131</v>
       </c>
-      <c r="B133" s="17"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="16">
+      <c r="A134" s="15">
         <v>132</v>
       </c>
-      <c r="B134" s="17"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="16">
+      <c r="A135" s="15">
         <v>133</v>
       </c>
-      <c r="B135" s="17"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="16">
+      <c r="A136" s="15">
         <v>134</v>
       </c>
-      <c r="B136" s="17"/>
+      <c r="B136" s="16"/>
       <c r="C136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="16">
+      <c r="A137" s="15">
         <v>135</v>
       </c>
-      <c r="B137" s="17"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="16">
+      <c r="A138" s="15">
         <v>136</v>
       </c>
-      <c r="B138" s="17"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="16">
+      <c r="A139" s="15">
         <v>137</v>
       </c>
-      <c r="B139" s="17"/>
+      <c r="B139" s="16"/>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="16">
+      <c r="A140" s="15">
         <v>138</v>
       </c>
-      <c r="B140" s="17"/>
+      <c r="B140" s="16"/>
       <c r="C140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="16">
+      <c r="A141" s="15">
         <v>139</v>
       </c>
-      <c r="B141" s="17"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="16">
+      <c r="A142" s="15">
         <v>140</v>
       </c>
-      <c r="B142" s="17"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="16">
+      <c r="A143" s="15">
         <v>141</v>
       </c>
-      <c r="B143" s="17"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="16">
+      <c r="A144" s="15">
         <v>142</v>
       </c>
-      <c r="B144" s="17"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="16">
+      <c r="A145" s="15">
         <v>143</v>
       </c>
-      <c r="B145" s="17"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="16">
+      <c r="A146" s="15">
         <v>144</v>
       </c>
-      <c r="B146" s="17"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="16">
+      <c r="A147" s="15">
         <v>145</v>
       </c>
-      <c r="B147" s="17"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="16">
+      <c r="A148" s="15">
         <v>146</v>
       </c>
-      <c r="B148" s="17"/>
+      <c r="B148" s="16"/>
       <c r="C148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="16">
+      <c r="A149" s="15">
         <v>147</v>
       </c>
-      <c r="B149" s="17"/>
+      <c r="B149" s="16"/>
       <c r="C149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="16">
+      <c r="A150" s="15">
         <v>148</v>
       </c>
-      <c r="B150" s="17"/>
+      <c r="B150" s="16"/>
       <c r="C150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="16">
+      <c r="A151" s="15">
         <v>149</v>
       </c>
-      <c r="B151" s="17"/>
+      <c r="B151" s="16"/>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="16">
+      <c r="A152" s="15">
         <v>150</v>
       </c>
-      <c r="B152" s="17"/>
+      <c r="B152" s="16"/>
       <c r="C152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="16">
+      <c r="A153" s="15">
         <v>151</v>
       </c>
-      <c r="B153" s="17"/>
+      <c r="B153" s="16"/>
       <c r="C153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="16">
+      <c r="A154" s="15">
         <v>152</v>
       </c>
-      <c r="B154" s="17"/>
+      <c r="B154" s="16"/>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="16">
+      <c r="A155" s="15">
         <v>153</v>
       </c>
-      <c r="B155" s="17"/>
+      <c r="B155" s="16"/>
       <c r="C155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="16">
+      <c r="A156" s="15">
         <v>154</v>
       </c>
-      <c r="B156" s="17"/>
+      <c r="B156" s="16"/>
       <c r="C156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="16">
+      <c r="A157" s="15">
         <v>155</v>
       </c>
-      <c r="B157" s="17"/>
+      <c r="B157" s="16"/>
       <c r="C157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="16">
+      <c r="A158" s="15">
         <v>156</v>
       </c>
-      <c r="B158" s="17"/>
+      <c r="B158" s="16"/>
       <c r="C158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="16">
+      <c r="A159" s="15">
         <v>157</v>
       </c>
-      <c r="B159" s="17"/>
+      <c r="B159" s="16"/>
       <c r="C159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="16">
+      <c r="A160" s="15">
         <v>158</v>
       </c>
-      <c r="B160" s="17"/>
+      <c r="B160" s="16"/>
       <c r="C160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="16">
+      <c r="A161" s="15">
         <v>159</v>
       </c>
-      <c r="B161" s="17"/>
+      <c r="B161" s="16"/>
       <c r="C161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="16">
+      <c r="A162" s="15">
         <v>160</v>
       </c>
-      <c r="B162" s="17"/>
+      <c r="B162" s="16"/>
       <c r="C162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="16">
+      <c r="A163" s="15">
         <v>161</v>
       </c>
-      <c r="B163" s="17"/>
+      <c r="B163" s="16"/>
       <c r="C163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="16">
+      <c r="A164" s="15">
         <v>162</v>
       </c>
-      <c r="B164" s="17"/>
+      <c r="B164" s="16"/>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="16">
+      <c r="A165" s="15">
         <v>163</v>
       </c>
-      <c r="B165" s="17"/>
+      <c r="B165" s="16"/>
       <c r="C165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="16">
+      <c r="A166" s="15">
         <v>164</v>
       </c>
-      <c r="B166" s="17"/>
+      <c r="B166" s="16"/>
       <c r="C166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="16">
+      <c r="A167" s="15">
         <v>165</v>
       </c>
-      <c r="B167" s="17"/>
+      <c r="B167" s="16"/>
       <c r="C167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="16">
+      <c r="A168" s="15">
         <v>166</v>
       </c>
-      <c r="B168" s="17"/>
+      <c r="B168" s="16"/>
       <c r="C168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="16">
+      <c r="A169" s="15">
         <v>167</v>
       </c>
-      <c r="B169" s="17"/>
+      <c r="B169" s="16"/>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="16">
+      <c r="A170" s="15">
         <v>168</v>
       </c>
-      <c r="B170" s="17"/>
+      <c r="B170" s="16"/>
       <c r="C170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="16">
+      <c r="A171" s="15">
         <v>169</v>
       </c>
-      <c r="B171" s="17"/>
+      <c r="B171" s="16"/>
       <c r="C171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="16">
+      <c r="A172" s="15">
         <v>170</v>
       </c>
-      <c r="B172" s="17"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="16">
+      <c r="A173" s="15">
         <v>171</v>
       </c>
-      <c r="B173" s="17"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="16">
+      <c r="A174" s="15">
         <v>172</v>
       </c>
-      <c r="B174" s="17"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="16">
+      <c r="A175" s="15">
         <v>173</v>
       </c>
-      <c r="B175" s="17"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="16">
+      <c r="A176" s="15">
         <v>174</v>
       </c>
-      <c r="B176" s="17"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="16">
+      <c r="A177" s="15">
         <v>175</v>
       </c>
-      <c r="B177" s="17"/>
+      <c r="B177" s="16"/>
       <c r="C177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="16">
+      <c r="A178" s="15">
         <v>176</v>
       </c>
-      <c r="B178" s="17"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="16">
+      <c r="A179" s="15">
         <v>177</v>
       </c>
-      <c r="B179" s="17"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="16">
+      <c r="A180" s="15">
         <v>178</v>
       </c>
-      <c r="B180" s="17"/>
+      <c r="B180" s="16"/>
       <c r="C180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="16">
+      <c r="A181" s="15">
         <v>179</v>
       </c>
-      <c r="B181" s="17"/>
+      <c r="B181" s="16"/>
       <c r="C181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="16">
+      <c r="A182" s="15">
         <v>180</v>
       </c>
-      <c r="B182" s="17"/>
+      <c r="B182" s="16"/>
       <c r="C182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="16">
+      <c r="A183" s="15">
         <v>181</v>
       </c>
-      <c r="B183" s="17"/>
+      <c r="B183" s="16"/>
       <c r="C183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="16">
+      <c r="A184" s="15">
         <v>182</v>
       </c>
-      <c r="B184" s="17"/>
+      <c r="B184" s="16"/>
       <c r="C184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="16">
+      <c r="A185" s="15">
         <v>183</v>
       </c>
-      <c r="B185" s="17"/>
+      <c r="B185" s="16"/>
       <c r="C185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="16">
+      <c r="A186" s="15">
         <v>184</v>
       </c>
-      <c r="B186" s="17"/>
+      <c r="B186" s="16"/>
       <c r="C186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="16">
+      <c r="A187" s="15">
         <v>185</v>
       </c>
-      <c r="B187" s="17"/>
+      <c r="B187" s="16"/>
       <c r="C187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="16">
+      <c r="A188" s="15">
         <v>186</v>
       </c>
-      <c r="B188" s="17"/>
+      <c r="B188" s="16"/>
       <c r="C188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="16">
+      <c r="A189" s="15">
         <v>187</v>
       </c>
-      <c r="B189" s="17"/>
+      <c r="B189" s="16"/>
       <c r="C189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="16">
+      <c r="A190" s="15">
         <v>188</v>
       </c>
-      <c r="B190" s="17"/>
+      <c r="B190" s="16"/>
       <c r="C190" s="8"/>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="16">
+      <c r="A191" s="15">
         <v>189</v>
       </c>
-      <c r="B191" s="17"/>
+      <c r="B191" s="16"/>
       <c r="C191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="16">
+      <c r="A192" s="15">
         <v>190</v>
       </c>
-      <c r="B192" s="17"/>
+      <c r="B192" s="16"/>
       <c r="C192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="16">
+      <c r="A193" s="15">
         <v>191</v>
       </c>
-      <c r="B193" s="17"/>
+      <c r="B193" s="16"/>
       <c r="C193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="16">
+      <c r="A194" s="15">
         <v>192</v>
       </c>
-      <c r="B194" s="17"/>
+      <c r="B194" s="16"/>
       <c r="C194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="16">
+      <c r="A195" s="15">
         <v>193</v>
       </c>
-      <c r="B195" s="17"/>
+      <c r="B195" s="16"/>
       <c r="C195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="16">
+      <c r="A196" s="15">
         <v>194</v>
       </c>
-      <c r="B196" s="17"/>
+      <c r="B196" s="16"/>
       <c r="C196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="16">
+      <c r="A197" s="15">
         <v>195</v>
       </c>
-      <c r="B197" s="17"/>
+      <c r="B197" s="16"/>
       <c r="C197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="16">
+      <c r="A198" s="15">
         <v>196</v>
       </c>
-      <c r="B198" s="17"/>
+      <c r="B198" s="16"/>
       <c r="C198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="16">
+      <c r="A199" s="15">
         <v>197</v>
       </c>
-      <c r="B199" s="17"/>
+      <c r="B199" s="16"/>
       <c r="C199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="16">
+      <c r="A200" s="15">
         <v>198</v>
       </c>
-      <c r="B200" s="17"/>
+      <c r="B200" s="16"/>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="16">
+      <c r="A201" s="15">
         <v>199</v>
       </c>
-      <c r="B201" s="17"/>
+      <c r="B201" s="16"/>
       <c r="C201" s="8"/>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="16">
+      <c r="A202" s="15">
         <v>200</v>
       </c>
-      <c r="B202" s="17"/>
+      <c r="B202" s="16"/>
       <c r="C202" s="8"/>
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="16">
+      <c r="A203" s="15">
         <v>201</v>
       </c>
-      <c r="B203" s="17"/>
+      <c r="B203" s="16"/>
       <c r="C203" s="8"/>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="16">
+      <c r="A204" s="15">
         <v>202</v>
       </c>
-      <c r="B204" s="17"/>
+      <c r="B204" s="16"/>
       <c r="C204" s="8"/>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="16">
+      <c r="A205" s="15">
         <v>203</v>
       </c>
-      <c r="B205" s="17"/>
+      <c r="B205" s="16"/>
       <c r="C205" s="8"/>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="16">
+      <c r="A206" s="15">
         <v>204</v>
       </c>
-      <c r="B206" s="17"/>
+      <c r="B206" s="16"/>
       <c r="C206" s="8"/>
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="16">
+      <c r="A207" s="15">
         <v>205</v>
       </c>
-      <c r="B207" s="17"/>
+      <c r="B207" s="16"/>
       <c r="C207" s="8"/>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="16">
+      <c r="A208" s="15">
         <v>206</v>
       </c>
-      <c r="B208" s="17"/>
+      <c r="B208" s="16"/>
       <c r="C208" s="8"/>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="16">
+      <c r="A209" s="15">
         <v>207</v>
       </c>
-      <c r="B209" s="17"/>
+      <c r="B209" s="16"/>
       <c r="C209" s="8"/>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="16">
+      <c r="A210" s="15">
         <v>208</v>
       </c>
-      <c r="B210" s="17"/>
+      <c r="B210" s="16"/>
       <c r="C210" s="8"/>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="16">
+      <c r="A211" s="15">
         <v>209</v>
       </c>
-      <c r="B211" s="17"/>
+      <c r="B211" s="16"/>
       <c r="C211" s="8"/>
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="16">
+      <c r="A212" s="15">
         <v>210</v>
       </c>
-      <c r="B212" s="17"/>
+      <c r="B212" s="16"/>
       <c r="C212" s="8"/>
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="16">
+      <c r="A213" s="15">
         <v>211</v>
       </c>
-      <c r="B213" s="17"/>
+      <c r="B213" s="16"/>
       <c r="C213" s="8"/>
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="16">
+      <c r="A214" s="15">
         <v>212</v>
       </c>
-      <c r="B214" s="17"/>
+      <c r="B214" s="16"/>
       <c r="C214" s="8"/>
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="16">
+      <c r="A215" s="15">
         <v>213</v>
       </c>
-      <c r="B215" s="17"/>
+      <c r="B215" s="16"/>
       <c r="C215" s="8"/>
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="16">
+      <c r="A216" s="15">
         <v>214</v>
       </c>
-      <c r="B216" s="17"/>
+      <c r="B216" s="16"/>
       <c r="C216" s="8"/>
       <c r="D216" s="8"/>
       <c r="E216" s="8"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="16">
+      <c r="A217" s="15">
         <v>215</v>
       </c>
-      <c r="B217" s="17"/>
+      <c r="B217" s="16"/>
       <c r="C217" s="8"/>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="16">
+      <c r="A218" s="15">
         <v>216</v>
       </c>
-      <c r="B218" s="17"/>
+      <c r="B218" s="16"/>
       <c r="C218" s="8"/>
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="16">
+      <c r="A219" s="15">
         <v>217</v>
       </c>
-      <c r="B219" s="17"/>
+      <c r="B219" s="16"/>
       <c r="C219" s="8"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="16">
+      <c r="A220" s="15">
         <v>218</v>
       </c>
-      <c r="B220" s="17"/>
+      <c r="B220" s="16"/>
       <c r="C220" s="8"/>
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="16">
+      <c r="A221" s="15">
         <v>219</v>
       </c>
-      <c r="B221" s="17"/>
+      <c r="B221" s="16"/>
       <c r="C221" s="8"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="16">
+      <c r="A222" s="15">
         <v>220</v>
       </c>
-      <c r="B222" s="17"/>
+      <c r="B222" s="16"/>
       <c r="C222" s="8"/>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="16">
+      <c r="A223" s="15">
         <v>221</v>
       </c>
-      <c r="B223" s="17"/>
+      <c r="B223" s="16"/>
       <c r="C223" s="8"/>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="16">
+      <c r="A224" s="15">
         <v>222</v>
       </c>
-      <c r="B224" s="17"/>
+      <c r="B224" s="16"/>
       <c r="C224" s="8"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="16">
+      <c r="A225" s="15">
         <v>223</v>
       </c>
-      <c r="B225" s="17"/>
+      <c r="B225" s="16"/>
       <c r="C225" s="8"/>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="16">
+      <c r="A226" s="15">
         <v>224</v>
       </c>
-      <c r="B226" s="17"/>
+      <c r="B226" s="16"/>
       <c r="C226" s="8"/>
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="16">
+      <c r="A227" s="15">
         <v>225</v>
       </c>
-      <c r="B227" s="17"/>
+      <c r="B227" s="16"/>
       <c r="C227" s="8"/>
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="16">
+      <c r="A228" s="15">
         <v>226</v>
       </c>
-      <c r="B228" s="17"/>
+      <c r="B228" s="16"/>
       <c r="C228" s="8"/>
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="16">
+      <c r="A229" s="15">
         <v>227</v>
       </c>
-      <c r="B229" s="17"/>
+      <c r="B229" s="16"/>
       <c r="C229" s="8"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="16">
+      <c r="A230" s="15">
         <v>228</v>
       </c>
-      <c r="B230" s="17"/>
+      <c r="B230" s="16"/>
       <c r="C230" s="8"/>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="16">
+      <c r="A231" s="15">
         <v>229</v>
       </c>
-      <c r="B231" s="17"/>
+      <c r="B231" s="16"/>
       <c r="C231" s="8"/>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="16">
+      <c r="A232" s="15">
         <v>230</v>
       </c>
-      <c r="B232" s="17"/>
+      <c r="B232" s="16"/>
       <c r="C232" s="8"/>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="16">
+      <c r="A233" s="15">
         <v>231</v>
       </c>
-      <c r="B233" s="17"/>
+      <c r="B233" s="16"/>
       <c r="C233" s="8"/>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="16">
+      <c r="A234" s="15">
         <v>232</v>
       </c>
-      <c r="B234" s="17"/>
+      <c r="B234" s="16"/>
       <c r="C234" s="8"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="16">
+      <c r="A235" s="15">
         <v>233</v>
       </c>
-      <c r="B235" s="17"/>
+      <c r="B235" s="16"/>
       <c r="C235" s="8"/>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="16">
+      <c r="A236" s="15">
         <v>234</v>
       </c>
-      <c r="B236" s="17"/>
+      <c r="B236" s="16"/>
       <c r="C236" s="8"/>
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="16">
+      <c r="A237" s="15">
         <v>235</v>
       </c>
-      <c r="B237" s="17"/>
+      <c r="B237" s="16"/>
       <c r="C237" s="8"/>
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="16">
+      <c r="A238" s="15">
         <v>236</v>
       </c>
-      <c r="B238" s="17"/>
+      <c r="B238" s="16"/>
       <c r="C238" s="8"/>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="16">
+      <c r="A239" s="15">
         <v>237</v>
       </c>
-      <c r="B239" s="17"/>
+      <c r="B239" s="16"/>
       <c r="C239" s="8"/>
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="16">
+      <c r="A240" s="15">
         <v>238</v>
       </c>
-      <c r="B240" s="17"/>
+      <c r="B240" s="16"/>
       <c r="C240" s="8"/>
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="16">
+      <c r="A241" s="15">
         <v>239</v>
       </c>
-      <c r="B241" s="17"/>
+      <c r="B241" s="16"/>
       <c r="C241" s="8"/>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="16">
+      <c r="A242" s="15">
         <v>240</v>
       </c>
-      <c r="B242" s="17"/>
+      <c r="B242" s="16"/>
       <c r="C242" s="8"/>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="16">
+      <c r="A243" s="15">
         <v>241</v>
       </c>
-      <c r="B243" s="17"/>
+      <c r="B243" s="16"/>
       <c r="C243" s="8"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="16">
+      <c r="A244" s="15">
         <v>242</v>
       </c>
-      <c r="B244" s="17"/>
+      <c r="B244" s="16"/>
       <c r="C244" s="8"/>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="16">
+      <c r="A245" s="15">
         <v>243</v>
       </c>
-      <c r="B245" s="17"/>
+      <c r="B245" s="16"/>
       <c r="C245" s="8"/>
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="16">
+      <c r="A246" s="15">
         <v>244</v>
       </c>
-      <c r="B246" s="17"/>
+      <c r="B246" s="16"/>
       <c r="C246" s="8"/>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
@@ -3831,244 +3857,274 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC80ECC-5853-6D45-81B5-F68D663C96D9}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R37" sqref="R37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86705FD8-FD6A-2645-8F53-B90020DD0C99}">
-  <dimension ref="A1:D16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="185.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="45"/>
+        <v>16</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>219</v>
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>49</v>
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>222</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>70</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>72</v>
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>146</v>
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>217</v>
+        <v>35</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4077,7 +4133,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
@@ -4089,84 +4145,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="A1" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>167</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4189,175 +4245,312 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86705FD8-FD6A-2645-8F53-B90020DD0C99}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="185.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" s="39"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C5" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4375,226 +4568,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="18" t="s">
+      <c r="L2" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="J3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="17" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="B5" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="H11" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="L13" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="B14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="17"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="17"/>
+      <c r="C19" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F11" s="18" t="s">
+    </row>
+    <row r="21" spans="1:11">
+      <c r="C21" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="18"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="18"/>
-      <c r="C19" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="C21" s="18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" customHeight="1">
       <c r="C23" s="59" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
@@ -4606,13 +4799,13 @@
       <c r="K23" s="59"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="C26" s="18" t="s">
-        <v>96</v>
+      <c r="C26" s="17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="C27" s="59" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
@@ -4679,8 +4872,8 @@
       <c r="K32" s="59"/>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="18" t="s">
-        <v>99</v>
+      <c r="C36" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -4696,15 +4889,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="32.33203125" customWidth="1"/>
     <col min="2" max="2" width="59.33203125" customWidth="1"/>
-    <col min="3" max="3" width="52.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.5" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4717,219 +4910,217 @@
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="56" t="s">
-        <v>113</v>
+      <c r="A2" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="20"/>
+      <c r="A3" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="46" t="s">
+      <c r="A4" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="41"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="47" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="47"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="56" t="s">
-        <v>121</v>
-      </c>
       <c r="B9" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>127</v>
+        <v>108</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="20"/>
-    </row>
-    <row r="11" spans="1:4" s="5" customFormat="1">
-      <c r="A11" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="51" t="s">
+      <c r="A10" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="19"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="51" t="s">
         <v>215</v>
       </c>
+      <c r="B11" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="20"/>
+      <c r="A12" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="19"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>177</v>
+      <c r="A13" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="20"/>
+        <v>105</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="33"/>
+    </row>
+    <row r="15" spans="1:4" s="5" customFormat="1">
+      <c r="A15" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>124</v>
+      <c r="A16" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="38"/>
+      <c r="A17" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="22"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="23"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="29" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>14</v>
+      <c r="C21" s="22" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="54" t="s">
-        <v>201</v>
+      <c r="A26" s="52" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4937,10 +5128,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4951,201 +5142,190 @@
     <col min="4" max="4" width="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="36" customFormat="1">
-      <c r="A1" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="1:4" s="31" customFormat="1">
+      <c r="A1" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="42"/>
+      <c r="C2" s="36"/>
       <c r="D2" s="58" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>160</v>
+      <c r="A3" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>148</v>
       </c>
       <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="55" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="55" t="s">
-        <v>203</v>
+      <c r="A5" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="46"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="46"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="46"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="46"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="46"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="C8" s="55" t="s">
-        <v>211</v>
-      </c>
-      <c r="D8" s="55"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="C9" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="55"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="55"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="C11" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="55"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="55"/>
-      <c r="C12" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="55"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="55"/>
-      <c r="C13" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="D13" s="55"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18" customHeight="1">
-      <c r="A17" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>153</v>
+      <c r="C15" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" customHeight="1">
+      <c r="A16" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5153,10 +5333,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -5164,173 +5344,173 @@
     <col min="1" max="1" width="13.1640625" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="36" customFormat="1">
-      <c r="A1" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:5" s="31" customFormat="1">
+      <c r="A1" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="31" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>137</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>142</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>138</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>139</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>39</v>
+      <c r="A7" s="53" t="s">
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>233</v>
       </c>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>173</v>
-      </c>
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="C16" s="18"/>
+      <c r="C16" s="17"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="C17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="D19" s="18"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="17"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="C20" s="18"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5">
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="2:5">
-      <c r="E22" s="4"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5341,7 +5521,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5351,129 +5531,330 @@
     <col min="3" max="3" width="34.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="36" customFormat="1">
-      <c r="A1" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:4" s="31" customFormat="1">
+      <c r="A1" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="32" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="55" t="s">
-        <v>214</v>
+      <c r="C3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>171</v>
+      <c r="A6" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="55" t="s">
-        <v>204</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>207</v>
+      <c r="A7" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="49" customFormat="1">
+      <c r="A8" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D510AB-B303-1D44-A70A-9B045DA652CC}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" s="30"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5486,168 +5867,157 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>181</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="55" t="s">
-        <v>101</v>
+      <c r="A3" s="46" t="s">
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>222</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>182</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>188</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" s="18"/>
+        <v>25</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E332DA5C-9E74-2544-80DA-1DFF3A4CBCC2}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5659,399 +6029,137 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>181</v>
+        <v>16</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>222</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>70</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>145</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>108</v>
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78D510AB-B303-1D44-A70A-9B045DA652CC}">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="C24" s="34"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC80ECC-5853-6D45-81B5-F68D663C96D9}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="185.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>104</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA795237-73AA-E342-9AC7-B6F61A562BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CB7A6C-A354-484D-9DAF-8A0C88B1599A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -223,11 +223,11 @@
   </si>
   <si>
     <t>消息类型0：文本 1：音频 2：视频 3：位置 4：名片 5：图片 6：讯息 7：团购 8：通知 9：商品 10：易货 11：店铺  12： 抢单 13：群聊邀请 14:群通知 15 文件 16 通知 17回复 18 @  19 预购单 20 配送 21 动态</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>设备号</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -243,7 +243,7 @@
       </rPr>
       <t xml:space="preserve"> 6:发送失败</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -259,7 +259,7 @@
       </rPr>
       <t>enderId</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -275,7 +275,7 @@
       </rPr>
       <t>eceiverId</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -291,7 +291,7 @@
       </rPr>
       <t>enderType</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -307,7 +307,7 @@
       </rPr>
       <t>eceiverType</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -323,31 +323,31 @@
       </rPr>
       <t>irection</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>consult</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>store</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>out</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>存储</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -363,7 +363,7 @@
       </rPr>
       <t>sult</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,7 +379,7 @@
       </rPr>
       <t>tore</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -395,7 +395,7 @@
       </rPr>
       <t>n</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -411,11 +411,11 @@
       </rPr>
       <t>onsult</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>in</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -431,23 +431,23 @@
       </rPr>
       <t>ut</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A咨询B店铺</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>A店铺回复B</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>B咨询A店铺</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>B店铺回复A</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -463,11 +463,11 @@
       </rPr>
       <t>B的会话框内</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>判断当前身份 如果我为商家A</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -483,19 +483,19 @@
       </rPr>
       <t>B</t>
     </r>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>select * from conversation where (senderId=B and senderType=consult and receiverId=A and receiverType=store and direction= out and sessionType=6) or(senderId=A and senderType=store and receiverId=B and receiverType=consult and direction = in and sessionTyep=6)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>select * from conversation where (senderId=B and senderType=consult and receiverType=store and receiverId=A and direction =in and sessionType=6) or (senderId=A and senderType=store  and receiverId=B and receiverType=consult and direction = out and sessionType=6)</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>我为B 我是商家别人咨询我和我回复别人</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>conversationType</t>
@@ -950,12 +950,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1189,15 +1196,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,67 +1232,68 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1628,13 +1636,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -3857,7 +3865,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4123,7 +4131,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4222,7 +4230,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -4340,7 +4348,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4786,17 +4794,17 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" customHeight="1">
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
     </row>
     <row r="26" spans="1:11">
       <c r="C26" s="17" t="s">
@@ -4804,72 +4812,72 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="17" t="s">
@@ -4889,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -5120,7 +5128,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5164,7 +5172,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="59" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5178,7 +5186,7 @@
       <c r="C3" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -5325,7 +5333,7 @@
   <mergeCells count="1">
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5336,7 +5344,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -5427,7 +5435,7 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="57" t="s">
         <v>233</v>
       </c>
       <c r="E7" s="3"/>
@@ -5510,7 +5518,7 @@
       <c r="E21" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5642,7 +5650,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5844,7 +5852,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5853,8 +5861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -6005,7 +6013,7 @@
       <c r="C69" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CB7A6C-A354-484D-9DAF-8A0C88B1599A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE552F6F-D452-7040-813C-2C6CC0142C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="notification" sheetId="7" r:id="rId11"/>
     <sheet name="tmpConversation" sheetId="20" r:id="rId12"/>
     <sheet name="resource" sheetId="10" r:id="rId13"/>
-    <sheet name="recentContact" sheetId="21" r:id="rId14"/>
+    <sheet name="recentChat" sheetId="21" r:id="rId14"/>
     <sheet name="店铺咨询逻辑" sheetId="25" r:id="rId15"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -745,12 +745,6 @@
     <t>消息类型0：文本 1：音频 2：视频 3：位置 4：名片 5：图片 6：讯息 7：团购 8：通知 9：商品 10：易货 11：店铺  12： 抢单 13：群聊邀请 14:群通知 15 文件 16 通知 17回复 18 @  19 预购单 20 配送 21 动态</t>
   </si>
   <si>
-    <t>recentContact</t>
-  </si>
-  <si>
-    <t>最近联系人</t>
-  </si>
-  <si>
     <t>点对点通信历史消息（点对点消息归档）</t>
   </si>
   <si>
@@ -941,6 +935,12 @@
   </si>
   <si>
     <t>关注/订阅/粉丝关系</t>
+  </si>
+  <si>
+    <t>recentChat</t>
+  </si>
+  <si>
+    <t>最近消息/最近联系人</t>
   </si>
 </sst>
 </file>
@@ -3918,7 +3918,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3945,7 +3945,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -4042,11 +4042,11 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B3" s="53"/>
       <c r="C3" s="53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4055,16 +4055,16 @@
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="49" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="49" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="49" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4073,16 +4073,16 @@
       </c>
       <c r="B6" s="49"/>
       <c r="C6" s="49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="49" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="49" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="B8" s="49"/>
       <c r="C8" s="49" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="49" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="49" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4127,7 +4127,7 @@
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="49" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -4358,7 +4358,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4399,18 +4399,18 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4437,13 +4437,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4459,7 +4459,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -4547,13 +4547,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -4897,8 +4897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>111</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>101</v>
@@ -4960,10 +4960,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C6" s="41"/>
     </row>
@@ -4972,7 +4972,7 @@
         <v>109</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>115</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>102</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>135</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="51" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>100</v>
@@ -5048,19 +5048,19 @@
       <c r="C14" s="33"/>
     </row>
     <row r="15" spans="1:4" s="5" customFormat="1">
-      <c r="A15" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>201</v>
+      <c r="A15" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>144</v>
@@ -5082,18 +5082,18 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>174</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="25" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>107</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>112</v>
@@ -5124,7 +5124,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="52" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -5201,27 +5201,27 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" s="46" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5229,18 +5229,18 @@
         <v>20</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="C8" s="46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="46"/>
     </row>
@@ -5252,33 +5252,33 @@
     </row>
     <row r="10" spans="1:4">
       <c r="C10" s="46" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D10" s="46"/>
     </row>
     <row r="11" spans="1:4">
       <c r="C11" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D11" s="46"/>
     </row>
     <row r="12" spans="1:4">
       <c r="B12" s="46"/>
       <c r="C12" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D12" s="46"/>
     </row>
     <row r="13" spans="1:4">
       <c r="B13" s="46"/>
       <c r="C13" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -5436,7 +5436,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>25</v>
@@ -5596,35 +5596,35 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>193</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B7" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>192</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="49" customFormat="1">
       <c r="A8" s="49" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5717,7 +5717,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -5737,7 +5737,7 @@
         <v>123</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -5756,7 +5756,7 @@
         <v>117</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C8" t="s">
         <v>125</v>
@@ -5861,7 +5861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -5906,7 +5906,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5917,7 +5917,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5928,7 +5928,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5944,13 +5944,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6006,7 +6006,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="3:3">
@@ -6068,7 +6068,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6106,7 +6106,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE552F6F-D452-7040-813C-2C6CC0142C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1777F01B-E3C0-124D-92EA-7ACF9A17D734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -19,22 +19,24 @@
     <sheet name="invitation" sheetId="11" r:id="rId4"/>
     <sheet name="friendship" sheetId="4" r:id="rId5"/>
     <sheet name="group" sheetId="22" r:id="rId6"/>
-    <sheet name="subscription" sheetId="5" r:id="rId7"/>
-    <sheet name="msgHist" sheetId="6" r:id="rId8"/>
-    <sheet name="offlineMsg" sheetId="24" r:id="rId9"/>
-    <sheet name="mucHist" sheetId="23" r:id="rId10"/>
-    <sheet name="notification" sheetId="7" r:id="rId11"/>
-    <sheet name="tmpConversation" sheetId="20" r:id="rId12"/>
+    <sheet name="groupMember" sheetId="27" r:id="rId7"/>
+    <sheet name="subscription" sheetId="5" r:id="rId8"/>
+    <sheet name="msgHist" sheetId="6" r:id="rId9"/>
+    <sheet name="offlineMsg" sheetId="24" r:id="rId10"/>
+    <sheet name="mucHist" sheetId="23" r:id="rId11"/>
+    <sheet name="notification" sheetId="7" r:id="rId12"/>
     <sheet name="resource" sheetId="10" r:id="rId13"/>
     <sheet name="recentChat" sheetId="21" r:id="rId14"/>
-    <sheet name="店铺咨询逻辑" sheetId="25" r:id="rId15"/>
+    <sheet name="consultantCient" sheetId="20" r:id="rId15"/>
+    <sheet name="consultationMsg" sheetId="26" r:id="rId16"/>
+    <sheet name="店铺咨询逻辑" sheetId="25" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="255">
   <si>
     <t>修订历史</t>
   </si>
@@ -223,11 +225,11 @@
   </si>
   <si>
     <t>消息类型0：文本 1：音频 2：视频 3：位置 4：名片 5：图片 6：讯息 7：团购 8：通知 9：商品 10：易货 11：店铺  12： 抢单 13：群聊邀请 14:群通知 15 文件 16 通知 17回复 18 @  19 预购单 20 配送 21 动态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>设备号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -243,7 +245,7 @@
       </rPr>
       <t xml:space="preserve"> 6:发送失败</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -259,7 +261,7 @@
       </rPr>
       <t>enderId</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -275,7 +277,7 @@
       </rPr>
       <t>eceiverId</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -291,7 +293,7 @@
       </rPr>
       <t>enderType</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -307,7 +309,7 @@
       </rPr>
       <t>eceiverType</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -323,31 +325,31 @@
       </rPr>
       <t>irection</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>consult</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>store</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>out</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>存储</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -363,7 +365,7 @@
       </rPr>
       <t>sult</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,7 +381,7 @@
       </rPr>
       <t>tore</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -395,7 +397,7 @@
       </rPr>
       <t>n</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -411,11 +413,11 @@
       </rPr>
       <t>onsult</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>in</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -431,23 +433,23 @@
       </rPr>
       <t>ut</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>A咨询B店铺</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>A店铺回复B</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>B咨询A店铺</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>B店铺回复A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -463,11 +465,11 @@
       </rPr>
       <t>B的会话框内</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>判断当前身份 如果我为商家A</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -483,19 +485,19 @@
       </rPr>
       <t>B</t>
     </r>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>select * from conversation where (senderId=B and senderType=consult and receiverId=A and receiverType=store and direction= out and sessionType=6) or(senderId=A and senderType=store and receiverId=B and receiverType=consult and direction = in and sessionTyep=6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>select * from conversation where (senderId=B and senderType=consult and receiverType=store and receiverId=A and direction =in and sessionType=6) or (senderId=A and senderType=store  and receiverId=B and receiverType=consult and direction = out and sessionType=6)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>我为B 我是商家别人咨询我和我回复别人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>conversationType</t>
@@ -942,6 +944,63 @@
   <si>
     <t>最近消息/最近联系人</t>
   </si>
+  <si>
+    <t>主键</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>群id</t>
+  </si>
+  <si>
+    <t>memberId</t>
+  </si>
+  <si>
+    <t>群成员id</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>profilePhoto</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>groupMember</t>
+  </si>
+  <si>
+    <t>群组用户关系表，中间表</t>
+  </si>
+  <si>
+    <t>群昵称</t>
+  </si>
+  <si>
+    <t>是否屏蔽群消息</t>
+  </si>
+  <si>
+    <t>最后读取群消息时间</t>
+  </si>
+  <si>
+    <t>最后读取群消息id</t>
+  </si>
+  <si>
+    <t>consultantCient</t>
+  </si>
+  <si>
+    <t>咨询关系</t>
+  </si>
+  <si>
+    <t>consultationMsg</t>
+  </si>
+  <si>
+    <t>咨询消息</t>
+  </si>
 </sst>
 </file>
 
@@ -950,12 +1009,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1114,7 +1180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1169,6 +1235,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1196,15 +1268,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1232,70 +1304,77 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1636,13 +1715,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -3865,17 +3944,17 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC80ECC-5853-6D45-81B5-F68D663C96D9}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E332DA5C-9E74-2544-80DA-1DFF3A4CBCC2}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3934,68 +4013,90 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4005,6 +4106,140 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EC80ECC-5853-6D45-81B5-F68D663C96D9}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="185.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4041,198 +4276,98 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53" t="s">
+      <c r="B3" s="52"/>
+      <c r="C3" s="52" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="48" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49" t="s">
+      <c r="B12" s="48"/>
+      <c r="C12" s="48" t="s">
         <v>228</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C518B2-6D0B-4356-B863-8C9155736DBC}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4348,7 +4483,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4563,6 +4698,301 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C518B2-6D0B-4356-B863-8C9155736DBC}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0299472C-ED1C-4B4F-B5E1-687D0FC50590}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716C1B4D-4771-F44B-B435-7A9E1334B376}">
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -4794,17 +5224,17 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" customHeight="1">
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="60"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
     </row>
     <row r="26" spans="1:11">
       <c r="C26" s="17" t="s">
@@ -4812,72 +5242,72 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="17" t="s">
@@ -4895,10 +5325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4950,8 +5380,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="47" t="s">
-        <v>20</v>
+      <c r="A5" s="61" t="s">
+        <v>244</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>11</v>
@@ -4959,93 +5389,93 @@
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="61" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="41"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="C6" s="41"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>115</v>
-      </c>
+      <c r="C7" s="41"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="47" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="47" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B11" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="51" t="s">
+      <c r="C11" s="19"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B12" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="18" t="s">
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="19"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B14" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C14" s="19" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="33"/>
     </row>
     <row r="15" spans="1:4" s="5" customFormat="1">
       <c r="A15" s="23" t="s">
@@ -5058,77 +5488,104 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>164</v>
-      </c>
+    <row r="16" spans="1:4" s="5" customFormat="1">
+      <c r="A16" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="23"/>
+    </row>
+    <row r="17" spans="1:3" s="5" customFormat="1">
+      <c r="A17" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="60" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>174</v>
-      </c>
+      <c r="A18" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="33"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="22"/>
+        <v>144</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B23" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C23" s="22" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="34" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B24" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C24" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="52" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="51" t="s">
         <v>186</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5138,8 +5595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5172,7 +5629,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="58" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5186,7 +5643,7 @@
       <c r="C3" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="59"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -5225,56 +5682,66 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="63" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="C8" s="46" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="63"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="C9" s="46" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="46"/>
+      <c r="D9" s="63"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="C10" s="46" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="46"/>
+      <c r="D10" s="63"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="C11" s="46" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="B12" s="46"/>
-      <c r="C12" s="46" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="46"/>
+      <c r="D12" s="63"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="B13" s="46"/>
-      <c r="C13" s="46" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="46"/>
+      <c r="D13" s="63"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="30" t="s">
@@ -5333,7 +5800,7 @@
   <mergeCells count="1">
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5344,7 +5811,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -5426,7 +5893,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="52" t="s">
         <v>230</v>
       </c>
       <c r="B7" t="s">
@@ -5435,7 +5902,7 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>231</v>
       </c>
       <c r="E7" s="3"/>
@@ -5518,7 +5985,7 @@
       <c r="E21" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -5529,7 +5996,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5601,7 +6068,7 @@
       <c r="B6" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="65" t="s">
         <v>193</v>
       </c>
     </row>
@@ -5609,21 +6076,21 @@
       <c r="A7" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>190</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="49" customFormat="1">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:4" s="48" customFormat="1">
+      <c r="A8" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="48" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5650,7 +6117,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -5661,7 +6128,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5716,7 +6183,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="52" t="s">
         <v>214</v>
       </c>
       <c r="B5" t="s">
@@ -5727,16 +6194,16 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>185</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5752,13 +6219,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="62" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5778,6 +6245,161 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD8EA35-72EE-1B44-AC46-56EF1C02EA3D}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="65"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5811,7 +6433,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>56</v>
       </c>
       <c r="B3" t="s">
@@ -5844,7 +6466,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>37</v>
       </c>
       <c r="B6" t="s">
@@ -5852,17 +6474,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -5916,7 +6538,7 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>216</v>
       </c>
     </row>
@@ -5927,7 +6549,7 @@
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="52" t="s">
         <v>217</v>
       </c>
     </row>
@@ -5999,13 +6621,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="67" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6013,165 +6635,9 @@
       <c r="C69" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E332DA5C-9E74-2544-80DA-1DFF3A4CBCC2}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="185.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenqingze/Workspace/Repositories/aitalk/doc/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1777F01B-E3C0-124D-92EA-7ACF9A17D734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A809D75-57C6-5649-92E3-3629F3C9EB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="772" firstSheet="3" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="notification" sheetId="7" r:id="rId12"/>
     <sheet name="resource" sheetId="10" r:id="rId13"/>
     <sheet name="recentChat" sheetId="21" r:id="rId14"/>
-    <sheet name="consultantCient" sheetId="20" r:id="rId15"/>
+    <sheet name="consultantClient" sheetId="20" r:id="rId15"/>
     <sheet name="consultationMsg" sheetId="26" r:id="rId16"/>
     <sheet name="店铺咨询逻辑" sheetId="25" r:id="rId17"/>
   </sheets>
@@ -1358,6 +1358,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,14 +1375,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1715,13 +1715,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1">
       <c r="A2" s="12" t="s">
@@ -4089,13 +4089,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="64" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       <c r="B8" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="62" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4819,7 +4819,7 @@
       <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="62" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4830,7 +4830,7 @@
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="62" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4845,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0299472C-ED1C-4B4F-B5E1-687D0FC50590}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5224,17 +5224,17 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="60" customHeight="1">
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
     </row>
     <row r="26" spans="1:11">
       <c r="C26" s="17" t="s">
@@ -5242,72 +5242,72 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="17" t="s">
@@ -5380,7 +5380,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="58" t="s">
         <v>244</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -5389,10 +5389,10 @@
       <c r="C5" s="41"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="63" t="s">
         <v>246</v>
       </c>
       <c r="C6" s="41"/>
@@ -5489,19 +5489,19 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="5" customFormat="1">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="57" t="s">
         <v>252</v>
       </c>
       <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:3" s="5" customFormat="1">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="57" t="s">
         <v>254</v>
       </c>
       <c r="C17" s="23"/>
@@ -5595,7 +5595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -5629,7 +5629,7 @@
         <v>16</v>
       </c>
       <c r="C2" s="36"/>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="66" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5643,7 +5643,7 @@
       <c r="C3" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="66"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -5682,66 +5682,66 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="C7" s="62" t="s">
+      <c r="C7" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="60" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="63"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63" t="s">
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60" t="s">
         <v>156</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63" t="s">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63" t="s">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63" t="s">
+      <c r="A12" s="59"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="62"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63" t="s">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="30" t="s">
@@ -6068,7 +6068,7 @@
       <c r="B6" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="62" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6219,13 +6219,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="61" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="59" t="s">
         <v>125</v>
       </c>
     </row>
@@ -6268,21 +6268,21 @@
       <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="62" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="62" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -6357,7 +6357,7 @@
       <c r="B9" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="62" t="s">
         <v>248</v>
       </c>
     </row>
@@ -6379,7 +6379,7 @@
       <c r="B11" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="62" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6390,7 +6390,7 @@
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="62" t="s">
         <v>249</v>
       </c>
     </row>
@@ -6621,13 +6621,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="64" t="s">
         <v>207</v>
       </c>
     </row>

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="15760" tabRatio="772" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="28000" windowHeight="13460" tabRatio="772" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261">
   <si>
     <t>修订历史</t>
   </si>
@@ -472,12 +472,27 @@
     <t>群二维码</t>
   </si>
   <si>
+    <t>setting</t>
+  </si>
+  <si>
     <t>群设置</t>
   </si>
   <si>
     <t>包含群头像等等设置</t>
   </si>
   <si>
+    <t>是否禁言</t>
+  </si>
+  <si>
+    <t>isConfirmJoin</t>
+  </si>
+  <si>
+    <t>booealn</t>
+  </si>
+  <si>
+    <t>是否开启邀请确认</t>
+  </si>
+  <si>
     <t>owner</t>
   </si>
   <si>
@@ -497,18 +512,6 @@
   </si>
   <si>
     <t>群号</t>
-  </si>
-  <si>
-    <t>是否禁言</t>
-  </si>
-  <si>
-    <t>isConfirmJoin</t>
-  </si>
-  <si>
-    <t>booealn</t>
-  </si>
-  <si>
-    <t>是否开启邀请确认</t>
   </si>
   <si>
     <t>主键</t>
@@ -1056,26 +1059,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1147,20 +1136,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1178,7 +1153,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,22 +1205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -1232,7 +1221,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1247,22 +1251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1277,14 +1266,20 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1347,13 +1342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,13 +1366,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,7 +1396,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,13 +1432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,25 +1444,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,49 +1468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,31 +1492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1583,17 +1554,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,17 +1580,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1635,6 +1591,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1656,94 +1627,94 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1752,90 +1723,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1847,23 +1817,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1871,7 +1841,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2257,2237 +2227,2237 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="45" customWidth="1"/>
-    <col min="2" max="2" width="9.66666666666667" style="46" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="44" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667" style="45" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="53.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.2" spans="1:5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" s="44" customFormat="1" spans="1:5">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" s="43" customFormat="1" spans="1:5">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="50" t="s">
+      <c r="E2" s="49" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51">
+      <c r="A3" s="50">
         <v>1</v>
       </c>
-      <c r="B3" s="52">
+      <c r="B3" s="51">
         <v>44069</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="51">
+      <c r="A5" s="50">
         <v>3</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="51">
+      <c r="A6" s="50">
         <v>4</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="51">
+      <c r="A7" s="50">
         <v>5</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="51">
+      <c r="A8" s="50">
         <v>6</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="51">
+      <c r="A9" s="50">
         <v>7</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="51">
+      <c r="A10" s="50">
         <v>8</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="51">
+      <c r="A11" s="50">
         <v>9</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="51">
+      <c r="A12" s="50">
         <v>10</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="51">
+      <c r="A13" s="50">
         <v>11</v>
       </c>
-      <c r="B13" s="52"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="51">
+      <c r="A14" s="50">
         <v>12</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="51">
+      <c r="A15" s="50">
         <v>13</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="51">
+      <c r="A16" s="50">
         <v>14</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="51">
+      <c r="A17" s="50">
         <v>15</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="51">
+      <c r="A18" s="50">
         <v>16</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="51">
+      <c r="A19" s="50">
         <v>17</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="51">
+      <c r="A20" s="50">
         <v>18</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="51">
+      <c r="A21" s="50">
         <v>19</v>
       </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="51">
+      <c r="A22" s="50">
         <v>20</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="51">
+      <c r="A23" s="50">
         <v>21</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="51">
+      <c r="A24" s="50">
         <v>22</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="51">
+      <c r="A25" s="50">
         <v>23</v>
       </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="51">
+      <c r="A26" s="50">
         <v>24</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="51">
+      <c r="A27" s="50">
         <v>25</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="51">
+      <c r="A28" s="50">
         <v>26</v>
       </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="51">
+      <c r="A29" s="50">
         <v>27</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="51">
+      <c r="A30" s="50">
         <v>28</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="51">
+      <c r="A31" s="50">
         <v>29</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="51">
+      <c r="A32" s="50">
         <v>30</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="51">
+      <c r="A33" s="50">
         <v>31</v>
       </c>
-      <c r="B33" s="52"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="51">
+      <c r="A34" s="50">
         <v>32</v>
       </c>
-      <c r="B34" s="52"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="51">
+      <c r="A35" s="50">
         <v>33</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="51">
+      <c r="A36" s="50">
         <v>34</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="51">
+      <c r="A37" s="50">
         <v>35</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="51">
+      <c r="A38" s="50">
         <v>36</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="51">
+      <c r="A39" s="50">
         <v>37</v>
       </c>
-      <c r="B39" s="52"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="51">
+      <c r="A40" s="50">
         <v>38</v>
       </c>
-      <c r="B40" s="52"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="51">
+      <c r="A41" s="50">
         <v>39</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="51">
+      <c r="A42" s="50">
         <v>40</v>
       </c>
-      <c r="B42" s="52"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="51">
+      <c r="A43" s="50">
         <v>41</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="51">
+      <c r="A44" s="50">
         <v>42</v>
       </c>
-      <c r="B44" s="52"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="51">
+      <c r="A45" s="50">
         <v>43</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="51">
+      <c r="A46" s="50">
         <v>44</v>
       </c>
-      <c r="B46" s="52"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="51">
+      <c r="A47" s="50">
         <v>45</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="51">
+      <c r="A48" s="50">
         <v>46</v>
       </c>
-      <c r="B48" s="52"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="51">
+      <c r="A49" s="50">
         <v>47</v>
       </c>
-      <c r="B49" s="52"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="51">
+      <c r="A50" s="50">
         <v>48</v>
       </c>
-      <c r="B50" s="52"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="51">
+      <c r="A51" s="50">
         <v>49</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="51">
+      <c r="A52" s="50">
         <v>50</v>
       </c>
-      <c r="B52" s="52"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="51">
+      <c r="A53" s="50">
         <v>51</v>
       </c>
-      <c r="B53" s="52"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="51">
+      <c r="A54" s="50">
         <v>52</v>
       </c>
-      <c r="B54" s="52"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="51">
+      <c r="A55" s="50">
         <v>53</v>
       </c>
-      <c r="B55" s="52"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="51">
+      <c r="A56" s="50">
         <v>54</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="51">
+      <c r="A57" s="50">
         <v>55</v>
       </c>
-      <c r="B57" s="52"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="51">
+      <c r="A58" s="50">
         <v>56</v>
       </c>
-      <c r="B58" s="52"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="51">
+      <c r="A59" s="50">
         <v>57</v>
       </c>
-      <c r="B59" s="52"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
+      <c r="B59" s="51"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="51">
+      <c r="A60" s="50">
         <v>58</v>
       </c>
-      <c r="B60" s="52"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
+      <c r="B60" s="51"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="51">
+      <c r="A61" s="50">
         <v>59</v>
       </c>
-      <c r="B61" s="52"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="51">
+      <c r="A62" s="50">
         <v>60</v>
       </c>
-      <c r="B62" s="52"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="51">
+      <c r="A63" s="50">
         <v>61</v>
       </c>
-      <c r="B63" s="52"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="51">
+      <c r="A64" s="50">
         <v>62</v>
       </c>
-      <c r="B64" s="52"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="51">
+      <c r="A65" s="50">
         <v>63</v>
       </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="51">
+      <c r="A66" s="50">
         <v>64</v>
       </c>
-      <c r="B66" s="52"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="51">
+      <c r="A67" s="50">
         <v>65</v>
       </c>
-      <c r="B67" s="52"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
+      <c r="B67" s="51"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="51">
+      <c r="A68" s="50">
         <v>66</v>
       </c>
-      <c r="B68" s="52"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
+      <c r="B68" s="51"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="51">
+      <c r="A69" s="50">
         <v>67</v>
       </c>
-      <c r="B69" s="52"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
+      <c r="B69" s="51"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="51">
+      <c r="A70" s="50">
         <v>68</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
+      <c r="B70" s="51"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="51">
+      <c r="A71" s="50">
         <v>69</v>
       </c>
-      <c r="B71" s="52"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="51">
+      <c r="A72" s="50">
         <v>70</v>
       </c>
-      <c r="B72" s="52"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="51">
+      <c r="A73" s="50">
         <v>71</v>
       </c>
-      <c r="B73" s="52"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
+      <c r="B73" s="51"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="51">
+      <c r="A74" s="50">
         <v>72</v>
       </c>
-      <c r="B74" s="52"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
+      <c r="B74" s="51"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="51">
+      <c r="A75" s="50">
         <v>73</v>
       </c>
-      <c r="B75" s="52"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="51">
+      <c r="A76" s="50">
         <v>74</v>
       </c>
-      <c r="B76" s="52"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="51">
+      <c r="A77" s="50">
         <v>75</v>
       </c>
-      <c r="B77" s="52"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
+      <c r="B77" s="51"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="51">
+      <c r="A78" s="50">
         <v>76</v>
       </c>
-      <c r="B78" s="52"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="51">
+      <c r="A79" s="50">
         <v>77</v>
       </c>
-      <c r="B79" s="52"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="51">
+      <c r="A80" s="50">
         <v>78</v>
       </c>
-      <c r="B80" s="52"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="51">
+      <c r="A81" s="50">
         <v>79</v>
       </c>
-      <c r="B81" s="52"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="51">
+      <c r="A82" s="50">
         <v>80</v>
       </c>
-      <c r="B82" s="52"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="26"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="51">
+      <c r="A83" s="50">
         <v>81</v>
       </c>
-      <c r="B83" s="52"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="26"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="51">
+      <c r="A84" s="50">
         <v>82</v>
       </c>
-      <c r="B84" s="52"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="26"/>
+      <c r="B84" s="51"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="51">
+      <c r="A85" s="50">
         <v>83</v>
       </c>
-      <c r="B85" s="52"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="26"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="51">
+      <c r="A86" s="50">
         <v>84</v>
       </c>
-      <c r="B86" s="52"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="26"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="51">
+      <c r="A87" s="50">
         <v>85</v>
       </c>
-      <c r="B87" s="52"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="26"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="51">
+      <c r="A88" s="50">
         <v>86</v>
       </c>
-      <c r="B88" s="52"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="51">
+      <c r="A89" s="50">
         <v>87</v>
       </c>
-      <c r="B89" s="52"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
+      <c r="B89" s="51"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="51">
+      <c r="A90" s="50">
         <v>88</v>
       </c>
-      <c r="B90" s="52"/>
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="51">
+      <c r="A91" s="50">
         <v>89</v>
       </c>
-      <c r="B91" s="52"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="51">
+      <c r="A92" s="50">
         <v>90</v>
       </c>
-      <c r="B92" s="52"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="51">
+      <c r="A93" s="50">
         <v>91</v>
       </c>
-      <c r="B93" s="52"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="51">
+      <c r="A94" s="50">
         <v>92</v>
       </c>
-      <c r="B94" s="52"/>
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="26"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="51">
+      <c r="A95" s="50">
         <v>93</v>
       </c>
-      <c r="B95" s="52"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
+      <c r="B95" s="51"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="51">
+      <c r="A96" s="50">
         <v>94</v>
       </c>
-      <c r="B96" s="52"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="51">
+      <c r="A97" s="50">
         <v>95</v>
       </c>
-      <c r="B97" s="52"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="51">
+      <c r="A98" s="50">
         <v>96</v>
       </c>
-      <c r="B98" s="52"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="26"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="51">
+      <c r="A99" s="50">
         <v>97</v>
       </c>
-      <c r="B99" s="52"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="26"/>
+      <c r="B99" s="51"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="51">
+      <c r="A100" s="50">
         <v>98</v>
       </c>
-      <c r="B100" s="52"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="26"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="51">
+      <c r="A101" s="50">
         <v>99</v>
       </c>
-      <c r="B101" s="52"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="51">
+      <c r="A102" s="50">
         <v>100</v>
       </c>
-      <c r="B102" s="52"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="51">
+      <c r="A103" s="50">
         <v>101</v>
       </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="51">
+      <c r="A104" s="50">
         <v>102</v>
       </c>
-      <c r="B104" s="52"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
+      <c r="B104" s="51"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="51">
+      <c r="A105" s="50">
         <v>103</v>
       </c>
-      <c r="B105" s="52"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
+      <c r="B105" s="51"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="51">
+      <c r="A106" s="50">
         <v>104</v>
       </c>
-      <c r="B106" s="52"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
+      <c r="B106" s="51"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="51">
+      <c r="A107" s="50">
         <v>105</v>
       </c>
-      <c r="B107" s="52"/>
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
+      <c r="B107" s="51"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="51">
+      <c r="A108" s="50">
         <v>106</v>
       </c>
-      <c r="B108" s="52"/>
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="51">
+      <c r="A109" s="50">
         <v>107</v>
       </c>
-      <c r="B109" s="52"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="51">
+      <c r="A110" s="50">
         <v>108</v>
       </c>
-      <c r="B110" s="52"/>
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="51">
+      <c r="A111" s="50">
         <v>109</v>
       </c>
-      <c r="B111" s="52"/>
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="51">
+      <c r="A112" s="50">
         <v>110</v>
       </c>
-      <c r="B112" s="52"/>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="51">
+      <c r="A113" s="50">
         <v>111</v>
       </c>
-      <c r="B113" s="52"/>
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="51">
+      <c r="A114" s="50">
         <v>112</v>
       </c>
-      <c r="B114" s="52"/>
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="51">
+      <c r="A115" s="50">
         <v>113</v>
       </c>
-      <c r="B115" s="52"/>
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="51">
+      <c r="A116" s="50">
         <v>114</v>
       </c>
-      <c r="B116" s="52"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="26"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="51">
+      <c r="A117" s="50">
         <v>115</v>
       </c>
-      <c r="B117" s="52"/>
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="E117" s="26"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="51">
+      <c r="A118" s="50">
         <v>116</v>
       </c>
-      <c r="B118" s="52"/>
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="E118" s="26"/>
+      <c r="B118" s="51"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="51">
+      <c r="A119" s="50">
         <v>117</v>
       </c>
-      <c r="B119" s="52"/>
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
-      <c r="E119" s="26"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="51">
+      <c r="A120" s="50">
         <v>118</v>
       </c>
-      <c r="B120" s="52"/>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="51">
+      <c r="A121" s="50">
         <v>119</v>
       </c>
-      <c r="B121" s="52"/>
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="E121" s="26"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="51">
+      <c r="A122" s="50">
         <v>120</v>
       </c>
-      <c r="B122" s="52"/>
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="E122" s="26"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="51">
+      <c r="A123" s="50">
         <v>121</v>
       </c>
-      <c r="B123" s="52"/>
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="E123" s="26"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="51">
+      <c r="A124" s="50">
         <v>122</v>
       </c>
-      <c r="B124" s="52"/>
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="E124" s="26"/>
+      <c r="B124" s="51"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="51">
+      <c r="A125" s="50">
         <v>123</v>
       </c>
-      <c r="B125" s="52"/>
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
-      <c r="E125" s="26"/>
+      <c r="B125" s="51"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="51">
+      <c r="A126" s="50">
         <v>124</v>
       </c>
-      <c r="B126" s="52"/>
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
-      <c r="E126" s="26"/>
+      <c r="B126" s="51"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="51">
+      <c r="A127" s="50">
         <v>125</v>
       </c>
-      <c r="B127" s="52"/>
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="E127" s="26"/>
+      <c r="B127" s="51"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="51">
+      <c r="A128" s="50">
         <v>126</v>
       </c>
-      <c r="B128" s="52"/>
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="E128" s="26"/>
+      <c r="B128" s="51"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="51">
+      <c r="A129" s="50">
         <v>127</v>
       </c>
-      <c r="B129" s="52"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="E129" s="26"/>
+      <c r="B129" s="51"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="51">
+      <c r="A130" s="50">
         <v>128</v>
       </c>
-      <c r="B130" s="52"/>
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="E130" s="26"/>
+      <c r="B130" s="51"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="51">
+      <c r="A131" s="50">
         <v>129</v>
       </c>
-      <c r="B131" s="52"/>
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="E131" s="26"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="51">
+      <c r="A132" s="50">
         <v>130</v>
       </c>
-      <c r="B132" s="52"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="E132" s="26"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="51">
+      <c r="A133" s="50">
         <v>131</v>
       </c>
-      <c r="B133" s="52"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="26"/>
+      <c r="B133" s="51"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="51">
+      <c r="A134" s="50">
         <v>132</v>
       </c>
-      <c r="B134" s="52"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
+      <c r="B134" s="51"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="51">
+      <c r="A135" s="50">
         <v>133</v>
       </c>
-      <c r="B135" s="52"/>
-      <c r="C135" s="26"/>
-      <c r="D135" s="26"/>
-      <c r="E135" s="26"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="51">
+      <c r="A136" s="50">
         <v>134</v>
       </c>
-      <c r="B136" s="52"/>
-      <c r="C136" s="26"/>
-      <c r="D136" s="26"/>
-      <c r="E136" s="26"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="51">
+      <c r="A137" s="50">
         <v>135</v>
       </c>
-      <c r="B137" s="52"/>
-      <c r="C137" s="26"/>
-      <c r="D137" s="26"/>
-      <c r="E137" s="26"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="51">
+      <c r="A138" s="50">
         <v>136</v>
       </c>
-      <c r="B138" s="52"/>
-      <c r="C138" s="26"/>
-      <c r="D138" s="26"/>
-      <c r="E138" s="26"/>
+      <c r="B138" s="51"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="51">
+      <c r="A139" s="50">
         <v>137</v>
       </c>
-      <c r="B139" s="52"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="26"/>
-      <c r="E139" s="26"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="51">
+      <c r="A140" s="50">
         <v>138</v>
       </c>
-      <c r="B140" s="52"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="26"/>
-      <c r="E140" s="26"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="51">
+      <c r="A141" s="50">
         <v>139</v>
       </c>
-      <c r="B141" s="52"/>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="51">
+      <c r="A142" s="50">
         <v>140</v>
       </c>
-      <c r="B142" s="52"/>
-      <c r="C142" s="26"/>
-      <c r="D142" s="26"/>
-      <c r="E142" s="26"/>
+      <c r="B142" s="51"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="51">
+      <c r="A143" s="50">
         <v>141</v>
       </c>
-      <c r="B143" s="52"/>
-      <c r="C143" s="26"/>
-      <c r="D143" s="26"/>
-      <c r="E143" s="26"/>
+      <c r="B143" s="51"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="51">
+      <c r="A144" s="50">
         <v>142</v>
       </c>
-      <c r="B144" s="52"/>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
+      <c r="B144" s="51"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="51">
+      <c r="A145" s="50">
         <v>143</v>
       </c>
-      <c r="B145" s="52"/>
-      <c r="C145" s="26"/>
-      <c r="D145" s="26"/>
-      <c r="E145" s="26"/>
+      <c r="B145" s="51"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="51">
+      <c r="A146" s="50">
         <v>144</v>
       </c>
-      <c r="B146" s="52"/>
-      <c r="C146" s="26"/>
-      <c r="D146" s="26"/>
-      <c r="E146" s="26"/>
+      <c r="B146" s="51"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="51">
+      <c r="A147" s="50">
         <v>145</v>
       </c>
-      <c r="B147" s="52"/>
-      <c r="C147" s="26"/>
-      <c r="D147" s="26"/>
-      <c r="E147" s="26"/>
+      <c r="B147" s="51"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="51">
+      <c r="A148" s="50">
         <v>146</v>
       </c>
-      <c r="B148" s="52"/>
-      <c r="C148" s="26"/>
-      <c r="D148" s="26"/>
-      <c r="E148" s="26"/>
+      <c r="B148" s="51"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="51">
+      <c r="A149" s="50">
         <v>147</v>
       </c>
-      <c r="B149" s="52"/>
-      <c r="C149" s="26"/>
-      <c r="D149" s="26"/>
-      <c r="E149" s="26"/>
+      <c r="B149" s="51"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="51">
+      <c r="A150" s="50">
         <v>148</v>
       </c>
-      <c r="B150" s="52"/>
-      <c r="C150" s="26"/>
-      <c r="D150" s="26"/>
-      <c r="E150" s="26"/>
+      <c r="B150" s="51"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="51">
+      <c r="A151" s="50">
         <v>149</v>
       </c>
-      <c r="B151" s="52"/>
-      <c r="C151" s="26"/>
-      <c r="D151" s="26"/>
-      <c r="E151" s="26"/>
+      <c r="B151" s="51"/>
+      <c r="C151" s="25"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="51">
+      <c r="A152" s="50">
         <v>150</v>
       </c>
-      <c r="B152" s="52"/>
-      <c r="C152" s="26"/>
-      <c r="D152" s="26"/>
-      <c r="E152" s="26"/>
+      <c r="B152" s="51"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="51">
+      <c r="A153" s="50">
         <v>151</v>
       </c>
-      <c r="B153" s="52"/>
-      <c r="C153" s="26"/>
-      <c r="D153" s="26"/>
-      <c r="E153" s="26"/>
+      <c r="B153" s="51"/>
+      <c r="C153" s="25"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="51">
+      <c r="A154" s="50">
         <v>152</v>
       </c>
-      <c r="B154" s="52"/>
-      <c r="C154" s="26"/>
-      <c r="D154" s="26"/>
-      <c r="E154" s="26"/>
+      <c r="B154" s="51"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="51">
+      <c r="A155" s="50">
         <v>153</v>
       </c>
-      <c r="B155" s="52"/>
-      <c r="C155" s="26"/>
-      <c r="D155" s="26"/>
-      <c r="E155" s="26"/>
+      <c r="B155" s="51"/>
+      <c r="C155" s="25"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="51">
+      <c r="A156" s="50">
         <v>154</v>
       </c>
-      <c r="B156" s="52"/>
-      <c r="C156" s="26"/>
-      <c r="D156" s="26"/>
-      <c r="E156" s="26"/>
+      <c r="B156" s="51"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="51">
+      <c r="A157" s="50">
         <v>155</v>
       </c>
-      <c r="B157" s="52"/>
-      <c r="C157" s="26"/>
-      <c r="D157" s="26"/>
-      <c r="E157" s="26"/>
+      <c r="B157" s="51"/>
+      <c r="C157" s="25"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="51">
+      <c r="A158" s="50">
         <v>156</v>
       </c>
-      <c r="B158" s="52"/>
-      <c r="C158" s="26"/>
-      <c r="D158" s="26"/>
-      <c r="E158" s="26"/>
+      <c r="B158" s="51"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="51">
+      <c r="A159" s="50">
         <v>157</v>
       </c>
-      <c r="B159" s="52"/>
-      <c r="C159" s="26"/>
-      <c r="D159" s="26"/>
-      <c r="E159" s="26"/>
+      <c r="B159" s="51"/>
+      <c r="C159" s="25"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="51">
+      <c r="A160" s="50">
         <v>158</v>
       </c>
-      <c r="B160" s="52"/>
-      <c r="C160" s="26"/>
-      <c r="D160" s="26"/>
-      <c r="E160" s="26"/>
+      <c r="B160" s="51"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="51">
+      <c r="A161" s="50">
         <v>159</v>
       </c>
-      <c r="B161" s="52"/>
-      <c r="C161" s="26"/>
-      <c r="D161" s="26"/>
-      <c r="E161" s="26"/>
+      <c r="B161" s="51"/>
+      <c r="C161" s="25"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="51">
+      <c r="A162" s="50">
         <v>160</v>
       </c>
-      <c r="B162" s="52"/>
-      <c r="C162" s="26"/>
-      <c r="D162" s="26"/>
-      <c r="E162" s="26"/>
+      <c r="B162" s="51"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="51">
+      <c r="A163" s="50">
         <v>161</v>
       </c>
-      <c r="B163" s="52"/>
-      <c r="C163" s="26"/>
-      <c r="D163" s="26"/>
-      <c r="E163" s="26"/>
+      <c r="B163" s="51"/>
+      <c r="C163" s="25"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="51">
+      <c r="A164" s="50">
         <v>162</v>
       </c>
-      <c r="B164" s="52"/>
-      <c r="C164" s="26"/>
-      <c r="D164" s="26"/>
-      <c r="E164" s="26"/>
+      <c r="B164" s="51"/>
+      <c r="C164" s="25"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="25"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="51">
+      <c r="A165" s="50">
         <v>163</v>
       </c>
-      <c r="B165" s="52"/>
-      <c r="C165" s="26"/>
-      <c r="D165" s="26"/>
-      <c r="E165" s="26"/>
+      <c r="B165" s="51"/>
+      <c r="C165" s="25"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="51">
+      <c r="A166" s="50">
         <v>164</v>
       </c>
-      <c r="B166" s="52"/>
-      <c r="C166" s="26"/>
-      <c r="D166" s="26"/>
-      <c r="E166" s="26"/>
+      <c r="B166" s="51"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="51">
+      <c r="A167" s="50">
         <v>165</v>
       </c>
-      <c r="B167" s="52"/>
-      <c r="C167" s="26"/>
-      <c r="D167" s="26"/>
-      <c r="E167" s="26"/>
+      <c r="B167" s="51"/>
+      <c r="C167" s="25"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="51">
+      <c r="A168" s="50">
         <v>166</v>
       </c>
-      <c r="B168" s="52"/>
-      <c r="C168" s="26"/>
-      <c r="D168" s="26"/>
-      <c r="E168" s="26"/>
+      <c r="B168" s="51"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="51">
+      <c r="A169" s="50">
         <v>167</v>
       </c>
-      <c r="B169" s="52"/>
-      <c r="C169" s="26"/>
-      <c r="D169" s="26"/>
-      <c r="E169" s="26"/>
+      <c r="B169" s="51"/>
+      <c r="C169" s="25"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="51">
+      <c r="A170" s="50">
         <v>168</v>
       </c>
-      <c r="B170" s="52"/>
-      <c r="C170" s="26"/>
-      <c r="D170" s="26"/>
-      <c r="E170" s="26"/>
+      <c r="B170" s="51"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="51">
+      <c r="A171" s="50">
         <v>169</v>
       </c>
-      <c r="B171" s="52"/>
-      <c r="C171" s="26"/>
-      <c r="D171" s="26"/>
-      <c r="E171" s="26"/>
+      <c r="B171" s="51"/>
+      <c r="C171" s="25"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="51">
+      <c r="A172" s="50">
         <v>170</v>
       </c>
-      <c r="B172" s="52"/>
-      <c r="C172" s="26"/>
-      <c r="D172" s="26"/>
-      <c r="E172" s="26"/>
+      <c r="B172" s="51"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="51">
+      <c r="A173" s="50">
         <v>171</v>
       </c>
-      <c r="B173" s="52"/>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26"/>
+      <c r="B173" s="51"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="51">
+      <c r="A174" s="50">
         <v>172</v>
       </c>
-      <c r="B174" s="52"/>
-      <c r="C174" s="26"/>
-      <c r="D174" s="26"/>
-      <c r="E174" s="26"/>
+      <c r="B174" s="51"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="51">
+      <c r="A175" s="50">
         <v>173</v>
       </c>
-      <c r="B175" s="52"/>
-      <c r="C175" s="26"/>
-      <c r="D175" s="26"/>
-      <c r="E175" s="26"/>
+      <c r="B175" s="51"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="51">
+      <c r="A176" s="50">
         <v>174</v>
       </c>
-      <c r="B176" s="52"/>
-      <c r="C176" s="26"/>
-      <c r="D176" s="26"/>
-      <c r="E176" s="26"/>
+      <c r="B176" s="51"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="51">
+      <c r="A177" s="50">
         <v>175</v>
       </c>
-      <c r="B177" s="52"/>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
+      <c r="B177" s="51"/>
+      <c r="C177" s="25"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="51">
+      <c r="A178" s="50">
         <v>176</v>
       </c>
-      <c r="B178" s="52"/>
-      <c r="C178" s="26"/>
-      <c r="D178" s="26"/>
-      <c r="E178" s="26"/>
+      <c r="B178" s="51"/>
+      <c r="C178" s="25"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="51">
+      <c r="A179" s="50">
         <v>177</v>
       </c>
-      <c r="B179" s="52"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
+      <c r="B179" s="51"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="25"/>
+      <c r="E179" s="25"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="51">
+      <c r="A180" s="50">
         <v>178</v>
       </c>
-      <c r="B180" s="52"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
+      <c r="B180" s="51"/>
+      <c r="C180" s="25"/>
+      <c r="D180" s="25"/>
+      <c r="E180" s="25"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="51">
+      <c r="A181" s="50">
         <v>179</v>
       </c>
-      <c r="B181" s="52"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="26"/>
-      <c r="E181" s="26"/>
+      <c r="B181" s="51"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="25"/>
+      <c r="E181" s="25"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="51">
+      <c r="A182" s="50">
         <v>180</v>
       </c>
-      <c r="B182" s="52"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="26"/>
-      <c r="E182" s="26"/>
+      <c r="B182" s="51"/>
+      <c r="C182" s="25"/>
+      <c r="D182" s="25"/>
+      <c r="E182" s="25"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="51">
+      <c r="A183" s="50">
         <v>181</v>
       </c>
-      <c r="B183" s="52"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="26"/>
-      <c r="E183" s="26"/>
+      <c r="B183" s="51"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="25"/>
+      <c r="E183" s="25"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="51">
+      <c r="A184" s="50">
         <v>182</v>
       </c>
-      <c r="B184" s="52"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="26"/>
-      <c r="E184" s="26"/>
+      <c r="B184" s="51"/>
+      <c r="C184" s="25"/>
+      <c r="D184" s="25"/>
+      <c r="E184" s="25"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="51">
+      <c r="A185" s="50">
         <v>183</v>
       </c>
-      <c r="B185" s="52"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="26"/>
-      <c r="E185" s="26"/>
+      <c r="B185" s="51"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="25"/>
+      <c r="E185" s="25"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="51">
+      <c r="A186" s="50">
         <v>184</v>
       </c>
-      <c r="B186" s="52"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="26"/>
-      <c r="E186" s="26"/>
+      <c r="B186" s="51"/>
+      <c r="C186" s="25"/>
+      <c r="D186" s="25"/>
+      <c r="E186" s="25"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="51">
+      <c r="A187" s="50">
         <v>185</v>
       </c>
-      <c r="B187" s="52"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="26"/>
-      <c r="E187" s="26"/>
+      <c r="B187" s="51"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="51">
+      <c r="A188" s="50">
         <v>186</v>
       </c>
-      <c r="B188" s="52"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
+      <c r="B188" s="51"/>
+      <c r="C188" s="25"/>
+      <c r="D188" s="25"/>
+      <c r="E188" s="25"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="51">
+      <c r="A189" s="50">
         <v>187</v>
       </c>
-      <c r="B189" s="52"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="26"/>
-      <c r="E189" s="26"/>
+      <c r="B189" s="51"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="25"/>
+      <c r="E189" s="25"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="51">
+      <c r="A190" s="50">
         <v>188</v>
       </c>
-      <c r="B190" s="52"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
+      <c r="B190" s="51"/>
+      <c r="C190" s="25"/>
+      <c r="D190" s="25"/>
+      <c r="E190" s="25"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="51">
+      <c r="A191" s="50">
         <v>189</v>
       </c>
-      <c r="B191" s="52"/>
-      <c r="C191" s="26"/>
-      <c r="D191" s="26"/>
-      <c r="E191" s="26"/>
+      <c r="B191" s="51"/>
+      <c r="C191" s="25"/>
+      <c r="D191" s="25"/>
+      <c r="E191" s="25"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="51">
+      <c r="A192" s="50">
         <v>190</v>
       </c>
-      <c r="B192" s="52"/>
-      <c r="C192" s="26"/>
-      <c r="D192" s="26"/>
-      <c r="E192" s="26"/>
+      <c r="B192" s="51"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="25"/>
+      <c r="E192" s="25"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="51">
+      <c r="A193" s="50">
         <v>191</v>
       </c>
-      <c r="B193" s="52"/>
-      <c r="C193" s="26"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
+      <c r="B193" s="51"/>
+      <c r="C193" s="25"/>
+      <c r="D193" s="25"/>
+      <c r="E193" s="25"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="51">
+      <c r="A194" s="50">
         <v>192</v>
       </c>
-      <c r="B194" s="52"/>
-      <c r="C194" s="26"/>
-      <c r="D194" s="26"/>
-      <c r="E194" s="26"/>
+      <c r="B194" s="51"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="25"/>
+      <c r="E194" s="25"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="51">
+      <c r="A195" s="50">
         <v>193</v>
       </c>
-      <c r="B195" s="52"/>
-      <c r="C195" s="26"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
+      <c r="B195" s="51"/>
+      <c r="C195" s="25"/>
+      <c r="D195" s="25"/>
+      <c r="E195" s="25"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="51">
+      <c r="A196" s="50">
         <v>194</v>
       </c>
-      <c r="B196" s="52"/>
-      <c r="C196" s="26"/>
-      <c r="D196" s="26"/>
-      <c r="E196" s="26"/>
+      <c r="B196" s="51"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="25"/>
+      <c r="E196" s="25"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="51">
+      <c r="A197" s="50">
         <v>195</v>
       </c>
-      <c r="B197" s="52"/>
-      <c r="C197" s="26"/>
-      <c r="D197" s="26"/>
-      <c r="E197" s="26"/>
+      <c r="B197" s="51"/>
+      <c r="C197" s="25"/>
+      <c r="D197" s="25"/>
+      <c r="E197" s="25"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="51">
+      <c r="A198" s="50">
         <v>196</v>
       </c>
-      <c r="B198" s="52"/>
-      <c r="C198" s="26"/>
-      <c r="D198" s="26"/>
-      <c r="E198" s="26"/>
+      <c r="B198" s="51"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="25"/>
+      <c r="E198" s="25"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="51">
+      <c r="A199" s="50">
         <v>197</v>
       </c>
-      <c r="B199" s="52"/>
-      <c r="C199" s="26"/>
-      <c r="D199" s="26"/>
-      <c r="E199" s="26"/>
+      <c r="B199" s="51"/>
+      <c r="C199" s="25"/>
+      <c r="D199" s="25"/>
+      <c r="E199" s="25"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="51">
+      <c r="A200" s="50">
         <v>198</v>
       </c>
-      <c r="B200" s="52"/>
-      <c r="C200" s="26"/>
-      <c r="D200" s="26"/>
-      <c r="E200" s="26"/>
+      <c r="B200" s="51"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="25"/>
+      <c r="E200" s="25"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="51">
+      <c r="A201" s="50">
         <v>199</v>
       </c>
-      <c r="B201" s="52"/>
-      <c r="C201" s="26"/>
-      <c r="D201" s="26"/>
-      <c r="E201" s="26"/>
+      <c r="B201" s="51"/>
+      <c r="C201" s="25"/>
+      <c r="D201" s="25"/>
+      <c r="E201" s="25"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="51">
+      <c r="A202" s="50">
         <v>200</v>
       </c>
-      <c r="B202" s="52"/>
-      <c r="C202" s="26"/>
-      <c r="D202" s="26"/>
-      <c r="E202" s="26"/>
+      <c r="B202" s="51"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="25"/>
+      <c r="E202" s="25"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="51">
+      <c r="A203" s="50">
         <v>201</v>
       </c>
-      <c r="B203" s="52"/>
-      <c r="C203" s="26"/>
-      <c r="D203" s="26"/>
-      <c r="E203" s="26"/>
+      <c r="B203" s="51"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="25"/>
+      <c r="E203" s="25"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="51">
+      <c r="A204" s="50">
         <v>202</v>
       </c>
-      <c r="B204" s="52"/>
-      <c r="C204" s="26"/>
-      <c r="D204" s="26"/>
-      <c r="E204" s="26"/>
+      <c r="B204" s="51"/>
+      <c r="C204" s="25"/>
+      <c r="D204" s="25"/>
+      <c r="E204" s="25"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="51">
+      <c r="A205" s="50">
         <v>203</v>
       </c>
-      <c r="B205" s="52"/>
-      <c r="C205" s="26"/>
-      <c r="D205" s="26"/>
-      <c r="E205" s="26"/>
+      <c r="B205" s="51"/>
+      <c r="C205" s="25"/>
+      <c r="D205" s="25"/>
+      <c r="E205" s="25"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="51">
+      <c r="A206" s="50">
         <v>204</v>
       </c>
-      <c r="B206" s="52"/>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
+      <c r="B206" s="51"/>
+      <c r="C206" s="25"/>
+      <c r="D206" s="25"/>
+      <c r="E206" s="25"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="51">
+      <c r="A207" s="50">
         <v>205</v>
       </c>
-      <c r="B207" s="52"/>
-      <c r="C207" s="26"/>
-      <c r="D207" s="26"/>
-      <c r="E207" s="26"/>
+      <c r="B207" s="51"/>
+      <c r="C207" s="25"/>
+      <c r="D207" s="25"/>
+      <c r="E207" s="25"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="51">
+      <c r="A208" s="50">
         <v>206</v>
       </c>
-      <c r="B208" s="52"/>
-      <c r="C208" s="26"/>
-      <c r="D208" s="26"/>
-      <c r="E208" s="26"/>
+      <c r="B208" s="51"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="25"/>
+      <c r="E208" s="25"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="51">
+      <c r="A209" s="50">
         <v>207</v>
       </c>
-      <c r="B209" s="52"/>
-      <c r="C209" s="26"/>
-      <c r="D209" s="26"/>
-      <c r="E209" s="26"/>
+      <c r="B209" s="51"/>
+      <c r="C209" s="25"/>
+      <c r="D209" s="25"/>
+      <c r="E209" s="25"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="51">
+      <c r="A210" s="50">
         <v>208</v>
       </c>
-      <c r="B210" s="52"/>
-      <c r="C210" s="26"/>
-      <c r="D210" s="26"/>
-      <c r="E210" s="26"/>
+      <c r="B210" s="51"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="25"/>
+      <c r="E210" s="25"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="51">
+      <c r="A211" s="50">
         <v>209</v>
       </c>
-      <c r="B211" s="52"/>
-      <c r="C211" s="26"/>
-      <c r="D211" s="26"/>
-      <c r="E211" s="26"/>
+      <c r="B211" s="51"/>
+      <c r="C211" s="25"/>
+      <c r="D211" s="25"/>
+      <c r="E211" s="25"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="51">
+      <c r="A212" s="50">
         <v>210</v>
       </c>
-      <c r="B212" s="52"/>
-      <c r="C212" s="26"/>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
+      <c r="B212" s="51"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="25"/>
+      <c r="E212" s="25"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="51">
+      <c r="A213" s="50">
         <v>211</v>
       </c>
-      <c r="B213" s="52"/>
-      <c r="C213" s="26"/>
-      <c r="D213" s="26"/>
-      <c r="E213" s="26"/>
+      <c r="B213" s="51"/>
+      <c r="C213" s="25"/>
+      <c r="D213" s="25"/>
+      <c r="E213" s="25"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="51">
+      <c r="A214" s="50">
         <v>212</v>
       </c>
-      <c r="B214" s="52"/>
-      <c r="C214" s="26"/>
-      <c r="D214" s="26"/>
-      <c r="E214" s="26"/>
+      <c r="B214" s="51"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="25"/>
+      <c r="E214" s="25"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="51">
+      <c r="A215" s="50">
         <v>213</v>
       </c>
-      <c r="B215" s="52"/>
-      <c r="C215" s="26"/>
-      <c r="D215" s="26"/>
-      <c r="E215" s="26"/>
+      <c r="B215" s="51"/>
+      <c r="C215" s="25"/>
+      <c r="D215" s="25"/>
+      <c r="E215" s="25"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="51">
+      <c r="A216" s="50">
         <v>214</v>
       </c>
-      <c r="B216" s="52"/>
-      <c r="C216" s="26"/>
-      <c r="D216" s="26"/>
-      <c r="E216" s="26"/>
+      <c r="B216" s="51"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="25"/>
+      <c r="E216" s="25"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="51">
+      <c r="A217" s="50">
         <v>215</v>
       </c>
-      <c r="B217" s="52"/>
-      <c r="C217" s="26"/>
-      <c r="D217" s="26"/>
-      <c r="E217" s="26"/>
+      <c r="B217" s="51"/>
+      <c r="C217" s="25"/>
+      <c r="D217" s="25"/>
+      <c r="E217" s="25"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="51">
+      <c r="A218" s="50">
         <v>216</v>
       </c>
-      <c r="B218" s="52"/>
-      <c r="C218" s="26"/>
-      <c r="D218" s="26"/>
-      <c r="E218" s="26"/>
+      <c r="B218" s="51"/>
+      <c r="C218" s="25"/>
+      <c r="D218" s="25"/>
+      <c r="E218" s="25"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="51">
+      <c r="A219" s="50">
         <v>217</v>
       </c>
-      <c r="B219" s="52"/>
-      <c r="C219" s="26"/>
-      <c r="D219" s="26"/>
-      <c r="E219" s="26"/>
+      <c r="B219" s="51"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="25"/>
+      <c r="E219" s="25"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="51">
+      <c r="A220" s="50">
         <v>218</v>
       </c>
-      <c r="B220" s="52"/>
-      <c r="C220" s="26"/>
-      <c r="D220" s="26"/>
-      <c r="E220" s="26"/>
+      <c r="B220" s="51"/>
+      <c r="C220" s="25"/>
+      <c r="D220" s="25"/>
+      <c r="E220" s="25"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="51">
+      <c r="A221" s="50">
         <v>219</v>
       </c>
-      <c r="B221" s="52"/>
-      <c r="C221" s="26"/>
-      <c r="D221" s="26"/>
-      <c r="E221" s="26"/>
+      <c r="B221" s="51"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="25"/>
+      <c r="E221" s="25"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="51">
+      <c r="A222" s="50">
         <v>220</v>
       </c>
-      <c r="B222" s="52"/>
-      <c r="C222" s="26"/>
-      <c r="D222" s="26"/>
-      <c r="E222" s="26"/>
+      <c r="B222" s="51"/>
+      <c r="C222" s="25"/>
+      <c r="D222" s="25"/>
+      <c r="E222" s="25"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="51">
+      <c r="A223" s="50">
         <v>221</v>
       </c>
-      <c r="B223" s="52"/>
-      <c r="C223" s="26"/>
-      <c r="D223" s="26"/>
-      <c r="E223" s="26"/>
+      <c r="B223" s="51"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="25"/>
+      <c r="E223" s="25"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="51">
+      <c r="A224" s="50">
         <v>222</v>
       </c>
-      <c r="B224" s="52"/>
-      <c r="C224" s="26"/>
-      <c r="D224" s="26"/>
-      <c r="E224" s="26"/>
+      <c r="B224" s="51"/>
+      <c r="C224" s="25"/>
+      <c r="D224" s="25"/>
+      <c r="E224" s="25"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="51">
+      <c r="A225" s="50">
         <v>223</v>
       </c>
-      <c r="B225" s="52"/>
-      <c r="C225" s="26"/>
-      <c r="D225" s="26"/>
-      <c r="E225" s="26"/>
+      <c r="B225" s="51"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="25"/>
+      <c r="E225" s="25"/>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="51">
+      <c r="A226" s="50">
         <v>224</v>
       </c>
-      <c r="B226" s="52"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
+      <c r="B226" s="51"/>
+      <c r="C226" s="25"/>
+      <c r="D226" s="25"/>
+      <c r="E226" s="25"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="51">
+      <c r="A227" s="50">
         <v>225</v>
       </c>
-      <c r="B227" s="52"/>
-      <c r="C227" s="26"/>
-      <c r="D227" s="26"/>
-      <c r="E227" s="26"/>
+      <c r="B227" s="51"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="25"/>
+      <c r="E227" s="25"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="51">
+      <c r="A228" s="50">
         <v>226</v>
       </c>
-      <c r="B228" s="52"/>
-      <c r="C228" s="26"/>
-      <c r="D228" s="26"/>
-      <c r="E228" s="26"/>
+      <c r="B228" s="51"/>
+      <c r="C228" s="25"/>
+      <c r="D228" s="25"/>
+      <c r="E228" s="25"/>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="51">
+      <c r="A229" s="50">
         <v>227</v>
       </c>
-      <c r="B229" s="52"/>
-      <c r="C229" s="26"/>
-      <c r="D229" s="26"/>
-      <c r="E229" s="26"/>
+      <c r="B229" s="51"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="25"/>
+      <c r="E229" s="25"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="51">
+      <c r="A230" s="50">
         <v>228</v>
       </c>
-      <c r="B230" s="52"/>
-      <c r="C230" s="26"/>
-      <c r="D230" s="26"/>
-      <c r="E230" s="26"/>
+      <c r="B230" s="51"/>
+      <c r="C230" s="25"/>
+      <c r="D230" s="25"/>
+      <c r="E230" s="25"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="51">
+      <c r="A231" s="50">
         <v>229</v>
       </c>
-      <c r="B231" s="52"/>
-      <c r="C231" s="26"/>
-      <c r="D231" s="26"/>
-      <c r="E231" s="26"/>
+      <c r="B231" s="51"/>
+      <c r="C231" s="25"/>
+      <c r="D231" s="25"/>
+      <c r="E231" s="25"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="51">
+      <c r="A232" s="50">
         <v>230</v>
       </c>
-      <c r="B232" s="52"/>
-      <c r="C232" s="26"/>
-      <c r="D232" s="26"/>
-      <c r="E232" s="26"/>
+      <c r="B232" s="51"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="25"/>
+      <c r="E232" s="25"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="51">
+      <c r="A233" s="50">
         <v>231</v>
       </c>
-      <c r="B233" s="52"/>
-      <c r="C233" s="26"/>
-      <c r="D233" s="26"/>
-      <c r="E233" s="26"/>
+      <c r="B233" s="51"/>
+      <c r="C233" s="25"/>
+      <c r="D233" s="25"/>
+      <c r="E233" s="25"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="51">
+      <c r="A234" s="50">
         <v>232</v>
       </c>
-      <c r="B234" s="52"/>
-      <c r="C234" s="26"/>
-      <c r="D234" s="26"/>
-      <c r="E234" s="26"/>
+      <c r="B234" s="51"/>
+      <c r="C234" s="25"/>
+      <c r="D234" s="25"/>
+      <c r="E234" s="25"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="51">
+      <c r="A235" s="50">
         <v>233</v>
       </c>
-      <c r="B235" s="52"/>
-      <c r="C235" s="26"/>
-      <c r="D235" s="26"/>
-      <c r="E235" s="26"/>
+      <c r="B235" s="51"/>
+      <c r="C235" s="25"/>
+      <c r="D235" s="25"/>
+      <c r="E235" s="25"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="51">
+      <c r="A236" s="50">
         <v>234</v>
       </c>
-      <c r="B236" s="52"/>
-      <c r="C236" s="26"/>
-      <c r="D236" s="26"/>
-      <c r="E236" s="26"/>
+      <c r="B236" s="51"/>
+      <c r="C236" s="25"/>
+      <c r="D236" s="25"/>
+      <c r="E236" s="25"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="51">
+      <c r="A237" s="50">
         <v>235</v>
       </c>
-      <c r="B237" s="52"/>
-      <c r="C237" s="26"/>
-      <c r="D237" s="26"/>
-      <c r="E237" s="26"/>
+      <c r="B237" s="51"/>
+      <c r="C237" s="25"/>
+      <c r="D237" s="25"/>
+      <c r="E237" s="25"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="51">
+      <c r="A238" s="50">
         <v>236</v>
       </c>
-      <c r="B238" s="52"/>
-      <c r="C238" s="26"/>
-      <c r="D238" s="26"/>
-      <c r="E238" s="26"/>
+      <c r="B238" s="51"/>
+      <c r="C238" s="25"/>
+      <c r="D238" s="25"/>
+      <c r="E238" s="25"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="51">
+      <c r="A239" s="50">
         <v>237</v>
       </c>
-      <c r="B239" s="52"/>
-      <c r="C239" s="26"/>
-      <c r="D239" s="26"/>
-      <c r="E239" s="26"/>
+      <c r="B239" s="51"/>
+      <c r="C239" s="25"/>
+      <c r="D239" s="25"/>
+      <c r="E239" s="25"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="51">
+      <c r="A240" s="50">
         <v>238</v>
       </c>
-      <c r="B240" s="52"/>
-      <c r="C240" s="26"/>
-      <c r="D240" s="26"/>
-      <c r="E240" s="26"/>
+      <c r="B240" s="51"/>
+      <c r="C240" s="25"/>
+      <c r="D240" s="25"/>
+      <c r="E240" s="25"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="51">
+      <c r="A241" s="50">
         <v>239</v>
       </c>
-      <c r="B241" s="52"/>
-      <c r="C241" s="26"/>
-      <c r="D241" s="26"/>
-      <c r="E241" s="26"/>
+      <c r="B241" s="51"/>
+      <c r="C241" s="25"/>
+      <c r="D241" s="25"/>
+      <c r="E241" s="25"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="51">
+      <c r="A242" s="50">
         <v>240</v>
       </c>
-      <c r="B242" s="52"/>
-      <c r="C242" s="26"/>
-      <c r="D242" s="26"/>
-      <c r="E242" s="26"/>
+      <c r="B242" s="51"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="25"/>
+      <c r="E242" s="25"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="51">
+      <c r="A243" s="50">
         <v>241</v>
       </c>
-      <c r="B243" s="52"/>
-      <c r="C243" s="26"/>
-      <c r="D243" s="26"/>
-      <c r="E243" s="26"/>
+      <c r="B243" s="51"/>
+      <c r="C243" s="25"/>
+      <c r="D243" s="25"/>
+      <c r="E243" s="25"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="51">
+      <c r="A244" s="50">
         <v>242</v>
       </c>
-      <c r="B244" s="52"/>
-      <c r="C244" s="26"/>
-      <c r="D244" s="26"/>
-      <c r="E244" s="26"/>
+      <c r="B244" s="51"/>
+      <c r="C244" s="25"/>
+      <c r="D244" s="25"/>
+      <c r="E244" s="25"/>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="51">
+      <c r="A245" s="50">
         <v>243</v>
       </c>
-      <c r="B245" s="52"/>
-      <c r="C245" s="26"/>
-      <c r="D245" s="26"/>
-      <c r="E245" s="26"/>
+      <c r="B245" s="51"/>
+      <c r="C245" s="25"/>
+      <c r="D245" s="25"/>
+      <c r="E245" s="25"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="51">
+      <c r="A246" s="50">
         <v>244</v>
       </c>
-      <c r="B246" s="52"/>
-      <c r="C246" s="26"/>
-      <c r="D246" s="26"/>
-      <c r="E246" s="26"/>
+      <c r="B246" s="51"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="25"/>
+      <c r="E246" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4524,7 +4494,7 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4535,63 +4505,63 @@
       <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>172</v>
+      <c r="C2" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4602,7 +4572,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4613,7 +4583,7 @@
         <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4624,29 +4594,29 @@
         <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>194</v>
+      <c r="C12" s="9" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4682,7 +4652,7 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4693,52 +4663,52 @@
       <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>172</v>
+      <c r="C2" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" ht="14" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4749,7 +4719,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4760,7 +4730,7 @@
         <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4771,18 +4741,18 @@
         <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +4787,7 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4830,93 +4800,93 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>196</v>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>197</v>
+      <c r="A4" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>199</v>
       </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>200</v>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>202</v>
       </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>204</v>
       </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>206</v>
       </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>207</v>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8" t="s">
-        <v>208</v>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
-        <v>160</v>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4951,7 +4921,7 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4971,40 +4941,40 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5026,15 +4996,15 @@
         <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5066,10 +5036,10 @@
       <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5080,83 +5050,83 @@
       <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>173</v>
+      <c r="A3" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>191</v>
+      <c r="C5" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" ht="14" spans="1:3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5167,7 +5137,7 @@
         <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5178,7 +5148,7 @@
         <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5189,62 +5159,62 @@
         <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5272,16 +5242,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5301,7 +5271,7 @@
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5312,7 +5282,7 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5323,7 +5293,7 @@
         <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5339,34 +5309,34 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>164</v>
+      <c r="C8" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5377,8 +5347,8 @@
       <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>165</v>
+      <c r="C10" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5388,8 +5358,8 @@
       <c r="B11" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>166</v>
+      <c r="C11" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -5432,63 +5402,63 @@
       <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>172</v>
+      <c r="C2" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5499,7 +5469,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5510,7 +5480,7 @@
         <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5521,29 +5491,29 @@
         <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>194</v>
+      <c r="C12" s="3" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -5566,227 +5536,227 @@
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14" spans="2:12">
+    <row r="1" ht="15" spans="2:12">
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" ht="14" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="11" ht="15" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" ht="14" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="19" ht="14" spans="1:3">
+    <row r="19" ht="15" spans="1:3">
       <c r="A19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1" spans="3:11">
       <c r="C23" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -5797,14 +5767,14 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="26" ht="14" spans="3:3">
+    <row r="26" ht="15" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5872,7 +5842,7 @@
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5898,252 +5868,252 @@
   <cols>
     <col min="1" max="1" width="32.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="59.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="52.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="52.5" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" s="21" customFormat="1" spans="1:3">
-      <c r="A15" s="28" t="s">
+    <row r="15" s="20" customFormat="1" spans="1:3">
+      <c r="A15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" s="21" customFormat="1" spans="1:3">
-      <c r="A16" s="31" t="s">
+    <row r="16" s="20" customFormat="1" spans="1:3">
+      <c r="A16" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" s="21" customFormat="1" spans="1:3">
-      <c r="A17" s="31" t="s">
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" s="20" customFormat="1" spans="1:3">
+      <c r="A17" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="27"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="35"/>
     </row>
     <row r="19" ht="17.6" spans="1:3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="38" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="38" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" ht="17.6" spans="1:3">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="38"/>
+      <c r="C22" s="37"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="38" t="s">
+      <c r="C24" s="37" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="42" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6171,49 +6141,49 @@
     <col min="4" max="4" width="95" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="17" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
@@ -6221,13 +6191,13 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6235,7 +6205,7 @@
       <c r="A6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C6" t="s">
@@ -6246,13 +6216,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>85</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -6260,39 +6230,39 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="13" t="s">
         <v>88</v>
       </c>
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="9"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
         <v>91</v>
@@ -6300,7 +6270,7 @@
       <c r="D12" s="13"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="9"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
         <v>92</v>
@@ -6308,7 +6278,7 @@
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B14" t="s">
@@ -6317,12 +6287,12 @@
       <c r="C14" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" ht="14" spans="1:3">
-      <c r="A15" s="3" t="s">
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -6333,7 +6303,7 @@
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -6342,21 +6312,21 @@
       <c r="C16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6388,22 +6358,22 @@
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B2" t="s">
@@ -6417,10 +6387,10 @@
       <c r="B3" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6431,7 +6401,7 @@
       <c r="B4" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6442,7 +6412,7 @@
       <c r="B5" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6453,12 +6423,12 @@
       <c r="B6" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" ht="15.2" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B7" t="s">
@@ -6467,22 +6437,22 @@
       <c r="C7" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" ht="15.2" spans="1:5">
       <c r="A8" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="15.2" spans="1:5">
       <c r="A9" t="s">
@@ -6494,7 +6464,7 @@
       <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" ht="15.2" spans="1:5">
       <c r="A10" t="s">
@@ -6506,24 +6476,24 @@
       <c r="C10" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="12"/>
+      <c r="A14" s="1"/>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1"/>
@@ -6537,17 +6507,17 @@
     </row>
     <row r="18" ht="15.2" spans="4:5">
       <c r="D18" s="1"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="19" ht="15.2" spans="3:5">
       <c r="C19" s="1"/>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" ht="15.2" spans="5:5">
-      <c r="E20" s="16"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" ht="15.2" spans="5:5">
-      <c r="E21" s="16"/>
+      <c r="E21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6572,17 +6542,17 @@
     <col min="3" max="3" width="34.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:4">
+      <c r="A1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6628,35 +6598,35 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" s="8" customFormat="1" spans="1:3">
-      <c r="A8" s="8" t="s">
+    <row r="8" s="7" customFormat="1" spans="1:3">
+      <c r="A8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6692,10 +6662,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -6716,7 +6686,7 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6735,7 +6705,7 @@
       <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6751,7 +6721,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B5" t="s">
@@ -6762,82 +6732,84 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="11" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="D6" s="1" t="s">
         <v>143</v>
       </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="12"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="3"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6851,7 +6823,7 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -6871,42 +6843,42 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6914,21 +6886,21 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6950,28 +6922,28 @@
         <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>164</v>
+      <c r="C9" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6982,8 +6954,8 @@
       <c r="B11" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>165</v>
+      <c r="C11" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6993,8 +6965,8 @@
       <c r="B12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>166</v>
+      <c r="C12" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -7038,25 +7010,25 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>167</v>
+      <c r="A3" s="1" t="s">
+        <v>168</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7067,11 +7039,11 @@
         <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>120</v>
       </c>
       <c r="B6" t="s">
@@ -7111,7 +7083,7 @@
       <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7122,63 +7094,63 @@
       <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>172</v>
+      <c r="C2" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>173</v>
+      <c r="A3" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>176</v>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>178</v>
+      <c r="C5" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7189,9 +7161,9 @@
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>184</v>
+      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -7201,7 +7173,7 @@
         <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7212,29 +7184,29 @@
         <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>189</v>
+      <c r="C12" s="9" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="3:3">

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13460" tabRatio="772" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="28000" windowHeight="13460" tabRatio="772" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
   <si>
     <t>修订历史</t>
   </si>
@@ -514,6 +514,12 @@
     <t>群号</t>
   </si>
   <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>群头像</t>
+  </si>
+  <si>
     <t>主键</t>
   </si>
   <si>
@@ -1058,10 +1064,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1130,7 +1136,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,14 +1150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -1159,17 +1157,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1181,25 +1173,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,15 +1210,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1242,9 +1234,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,17 +1271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1354,7 +1360,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,31 +1402,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,7 +1444,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,13 +1492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,67 +1504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1530,15 +1536,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1554,6 +1551,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1561,21 +1582,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1596,16 +1602,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1627,85 +1633,85 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1714,59 +1720,59 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4506,62 +4512,62 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4572,7 +4578,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4583,7 +4589,7 @@
         <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4594,29 +4600,29 @@
         <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4664,51 +4670,51 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4719,7 +4725,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4730,7 +4736,7 @@
         <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -4741,18 +4747,18 @@
         <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -4805,25 +4811,25 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4832,34 +4838,34 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4868,7 +4874,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4877,7 +4883,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4886,7 +4892,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4941,40 +4947,40 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4996,15 +5002,15 @@
         <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5054,79 +5060,79 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:3">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5137,7 +5143,7 @@
         <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5148,7 +5154,7 @@
         <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5159,62 +5165,62 @@
         <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
         <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
         <v>227</v>
       </c>
-      <c r="B15" t="s">
-        <v>225</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5271,7 +5277,7 @@
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5282,7 +5288,7 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5293,7 +5299,7 @@
         <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5309,13 +5315,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5326,7 +5332,7 @@
         <v>130</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5348,7 +5354,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5359,7 +5365,7 @@
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5403,62 +5409,62 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5469,7 +5475,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5480,7 +5486,7 @@
         <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5491,29 +5497,29 @@
         <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5538,206 +5544,206 @@
   <sheetData>
     <row r="1" ht="15" spans="2:12">
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5746,17 +5752,17 @@
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1" spans="3:11">
       <c r="C23" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -5769,12 +5775,12 @@
     </row>
     <row r="26" ht="15" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5842,7 +5848,7 @@
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -6664,8 +6670,8 @@
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -6802,6 +6808,17 @@
         <v>154</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="20" spans="2:2">
       <c r="B20" s="1"/>
     </row>
@@ -6823,7 +6840,7 @@
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -6855,30 +6872,30 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6886,21 +6903,21 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6922,7 +6939,7 @@
         <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6933,7 +6950,7 @@
         <v>130</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6955,7 +6972,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6966,7 +6983,7 @@
         <v>118</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7011,24 +7028,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -7039,7 +7056,7 @@
         <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -7095,62 +7112,62 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7161,7 +7178,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D8" s="10"/>
     </row>
@@ -7173,7 +7190,7 @@
         <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7184,29 +7201,29 @@
         <v>118</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="3:3">

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="13460" tabRatio="772" firstSheet="3" activeTab="5"/>
+    <workbookView windowWidth="28000" windowHeight="12580" tabRatio="772" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264">
   <si>
     <t>修订历史</t>
   </si>
@@ -663,6 +663,9 @@
     </r>
   </si>
   <si>
+    <t>配送</t>
+  </si>
+  <si>
     <t>预订单ID (针对系统通知而言)</t>
   </si>
   <si>
@@ -1064,8 +1067,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -1136,7 +1139,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,33 +1175,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1188,6 +1199,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1202,38 +1222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -1242,16 +1230,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1264,10 +1244,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1279,18 +1268,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1300,7 +1309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-0.35"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1348,7 +1357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,7 +1369,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,25 +1417,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,13 +1447,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,79 +1495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,7 +1513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,8 +1545,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,7 +1570,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1566,26 +1605,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1601,182 +1620,172 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1796,50 +1805,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1847,16 +1857,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2233,2237 +2243,2237 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="44" customWidth="1"/>
-    <col min="2" max="2" width="9.66666666666667" style="45" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="45" customWidth="1"/>
+    <col min="2" max="2" width="9.66666666666667" style="46" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="53.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.2" spans="1:5">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-    </row>
-    <row r="2" s="43" customFormat="1" spans="1:5">
-      <c r="A2" s="47" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" s="44" customFormat="1" spans="1:5">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="50" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="50">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="52">
         <v>44069</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50">
+      <c r="A5" s="51">
         <v>3</v>
       </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="50">
+      <c r="A6" s="51">
         <v>4</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="50">
+      <c r="A7" s="51">
         <v>5</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="50">
+      <c r="A8" s="51">
         <v>6</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="50">
+      <c r="A9" s="51">
         <v>7</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="50">
+      <c r="A10" s="51">
         <v>8</v>
       </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="50">
+      <c r="A11" s="51">
         <v>9</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="50">
+      <c r="A12" s="51">
         <v>10</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="50">
+      <c r="A13" s="51">
         <v>11</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="50">
+      <c r="A14" s="51">
         <v>12</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="50">
+      <c r="A15" s="51">
         <v>13</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="50">
+      <c r="A16" s="51">
         <v>14</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="50">
+      <c r="A17" s="51">
         <v>15</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="50">
+      <c r="A18" s="51">
         <v>16</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="50">
+      <c r="A19" s="51">
         <v>17</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="50">
+      <c r="A20" s="51">
         <v>18</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="50">
+      <c r="A21" s="51">
         <v>19</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="50">
+      <c r="A22" s="51">
         <v>20</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="50">
+      <c r="A23" s="51">
         <v>21</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="50">
+      <c r="A24" s="51">
         <v>22</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="50">
+      <c r="A25" s="51">
         <v>23</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="50">
+      <c r="A26" s="51">
         <v>24</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="50">
+      <c r="A27" s="51">
         <v>25</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="50">
+      <c r="A28" s="51">
         <v>26</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="50">
+      <c r="A29" s="51">
         <v>27</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="50">
+      <c r="A30" s="51">
         <v>28</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="50">
+      <c r="A31" s="51">
         <v>29</v>
       </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="50">
+      <c r="A32" s="51">
         <v>30</v>
       </c>
-      <c r="B32" s="51"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="50">
+      <c r="A33" s="51">
         <v>31</v>
       </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="50">
+      <c r="A34" s="51">
         <v>32</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="50">
+      <c r="A35" s="51">
         <v>33</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="50">
+      <c r="A36" s="51">
         <v>34</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="50">
+      <c r="A37" s="51">
         <v>35</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="50">
+      <c r="A38" s="51">
         <v>36</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="50">
+      <c r="A39" s="51">
         <v>37</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="50">
+      <c r="A40" s="51">
         <v>38</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="50">
+      <c r="A41" s="51">
         <v>39</v>
       </c>
-      <c r="B41" s="51"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="50">
+      <c r="A42" s="51">
         <v>40</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="50">
+      <c r="A43" s="51">
         <v>41</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="50">
+      <c r="A44" s="51">
         <v>42</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="50">
+      <c r="A45" s="51">
         <v>43</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="50">
+      <c r="A46" s="51">
         <v>44</v>
       </c>
-      <c r="B46" s="51"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="50">
+      <c r="A47" s="51">
         <v>45</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="50">
+      <c r="A48" s="51">
         <v>46</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="50">
+      <c r="A49" s="51">
         <v>47</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="50">
+      <c r="A50" s="51">
         <v>48</v>
       </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="50">
+      <c r="A51" s="51">
         <v>49</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="50">
+      <c r="A52" s="51">
         <v>50</v>
       </c>
-      <c r="B52" s="51"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="50">
+      <c r="A53" s="51">
         <v>51</v>
       </c>
-      <c r="B53" s="51"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="50">
+      <c r="A54" s="51">
         <v>52</v>
       </c>
-      <c r="B54" s="51"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="25"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="50">
+      <c r="A55" s="51">
         <v>53</v>
       </c>
-      <c r="B55" s="51"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="50">
+      <c r="A56" s="51">
         <v>54</v>
       </c>
-      <c r="B56" s="51"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="50">
+      <c r="A57" s="51">
         <v>55</v>
       </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="50">
+      <c r="A58" s="51">
         <v>56</v>
       </c>
-      <c r="B58" s="51"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="25"/>
+      <c r="B58" s="52"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="50">
+      <c r="A59" s="51">
         <v>57</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="25"/>
+      <c r="B59" s="52"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="50">
+      <c r="A60" s="51">
         <v>58</v>
       </c>
-      <c r="B60" s="51"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="25"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="50">
+      <c r="A61" s="51">
         <v>59</v>
       </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="50">
+      <c r="A62" s="51">
         <v>60</v>
       </c>
-      <c r="B62" s="51"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="50">
+      <c r="A63" s="51">
         <v>61</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="50">
+      <c r="A64" s="51">
         <v>62</v>
       </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="50">
+      <c r="A65" s="51">
         <v>63</v>
       </c>
-      <c r="B65" s="51"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="50">
+      <c r="A66" s="51">
         <v>64</v>
       </c>
-      <c r="B66" s="51"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="50">
+      <c r="A67" s="51">
         <v>65</v>
       </c>
-      <c r="B67" s="51"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="50">
+      <c r="A68" s="51">
         <v>66</v>
       </c>
-      <c r="B68" s="51"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="50">
+      <c r="A69" s="51">
         <v>67</v>
       </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="25"/>
+      <c r="B69" s="52"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="50">
+      <c r="A70" s="51">
         <v>68</v>
       </c>
-      <c r="B70" s="51"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="25"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="50">
+      <c r="A71" s="51">
         <v>69</v>
       </c>
-      <c r="B71" s="51"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="50">
+      <c r="A72" s="51">
         <v>70</v>
       </c>
-      <c r="B72" s="51"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
+      <c r="B72" s="52"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="50">
+      <c r="A73" s="51">
         <v>71</v>
       </c>
-      <c r="B73" s="51"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
+      <c r="B73" s="52"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="50">
+      <c r="A74" s="51">
         <v>72</v>
       </c>
-      <c r="B74" s="51"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="50">
+      <c r="A75" s="51">
         <v>73</v>
       </c>
-      <c r="B75" s="51"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
+      <c r="B75" s="52"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="50">
+      <c r="A76" s="51">
         <v>74</v>
       </c>
-      <c r="B76" s="51"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
+      <c r="B76" s="52"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="50">
+      <c r="A77" s="51">
         <v>75</v>
       </c>
-      <c r="B77" s="51"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
+      <c r="B77" s="52"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="50">
+      <c r="A78" s="51">
         <v>76</v>
       </c>
-      <c r="B78" s="51"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
+      <c r="B78" s="52"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="50">
+      <c r="A79" s="51">
         <v>77</v>
       </c>
-      <c r="B79" s="51"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
+      <c r="B79" s="52"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="50">
+      <c r="A80" s="51">
         <v>78</v>
       </c>
-      <c r="B80" s="51"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
+      <c r="B80" s="52"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81" s="50">
+      <c r="A81" s="51">
         <v>79</v>
       </c>
-      <c r="B81" s="51"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="25"/>
+      <c r="B81" s="52"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="50">
+      <c r="A82" s="51">
         <v>80</v>
       </c>
-      <c r="B82" s="51"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="25"/>
+      <c r="B82" s="52"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="50">
+      <c r="A83" s="51">
         <v>81</v>
       </c>
-      <c r="B83" s="51"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+      <c r="B83" s="52"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="50">
+      <c r="A84" s="51">
         <v>82</v>
       </c>
-      <c r="B84" s="51"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
+      <c r="B84" s="52"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="50">
+      <c r="A85" s="51">
         <v>83</v>
       </c>
-      <c r="B85" s="51"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="25"/>
+      <c r="B85" s="52"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="50">
+      <c r="A86" s="51">
         <v>84</v>
       </c>
-      <c r="B86" s="51"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
+      <c r="B86" s="52"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="50">
+      <c r="A87" s="51">
         <v>85</v>
       </c>
-      <c r="B87" s="51"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="50">
+      <c r="A88" s="51">
         <v>86</v>
       </c>
-      <c r="B88" s="51"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="50">
+      <c r="A89" s="51">
         <v>87</v>
       </c>
-      <c r="B89" s="51"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="26"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="50">
+      <c r="A90" s="51">
         <v>88</v>
       </c>
-      <c r="B90" s="51"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="26"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="50">
+      <c r="A91" s="51">
         <v>89</v>
       </c>
-      <c r="B91" s="51"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="26"/>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="50">
+      <c r="A92" s="51">
         <v>90</v>
       </c>
-      <c r="B92" s="51"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="26"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="50">
+      <c r="A93" s="51">
         <v>91</v>
       </c>
-      <c r="B93" s="51"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="26"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="50">
+      <c r="A94" s="51">
         <v>92</v>
       </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="50">
+      <c r="A95" s="51">
         <v>93</v>
       </c>
-      <c r="B95" s="51"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="50">
+      <c r="A96" s="51">
         <v>94</v>
       </c>
-      <c r="B96" s="51"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="50">
+      <c r="A97" s="51">
         <v>95</v>
       </c>
-      <c r="B97" s="51"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="50">
+      <c r="A98" s="51">
         <v>96</v>
       </c>
-      <c r="B98" s="51"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="25"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="50">
+      <c r="A99" s="51">
         <v>97</v>
       </c>
-      <c r="B99" s="51"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="50">
+      <c r="A100" s="51">
         <v>98</v>
       </c>
-      <c r="B100" s="51"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
+      <c r="B100" s="52"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="50">
+      <c r="A101" s="51">
         <v>99</v>
       </c>
-      <c r="B101" s="51"/>
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
+      <c r="B101" s="52"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="26"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="50">
+      <c r="A102" s="51">
         <v>100</v>
       </c>
-      <c r="B102" s="51"/>
-      <c r="C102" s="25"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
+      <c r="B102" s="52"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="26"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="50">
+      <c r="A103" s="51">
         <v>101</v>
       </c>
-      <c r="B103" s="51"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
+      <c r="B103" s="52"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="26"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="50">
+      <c r="A104" s="51">
         <v>102</v>
       </c>
-      <c r="B104" s="51"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
+      <c r="B104" s="52"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="26"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="50">
+      <c r="A105" s="51">
         <v>103</v>
       </c>
-      <c r="B105" s="51"/>
-      <c r="C105" s="25"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="25"/>
+      <c r="B105" s="52"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="26"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="50">
+      <c r="A106" s="51">
         <v>104</v>
       </c>
-      <c r="B106" s="51"/>
-      <c r="C106" s="25"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="25"/>
+      <c r="B106" s="52"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="26"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="50">
+      <c r="A107" s="51">
         <v>105</v>
       </c>
-      <c r="B107" s="51"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
+      <c r="B107" s="52"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="26"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="50">
+      <c r="A108" s="51">
         <v>106</v>
       </c>
-      <c r="B108" s="51"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
+      <c r="B108" s="52"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="26"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="50">
+      <c r="A109" s="51">
         <v>107</v>
       </c>
-      <c r="B109" s="51"/>
-      <c r="C109" s="25"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
+      <c r="B109" s="52"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="26"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="50">
+      <c r="A110" s="51">
         <v>108</v>
       </c>
-      <c r="B110" s="51"/>
-      <c r="C110" s="25"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="25"/>
+      <c r="B110" s="52"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="50">
+      <c r="A111" s="51">
         <v>109</v>
       </c>
-      <c r="B111" s="51"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
+      <c r="B111" s="52"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="50">
+      <c r="A112" s="51">
         <v>110</v>
       </c>
-      <c r="B112" s="51"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
+      <c r="B112" s="52"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="50">
+      <c r="A113" s="51">
         <v>111</v>
       </c>
-      <c r="B113" s="51"/>
-      <c r="C113" s="25"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
+      <c r="B113" s="52"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="50">
+      <c r="A114" s="51">
         <v>112</v>
       </c>
-      <c r="B114" s="51"/>
-      <c r="C114" s="25"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="25"/>
+      <c r="B114" s="52"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="50">
+      <c r="A115" s="51">
         <v>113</v>
       </c>
-      <c r="B115" s="51"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
+      <c r="B115" s="52"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="50">
+      <c r="A116" s="51">
         <v>114</v>
       </c>
-      <c r="B116" s="51"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
+      <c r="B116" s="52"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="50">
+      <c r="A117" s="51">
         <v>115</v>
       </c>
-      <c r="B117" s="51"/>
-      <c r="C117" s="25"/>
-      <c r="D117" s="25"/>
-      <c r="E117" s="25"/>
+      <c r="B117" s="52"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="50">
+      <c r="A118" s="51">
         <v>116</v>
       </c>
-      <c r="B118" s="51"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="25"/>
-      <c r="E118" s="25"/>
+      <c r="B118" s="52"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="50">
+      <c r="A119" s="51">
         <v>117</v>
       </c>
-      <c r="B119" s="51"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
+      <c r="B119" s="52"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="50">
+      <c r="A120" s="51">
         <v>118</v>
       </c>
-      <c r="B120" s="51"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
+      <c r="B120" s="52"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="50">
+      <c r="A121" s="51">
         <v>119</v>
       </c>
-      <c r="B121" s="51"/>
-      <c r="C121" s="25"/>
-      <c r="D121" s="25"/>
-      <c r="E121" s="25"/>
+      <c r="B121" s="52"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="50">
+      <c r="A122" s="51">
         <v>120</v>
       </c>
-      <c r="B122" s="51"/>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
+      <c r="B122" s="52"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="50">
+      <c r="A123" s="51">
         <v>121</v>
       </c>
-      <c r="B123" s="51"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
+      <c r="B123" s="52"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="50">
+      <c r="A124" s="51">
         <v>122</v>
       </c>
-      <c r="B124" s="51"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
+      <c r="B124" s="52"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="50">
+      <c r="A125" s="51">
         <v>123</v>
       </c>
-      <c r="B125" s="51"/>
-      <c r="C125" s="25"/>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
+      <c r="B125" s="52"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="50">
+      <c r="A126" s="51">
         <v>124</v>
       </c>
-      <c r="B126" s="51"/>
-      <c r="C126" s="25"/>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="50">
+      <c r="A127" s="51">
         <v>125</v>
       </c>
-      <c r="B127" s="51"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="50">
+      <c r="A128" s="51">
         <v>126</v>
       </c>
-      <c r="B128" s="51"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="50">
+      <c r="A129" s="51">
         <v>127</v>
       </c>
-      <c r="B129" s="51"/>
-      <c r="C129" s="25"/>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="50">
+      <c r="A130" s="51">
         <v>128</v>
       </c>
-      <c r="B130" s="51"/>
-      <c r="C130" s="25"/>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
+      <c r="B130" s="52"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="50">
+      <c r="A131" s="51">
         <v>129</v>
       </c>
-      <c r="B131" s="51"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="50">
+      <c r="A132" s="51">
         <v>130</v>
       </c>
-      <c r="B132" s="51"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="50">
+      <c r="A133" s="51">
         <v>131</v>
       </c>
-      <c r="B133" s="51"/>
-      <c r="C133" s="25"/>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
+      <c r="B133" s="52"/>
+      <c r="C133" s="26"/>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="50">
+      <c r="A134" s="51">
         <v>132</v>
       </c>
-      <c r="B134" s="51"/>
-      <c r="C134" s="25"/>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
+      <c r="B134" s="52"/>
+      <c r="C134" s="26"/>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="50">
+      <c r="A135" s="51">
         <v>133</v>
       </c>
-      <c r="B135" s="51"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
+      <c r="B135" s="52"/>
+      <c r="C135" s="26"/>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="50">
+      <c r="A136" s="51">
         <v>134</v>
       </c>
-      <c r="B136" s="51"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
+      <c r="B136" s="52"/>
+      <c r="C136" s="26"/>
+      <c r="D136" s="26"/>
+      <c r="E136" s="26"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="50">
+      <c r="A137" s="51">
         <v>135</v>
       </c>
-      <c r="B137" s="51"/>
-      <c r="C137" s="25"/>
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
+      <c r="B137" s="52"/>
+      <c r="C137" s="26"/>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="50">
+      <c r="A138" s="51">
         <v>136</v>
       </c>
-      <c r="B138" s="51"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
+      <c r="B138" s="52"/>
+      <c r="C138" s="26"/>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="50">
+      <c r="A139" s="51">
         <v>137</v>
       </c>
-      <c r="B139" s="51"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
+      <c r="B139" s="52"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="50">
+      <c r="A140" s="51">
         <v>138</v>
       </c>
-      <c r="B140" s="51"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
+      <c r="B140" s="52"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="50">
+      <c r="A141" s="51">
         <v>139</v>
       </c>
-      <c r="B141" s="51"/>
-      <c r="C141" s="25"/>
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
+      <c r="B141" s="52"/>
+      <c r="C141" s="26"/>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="50">
+      <c r="A142" s="51">
         <v>140</v>
       </c>
-      <c r="B142" s="51"/>
-      <c r="C142" s="25"/>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
+      <c r="B142" s="52"/>
+      <c r="C142" s="26"/>
+      <c r="D142" s="26"/>
+      <c r="E142" s="26"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="50">
+      <c r="A143" s="51">
         <v>141</v>
       </c>
-      <c r="B143" s="51"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
+      <c r="B143" s="52"/>
+      <c r="C143" s="26"/>
+      <c r="D143" s="26"/>
+      <c r="E143" s="26"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="50">
+      <c r="A144" s="51">
         <v>142</v>
       </c>
-      <c r="B144" s="51"/>
-      <c r="C144" s="25"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
+      <c r="B144" s="52"/>
+      <c r="C144" s="26"/>
+      <c r="D144" s="26"/>
+      <c r="E144" s="26"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="50">
+      <c r="A145" s="51">
         <v>143</v>
       </c>
-      <c r="B145" s="51"/>
-      <c r="C145" s="25"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="25"/>
+      <c r="B145" s="52"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="26"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="50">
+      <c r="A146" s="51">
         <v>144</v>
       </c>
-      <c r="B146" s="51"/>
-      <c r="C146" s="25"/>
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
+      <c r="B146" s="52"/>
+      <c r="C146" s="26"/>
+      <c r="D146" s="26"/>
+      <c r="E146" s="26"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="50">
+      <c r="A147" s="51">
         <v>145</v>
       </c>
-      <c r="B147" s="51"/>
-      <c r="C147" s="25"/>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
+      <c r="B147" s="52"/>
+      <c r="C147" s="26"/>
+      <c r="D147" s="26"/>
+      <c r="E147" s="26"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="50">
+      <c r="A148" s="51">
         <v>146</v>
       </c>
-      <c r="B148" s="51"/>
-      <c r="C148" s="25"/>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
+      <c r="B148" s="52"/>
+      <c r="C148" s="26"/>
+      <c r="D148" s="26"/>
+      <c r="E148" s="26"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="50">
+      <c r="A149" s="51">
         <v>147</v>
       </c>
-      <c r="B149" s="51"/>
-      <c r="C149" s="25"/>
-      <c r="D149" s="25"/>
-      <c r="E149" s="25"/>
+      <c r="B149" s="52"/>
+      <c r="C149" s="26"/>
+      <c r="D149" s="26"/>
+      <c r="E149" s="26"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="50">
+      <c r="A150" s="51">
         <v>148</v>
       </c>
-      <c r="B150" s="51"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
+      <c r="B150" s="52"/>
+      <c r="C150" s="26"/>
+      <c r="D150" s="26"/>
+      <c r="E150" s="26"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="50">
+      <c r="A151" s="51">
         <v>149</v>
       </c>
-      <c r="B151" s="51"/>
-      <c r="C151" s="25"/>
-      <c r="D151" s="25"/>
-      <c r="E151" s="25"/>
+      <c r="B151" s="52"/>
+      <c r="C151" s="26"/>
+      <c r="D151" s="26"/>
+      <c r="E151" s="26"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="50">
+      <c r="A152" s="51">
         <v>150</v>
       </c>
-      <c r="B152" s="51"/>
-      <c r="C152" s="25"/>
-      <c r="D152" s="25"/>
-      <c r="E152" s="25"/>
+      <c r="B152" s="52"/>
+      <c r="C152" s="26"/>
+      <c r="D152" s="26"/>
+      <c r="E152" s="26"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="50">
+      <c r="A153" s="51">
         <v>151</v>
       </c>
-      <c r="B153" s="51"/>
-      <c r="C153" s="25"/>
-      <c r="D153" s="25"/>
-      <c r="E153" s="25"/>
+      <c r="B153" s="52"/>
+      <c r="C153" s="26"/>
+      <c r="D153" s="26"/>
+      <c r="E153" s="26"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="50">
+      <c r="A154" s="51">
         <v>152</v>
       </c>
-      <c r="B154" s="51"/>
-      <c r="C154" s="25"/>
-      <c r="D154" s="25"/>
-      <c r="E154" s="25"/>
+      <c r="B154" s="52"/>
+      <c r="C154" s="26"/>
+      <c r="D154" s="26"/>
+      <c r="E154" s="26"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="50">
+      <c r="A155" s="51">
         <v>153</v>
       </c>
-      <c r="B155" s="51"/>
-      <c r="C155" s="25"/>
-      <c r="D155" s="25"/>
-      <c r="E155" s="25"/>
+      <c r="B155" s="52"/>
+      <c r="C155" s="26"/>
+      <c r="D155" s="26"/>
+      <c r="E155" s="26"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="50">
+      <c r="A156" s="51">
         <v>154</v>
       </c>
-      <c r="B156" s="51"/>
-      <c r="C156" s="25"/>
-      <c r="D156" s="25"/>
-      <c r="E156" s="25"/>
+      <c r="B156" s="52"/>
+      <c r="C156" s="26"/>
+      <c r="D156" s="26"/>
+      <c r="E156" s="26"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="50">
+      <c r="A157" s="51">
         <v>155</v>
       </c>
-      <c r="B157" s="51"/>
-      <c r="C157" s="25"/>
-      <c r="D157" s="25"/>
-      <c r="E157" s="25"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="26"/>
+      <c r="D157" s="26"/>
+      <c r="E157" s="26"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="50">
+      <c r="A158" s="51">
         <v>156</v>
       </c>
-      <c r="B158" s="51"/>
-      <c r="C158" s="25"/>
-      <c r="D158" s="25"/>
-      <c r="E158" s="25"/>
+      <c r="B158" s="52"/>
+      <c r="C158" s="26"/>
+      <c r="D158" s="26"/>
+      <c r="E158" s="26"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="50">
+      <c r="A159" s="51">
         <v>157</v>
       </c>
-      <c r="B159" s="51"/>
-      <c r="C159" s="25"/>
-      <c r="D159" s="25"/>
-      <c r="E159" s="25"/>
+      <c r="B159" s="52"/>
+      <c r="C159" s="26"/>
+      <c r="D159" s="26"/>
+      <c r="E159" s="26"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="50">
+      <c r="A160" s="51">
         <v>158</v>
       </c>
-      <c r="B160" s="51"/>
-      <c r="C160" s="25"/>
-      <c r="D160" s="25"/>
-      <c r="E160" s="25"/>
+      <c r="B160" s="52"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="26"/>
+      <c r="E160" s="26"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="50">
+      <c r="A161" s="51">
         <v>159</v>
       </c>
-      <c r="B161" s="51"/>
-      <c r="C161" s="25"/>
-      <c r="D161" s="25"/>
-      <c r="E161" s="25"/>
+      <c r="B161" s="52"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="26"/>
+      <c r="E161" s="26"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="50">
+      <c r="A162" s="51">
         <v>160</v>
       </c>
-      <c r="B162" s="51"/>
-      <c r="C162" s="25"/>
-      <c r="D162" s="25"/>
-      <c r="E162" s="25"/>
+      <c r="B162" s="52"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="26"/>
+      <c r="E162" s="26"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="50">
+      <c r="A163" s="51">
         <v>161</v>
       </c>
-      <c r="B163" s="51"/>
-      <c r="C163" s="25"/>
-      <c r="D163" s="25"/>
-      <c r="E163" s="25"/>
+      <c r="B163" s="52"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="26"/>
+      <c r="E163" s="26"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="50">
+      <c r="A164" s="51">
         <v>162</v>
       </c>
-      <c r="B164" s="51"/>
-      <c r="C164" s="25"/>
-      <c r="D164" s="25"/>
-      <c r="E164" s="25"/>
+      <c r="B164" s="52"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="26"/>
+      <c r="E164" s="26"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="50">
+      <c r="A165" s="51">
         <v>163</v>
       </c>
-      <c r="B165" s="51"/>
-      <c r="C165" s="25"/>
-      <c r="D165" s="25"/>
-      <c r="E165" s="25"/>
+      <c r="B165" s="52"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="26"/>
+      <c r="E165" s="26"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="50">
+      <c r="A166" s="51">
         <v>164</v>
       </c>
-      <c r="B166" s="51"/>
-      <c r="C166" s="25"/>
-      <c r="D166" s="25"/>
-      <c r="E166" s="25"/>
+      <c r="B166" s="52"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="50">
+      <c r="A167" s="51">
         <v>165</v>
       </c>
-      <c r="B167" s="51"/>
-      <c r="C167" s="25"/>
-      <c r="D167" s="25"/>
-      <c r="E167" s="25"/>
+      <c r="B167" s="52"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="26"/>
+      <c r="E167" s="26"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="50">
+      <c r="A168" s="51">
         <v>166</v>
       </c>
-      <c r="B168" s="51"/>
-      <c r="C168" s="25"/>
-      <c r="D168" s="25"/>
-      <c r="E168" s="25"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="26"/>
+      <c r="E168" s="26"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="50">
+      <c r="A169" s="51">
         <v>167</v>
       </c>
-      <c r="B169" s="51"/>
-      <c r="C169" s="25"/>
-      <c r="D169" s="25"/>
-      <c r="E169" s="25"/>
+      <c r="B169" s="52"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="26"/>
+      <c r="E169" s="26"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="50">
+      <c r="A170" s="51">
         <v>168</v>
       </c>
-      <c r="B170" s="51"/>
-      <c r="C170" s="25"/>
-      <c r="D170" s="25"/>
-      <c r="E170" s="25"/>
+      <c r="B170" s="52"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="26"/>
+      <c r="E170" s="26"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="50">
+      <c r="A171" s="51">
         <v>169</v>
       </c>
-      <c r="B171" s="51"/>
-      <c r="C171" s="25"/>
-      <c r="D171" s="25"/>
-      <c r="E171" s="25"/>
+      <c r="B171" s="52"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="26"/>
+      <c r="E171" s="26"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="50">
+      <c r="A172" s="51">
         <v>170</v>
       </c>
-      <c r="B172" s="51"/>
-      <c r="C172" s="25"/>
-      <c r="D172" s="25"/>
-      <c r="E172" s="25"/>
+      <c r="B172" s="52"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="26"/>
+      <c r="E172" s="26"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="50">
+      <c r="A173" s="51">
         <v>171</v>
       </c>
-      <c r="B173" s="51"/>
-      <c r="C173" s="25"/>
-      <c r="D173" s="25"/>
-      <c r="E173" s="25"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="50">
+      <c r="A174" s="51">
         <v>172</v>
       </c>
-      <c r="B174" s="51"/>
-      <c r="C174" s="25"/>
-      <c r="D174" s="25"/>
-      <c r="E174" s="25"/>
+      <c r="B174" s="52"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="26"/>
+      <c r="E174" s="26"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="50">
+      <c r="A175" s="51">
         <v>173</v>
       </c>
-      <c r="B175" s="51"/>
-      <c r="C175" s="25"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="25"/>
+      <c r="B175" s="52"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="26"/>
+      <c r="E175" s="26"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="50">
+      <c r="A176" s="51">
         <v>174</v>
       </c>
-      <c r="B176" s="51"/>
-      <c r="C176" s="25"/>
-      <c r="D176" s="25"/>
-      <c r="E176" s="25"/>
+      <c r="B176" s="52"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="26"/>
+      <c r="E176" s="26"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="50">
+      <c r="A177" s="51">
         <v>175</v>
       </c>
-      <c r="B177" s="51"/>
-      <c r="C177" s="25"/>
-      <c r="D177" s="25"/>
-      <c r="E177" s="25"/>
+      <c r="B177" s="52"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="26"/>
+      <c r="E177" s="26"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="50">
+      <c r="A178" s="51">
         <v>176</v>
       </c>
-      <c r="B178" s="51"/>
-      <c r="C178" s="25"/>
-      <c r="D178" s="25"/>
-      <c r="E178" s="25"/>
+      <c r="B178" s="52"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="26"/>
+      <c r="E178" s="26"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="50">
+      <c r="A179" s="51">
         <v>177</v>
       </c>
-      <c r="B179" s="51"/>
-      <c r="C179" s="25"/>
-      <c r="D179" s="25"/>
-      <c r="E179" s="25"/>
+      <c r="B179" s="52"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="26"/>
+      <c r="E179" s="26"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="50">
+      <c r="A180" s="51">
         <v>178</v>
       </c>
-      <c r="B180" s="51"/>
-      <c r="C180" s="25"/>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25"/>
+      <c r="B180" s="52"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="26"/>
+      <c r="E180" s="26"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="50">
+      <c r="A181" s="51">
         <v>179</v>
       </c>
-      <c r="B181" s="51"/>
-      <c r="C181" s="25"/>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="50">
+      <c r="A182" s="51">
         <v>180</v>
       </c>
-      <c r="B182" s="51"/>
-      <c r="C182" s="25"/>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25"/>
+      <c r="B182" s="52"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="26"/>
+      <c r="E182" s="26"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="50">
+      <c r="A183" s="51">
         <v>181</v>
       </c>
-      <c r="B183" s="51"/>
-      <c r="C183" s="25"/>
-      <c r="D183" s="25"/>
-      <c r="E183" s="25"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="26"/>
+      <c r="E183" s="26"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="50">
+      <c r="A184" s="51">
         <v>182</v>
       </c>
-      <c r="B184" s="51"/>
-      <c r="C184" s="25"/>
-      <c r="D184" s="25"/>
-      <c r="E184" s="25"/>
+      <c r="B184" s="52"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="26"/>
+      <c r="E184" s="26"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="50">
+      <c r="A185" s="51">
         <v>183</v>
       </c>
-      <c r="B185" s="51"/>
-      <c r="C185" s="25"/>
-      <c r="D185" s="25"/>
-      <c r="E185" s="25"/>
+      <c r="B185" s="52"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="26"/>
+      <c r="E185" s="26"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="50">
+      <c r="A186" s="51">
         <v>184</v>
       </c>
-      <c r="B186" s="51"/>
-      <c r="C186" s="25"/>
-      <c r="D186" s="25"/>
-      <c r="E186" s="25"/>
+      <c r="B186" s="52"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="26"/>
+      <c r="E186" s="26"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="50">
+      <c r="A187" s="51">
         <v>185</v>
       </c>
-      <c r="B187" s="51"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="25"/>
-      <c r="E187" s="25"/>
+      <c r="B187" s="52"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="26"/>
+      <c r="E187" s="26"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="50">
+      <c r="A188" s="51">
         <v>186</v>
       </c>
-      <c r="B188" s="51"/>
-      <c r="C188" s="25"/>
-      <c r="D188" s="25"/>
-      <c r="E188" s="25"/>
+      <c r="B188" s="52"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="50">
+      <c r="A189" s="51">
         <v>187</v>
       </c>
-      <c r="B189" s="51"/>
-      <c r="C189" s="25"/>
-      <c r="D189" s="25"/>
-      <c r="E189" s="25"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="26"/>
+      <c r="E189" s="26"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="50">
+      <c r="A190" s="51">
         <v>188</v>
       </c>
-      <c r="B190" s="51"/>
-      <c r="C190" s="25"/>
-      <c r="D190" s="25"/>
-      <c r="E190" s="25"/>
+      <c r="B190" s="52"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="50">
+      <c r="A191" s="51">
         <v>189</v>
       </c>
-      <c r="B191" s="51"/>
-      <c r="C191" s="25"/>
-      <c r="D191" s="25"/>
-      <c r="E191" s="25"/>
+      <c r="B191" s="52"/>
+      <c r="C191" s="26"/>
+      <c r="D191" s="26"/>
+      <c r="E191" s="26"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="50">
+      <c r="A192" s="51">
         <v>190</v>
       </c>
-      <c r="B192" s="51"/>
-      <c r="C192" s="25"/>
-      <c r="D192" s="25"/>
-      <c r="E192" s="25"/>
+      <c r="B192" s="52"/>
+      <c r="C192" s="26"/>
+      <c r="D192" s="26"/>
+      <c r="E192" s="26"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="50">
+      <c r="A193" s="51">
         <v>191</v>
       </c>
-      <c r="B193" s="51"/>
-      <c r="C193" s="25"/>
-      <c r="D193" s="25"/>
-      <c r="E193" s="25"/>
+      <c r="B193" s="52"/>
+      <c r="C193" s="26"/>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="50">
+      <c r="A194" s="51">
         <v>192</v>
       </c>
-      <c r="B194" s="51"/>
-      <c r="C194" s="25"/>
-      <c r="D194" s="25"/>
-      <c r="E194" s="25"/>
+      <c r="B194" s="52"/>
+      <c r="C194" s="26"/>
+      <c r="D194" s="26"/>
+      <c r="E194" s="26"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="50">
+      <c r="A195" s="51">
         <v>193</v>
       </c>
-      <c r="B195" s="51"/>
-      <c r="C195" s="25"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="25"/>
+      <c r="B195" s="52"/>
+      <c r="C195" s="26"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="50">
+      <c r="A196" s="51">
         <v>194</v>
       </c>
-      <c r="B196" s="51"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="25"/>
-      <c r="E196" s="25"/>
+      <c r="B196" s="52"/>
+      <c r="C196" s="26"/>
+      <c r="D196" s="26"/>
+      <c r="E196" s="26"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="50">
+      <c r="A197" s="51">
         <v>195</v>
       </c>
-      <c r="B197" s="51"/>
-      <c r="C197" s="25"/>
-      <c r="D197" s="25"/>
-      <c r="E197" s="25"/>
+      <c r="B197" s="52"/>
+      <c r="C197" s="26"/>
+      <c r="D197" s="26"/>
+      <c r="E197" s="26"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="50">
+      <c r="A198" s="51">
         <v>196</v>
       </c>
-      <c r="B198" s="51"/>
-      <c r="C198" s="25"/>
-      <c r="D198" s="25"/>
-      <c r="E198" s="25"/>
+      <c r="B198" s="52"/>
+      <c r="C198" s="26"/>
+      <c r="D198" s="26"/>
+      <c r="E198" s="26"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="50">
+      <c r="A199" s="51">
         <v>197</v>
       </c>
-      <c r="B199" s="51"/>
-      <c r="C199" s="25"/>
-      <c r="D199" s="25"/>
-      <c r="E199" s="25"/>
+      <c r="B199" s="52"/>
+      <c r="C199" s="26"/>
+      <c r="D199" s="26"/>
+      <c r="E199" s="26"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="50">
+      <c r="A200" s="51">
         <v>198</v>
       </c>
-      <c r="B200" s="51"/>
-      <c r="C200" s="25"/>
-      <c r="D200" s="25"/>
-      <c r="E200" s="25"/>
+      <c r="B200" s="52"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="50">
+      <c r="A201" s="51">
         <v>199</v>
       </c>
-      <c r="B201" s="51"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="25"/>
-      <c r="E201" s="25"/>
+      <c r="B201" s="52"/>
+      <c r="C201" s="26"/>
+      <c r="D201" s="26"/>
+      <c r="E201" s="26"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="50">
+      <c r="A202" s="51">
         <v>200</v>
       </c>
-      <c r="B202" s="51"/>
-      <c r="C202" s="25"/>
-      <c r="D202" s="25"/>
-      <c r="E202" s="25"/>
+      <c r="B202" s="52"/>
+      <c r="C202" s="26"/>
+      <c r="D202" s="26"/>
+      <c r="E202" s="26"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="50">
+      <c r="A203" s="51">
         <v>201</v>
       </c>
-      <c r="B203" s="51"/>
-      <c r="C203" s="25"/>
-      <c r="D203" s="25"/>
-      <c r="E203" s="25"/>
+      <c r="B203" s="52"/>
+      <c r="C203" s="26"/>
+      <c r="D203" s="26"/>
+      <c r="E203" s="26"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="50">
+      <c r="A204" s="51">
         <v>202</v>
       </c>
-      <c r="B204" s="51"/>
-      <c r="C204" s="25"/>
-      <c r="D204" s="25"/>
-      <c r="E204" s="25"/>
+      <c r="B204" s="52"/>
+      <c r="C204" s="26"/>
+      <c r="D204" s="26"/>
+      <c r="E204" s="26"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="50">
+      <c r="A205" s="51">
         <v>203</v>
       </c>
-      <c r="B205" s="51"/>
-      <c r="C205" s="25"/>
-      <c r="D205" s="25"/>
-      <c r="E205" s="25"/>
+      <c r="B205" s="52"/>
+      <c r="C205" s="26"/>
+      <c r="D205" s="26"/>
+      <c r="E205" s="26"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="50">
+      <c r="A206" s="51">
         <v>204</v>
       </c>
-      <c r="B206" s="51"/>
-      <c r="C206" s="25"/>
-      <c r="D206" s="25"/>
-      <c r="E206" s="25"/>
+      <c r="B206" s="52"/>
+      <c r="C206" s="26"/>
+      <c r="D206" s="26"/>
+      <c r="E206" s="26"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="50">
+      <c r="A207" s="51">
         <v>205</v>
       </c>
-      <c r="B207" s="51"/>
-      <c r="C207" s="25"/>
-      <c r="D207" s="25"/>
-      <c r="E207" s="25"/>
+      <c r="B207" s="52"/>
+      <c r="C207" s="26"/>
+      <c r="D207" s="26"/>
+      <c r="E207" s="26"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="50">
+      <c r="A208" s="51">
         <v>206</v>
       </c>
-      <c r="B208" s="51"/>
-      <c r="C208" s="25"/>
-      <c r="D208" s="25"/>
-      <c r="E208" s="25"/>
+      <c r="B208" s="52"/>
+      <c r="C208" s="26"/>
+      <c r="D208" s="26"/>
+      <c r="E208" s="26"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="50">
+      <c r="A209" s="51">
         <v>207</v>
       </c>
-      <c r="B209" s="51"/>
-      <c r="C209" s="25"/>
-      <c r="D209" s="25"/>
-      <c r="E209" s="25"/>
+      <c r="B209" s="52"/>
+      <c r="C209" s="26"/>
+      <c r="D209" s="26"/>
+      <c r="E209" s="26"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="50">
+      <c r="A210" s="51">
         <v>208</v>
       </c>
-      <c r="B210" s="51"/>
-      <c r="C210" s="25"/>
-      <c r="D210" s="25"/>
-      <c r="E210" s="25"/>
+      <c r="B210" s="52"/>
+      <c r="C210" s="26"/>
+      <c r="D210" s="26"/>
+      <c r="E210" s="26"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="50">
+      <c r="A211" s="51">
         <v>209</v>
       </c>
-      <c r="B211" s="51"/>
-      <c r="C211" s="25"/>
-      <c r="D211" s="25"/>
-      <c r="E211" s="25"/>
+      <c r="B211" s="52"/>
+      <c r="C211" s="26"/>
+      <c r="D211" s="26"/>
+      <c r="E211" s="26"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="50">
+      <c r="A212" s="51">
         <v>210</v>
       </c>
-      <c r="B212" s="51"/>
-      <c r="C212" s="25"/>
-      <c r="D212" s="25"/>
-      <c r="E212" s="25"/>
+      <c r="B212" s="52"/>
+      <c r="C212" s="26"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="26"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="50">
+      <c r="A213" s="51">
         <v>211</v>
       </c>
-      <c r="B213" s="51"/>
-      <c r="C213" s="25"/>
-      <c r="D213" s="25"/>
-      <c r="E213" s="25"/>
+      <c r="B213" s="52"/>
+      <c r="C213" s="26"/>
+      <c r="D213" s="26"/>
+      <c r="E213" s="26"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="50">
+      <c r="A214" s="51">
         <v>212</v>
       </c>
-      <c r="B214" s="51"/>
-      <c r="C214" s="25"/>
-      <c r="D214" s="25"/>
-      <c r="E214" s="25"/>
+      <c r="B214" s="52"/>
+      <c r="C214" s="26"/>
+      <c r="D214" s="26"/>
+      <c r="E214" s="26"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="50">
+      <c r="A215" s="51">
         <v>213</v>
       </c>
-      <c r="B215" s="51"/>
-      <c r="C215" s="25"/>
-      <c r="D215" s="25"/>
-      <c r="E215" s="25"/>
+      <c r="B215" s="52"/>
+      <c r="C215" s="26"/>
+      <c r="D215" s="26"/>
+      <c r="E215" s="26"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="50">
+      <c r="A216" s="51">
         <v>214</v>
       </c>
-      <c r="B216" s="51"/>
-      <c r="C216" s="25"/>
-      <c r="D216" s="25"/>
-      <c r="E216" s="25"/>
+      <c r="B216" s="52"/>
+      <c r="C216" s="26"/>
+      <c r="D216" s="26"/>
+      <c r="E216" s="26"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="50">
+      <c r="A217" s="51">
         <v>215</v>
       </c>
-      <c r="B217" s="51"/>
-      <c r="C217" s="25"/>
-      <c r="D217" s="25"/>
-      <c r="E217" s="25"/>
+      <c r="B217" s="52"/>
+      <c r="C217" s="26"/>
+      <c r="D217" s="26"/>
+      <c r="E217" s="26"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="50">
+      <c r="A218" s="51">
         <v>216</v>
       </c>
-      <c r="B218" s="51"/>
-      <c r="C218" s="25"/>
-      <c r="D218" s="25"/>
-      <c r="E218" s="25"/>
+      <c r="B218" s="52"/>
+      <c r="C218" s="26"/>
+      <c r="D218" s="26"/>
+      <c r="E218" s="26"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="50">
+      <c r="A219" s="51">
         <v>217</v>
       </c>
-      <c r="B219" s="51"/>
-      <c r="C219" s="25"/>
-      <c r="D219" s="25"/>
-      <c r="E219" s="25"/>
+      <c r="B219" s="52"/>
+      <c r="C219" s="26"/>
+      <c r="D219" s="26"/>
+      <c r="E219" s="26"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="50">
+      <c r="A220" s="51">
         <v>218</v>
       </c>
-      <c r="B220" s="51"/>
-      <c r="C220" s="25"/>
-      <c r="D220" s="25"/>
-      <c r="E220" s="25"/>
+      <c r="B220" s="52"/>
+      <c r="C220" s="26"/>
+      <c r="D220" s="26"/>
+      <c r="E220" s="26"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="50">
+      <c r="A221" s="51">
         <v>219</v>
       </c>
-      <c r="B221" s="51"/>
-      <c r="C221" s="25"/>
-      <c r="D221" s="25"/>
-      <c r="E221" s="25"/>
+      <c r="B221" s="52"/>
+      <c r="C221" s="26"/>
+      <c r="D221" s="26"/>
+      <c r="E221" s="26"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="50">
+      <c r="A222" s="51">
         <v>220</v>
       </c>
-      <c r="B222" s="51"/>
-      <c r="C222" s="25"/>
-      <c r="D222" s="25"/>
-      <c r="E222" s="25"/>
+      <c r="B222" s="52"/>
+      <c r="C222" s="26"/>
+      <c r="D222" s="26"/>
+      <c r="E222" s="26"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="50">
+      <c r="A223" s="51">
         <v>221</v>
       </c>
-      <c r="B223" s="51"/>
-      <c r="C223" s="25"/>
-      <c r="D223" s="25"/>
-      <c r="E223" s="25"/>
+      <c r="B223" s="52"/>
+      <c r="C223" s="26"/>
+      <c r="D223" s="26"/>
+      <c r="E223" s="26"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="50">
+      <c r="A224" s="51">
         <v>222</v>
       </c>
-      <c r="B224" s="51"/>
-      <c r="C224" s="25"/>
-      <c r="D224" s="25"/>
-      <c r="E224" s="25"/>
+      <c r="B224" s="52"/>
+      <c r="C224" s="26"/>
+      <c r="D224" s="26"/>
+      <c r="E224" s="26"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="50">
+      <c r="A225" s="51">
         <v>223</v>
       </c>
-      <c r="B225" s="51"/>
-      <c r="C225" s="25"/>
-      <c r="D225" s="25"/>
-      <c r="E225" s="25"/>
+      <c r="B225" s="52"/>
+      <c r="C225" s="26"/>
+      <c r="D225" s="26"/>
+      <c r="E225" s="26"/>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="50">
+      <c r="A226" s="51">
         <v>224</v>
       </c>
-      <c r="B226" s="51"/>
-      <c r="C226" s="25"/>
-      <c r="D226" s="25"/>
-      <c r="E226" s="25"/>
+      <c r="B226" s="52"/>
+      <c r="C226" s="26"/>
+      <c r="D226" s="26"/>
+      <c r="E226" s="26"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="50">
+      <c r="A227" s="51">
         <v>225</v>
       </c>
-      <c r="B227" s="51"/>
-      <c r="C227" s="25"/>
-      <c r="D227" s="25"/>
-      <c r="E227" s="25"/>
+      <c r="B227" s="52"/>
+      <c r="C227" s="26"/>
+      <c r="D227" s="26"/>
+      <c r="E227" s="26"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="50">
+      <c r="A228" s="51">
         <v>226</v>
       </c>
-      <c r="B228" s="51"/>
-      <c r="C228" s="25"/>
-      <c r="D228" s="25"/>
-      <c r="E228" s="25"/>
+      <c r="B228" s="52"/>
+      <c r="C228" s="26"/>
+      <c r="D228" s="26"/>
+      <c r="E228" s="26"/>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="50">
+      <c r="A229" s="51">
         <v>227</v>
       </c>
-      <c r="B229" s="51"/>
-      <c r="C229" s="25"/>
-      <c r="D229" s="25"/>
-      <c r="E229" s="25"/>
+      <c r="B229" s="52"/>
+      <c r="C229" s="26"/>
+      <c r="D229" s="26"/>
+      <c r="E229" s="26"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="50">
+      <c r="A230" s="51">
         <v>228</v>
       </c>
-      <c r="B230" s="51"/>
-      <c r="C230" s="25"/>
-      <c r="D230" s="25"/>
-      <c r="E230" s="25"/>
+      <c r="B230" s="52"/>
+      <c r="C230" s="26"/>
+      <c r="D230" s="26"/>
+      <c r="E230" s="26"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="50">
+      <c r="A231" s="51">
         <v>229</v>
       </c>
-      <c r="B231" s="51"/>
-      <c r="C231" s="25"/>
-      <c r="D231" s="25"/>
-      <c r="E231" s="25"/>
+      <c r="B231" s="52"/>
+      <c r="C231" s="26"/>
+      <c r="D231" s="26"/>
+      <c r="E231" s="26"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="50">
+      <c r="A232" s="51">
         <v>230</v>
       </c>
-      <c r="B232" s="51"/>
-      <c r="C232" s="25"/>
-      <c r="D232" s="25"/>
-      <c r="E232" s="25"/>
+      <c r="B232" s="52"/>
+      <c r="C232" s="26"/>
+      <c r="D232" s="26"/>
+      <c r="E232" s="26"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="50">
+      <c r="A233" s="51">
         <v>231</v>
       </c>
-      <c r="B233" s="51"/>
-      <c r="C233" s="25"/>
-      <c r="D233" s="25"/>
-      <c r="E233" s="25"/>
+      <c r="B233" s="52"/>
+      <c r="C233" s="26"/>
+      <c r="D233" s="26"/>
+      <c r="E233" s="26"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="50">
+      <c r="A234" s="51">
         <v>232</v>
       </c>
-      <c r="B234" s="51"/>
-      <c r="C234" s="25"/>
-      <c r="D234" s="25"/>
-      <c r="E234" s="25"/>
+      <c r="B234" s="52"/>
+      <c r="C234" s="26"/>
+      <c r="D234" s="26"/>
+      <c r="E234" s="26"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="50">
+      <c r="A235" s="51">
         <v>233</v>
       </c>
-      <c r="B235" s="51"/>
-      <c r="C235" s="25"/>
-      <c r="D235" s="25"/>
-      <c r="E235" s="25"/>
+      <c r="B235" s="52"/>
+      <c r="C235" s="26"/>
+      <c r="D235" s="26"/>
+      <c r="E235" s="26"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="50">
+      <c r="A236" s="51">
         <v>234</v>
       </c>
-      <c r="B236" s="51"/>
-      <c r="C236" s="25"/>
-      <c r="D236" s="25"/>
-      <c r="E236" s="25"/>
+      <c r="B236" s="52"/>
+      <c r="C236" s="26"/>
+      <c r="D236" s="26"/>
+      <c r="E236" s="26"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="50">
+      <c r="A237" s="51">
         <v>235</v>
       </c>
-      <c r="B237" s="51"/>
-      <c r="C237" s="25"/>
-      <c r="D237" s="25"/>
-      <c r="E237" s="25"/>
+      <c r="B237" s="52"/>
+      <c r="C237" s="26"/>
+      <c r="D237" s="26"/>
+      <c r="E237" s="26"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="50">
+      <c r="A238" s="51">
         <v>236</v>
       </c>
-      <c r="B238" s="51"/>
-      <c r="C238" s="25"/>
-      <c r="D238" s="25"/>
-      <c r="E238" s="25"/>
+      <c r="B238" s="52"/>
+      <c r="C238" s="26"/>
+      <c r="D238" s="26"/>
+      <c r="E238" s="26"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="50">
+      <c r="A239" s="51">
         <v>237</v>
       </c>
-      <c r="B239" s="51"/>
-      <c r="C239" s="25"/>
-      <c r="D239" s="25"/>
-      <c r="E239" s="25"/>
+      <c r="B239" s="52"/>
+      <c r="C239" s="26"/>
+      <c r="D239" s="26"/>
+      <c r="E239" s="26"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="50">
+      <c r="A240" s="51">
         <v>238</v>
       </c>
-      <c r="B240" s="51"/>
-      <c r="C240" s="25"/>
-      <c r="D240" s="25"/>
-      <c r="E240" s="25"/>
+      <c r="B240" s="52"/>
+      <c r="C240" s="26"/>
+      <c r="D240" s="26"/>
+      <c r="E240" s="26"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="50">
+      <c r="A241" s="51">
         <v>239</v>
       </c>
-      <c r="B241" s="51"/>
-      <c r="C241" s="25"/>
-      <c r="D241" s="25"/>
-      <c r="E241" s="25"/>
+      <c r="B241" s="52"/>
+      <c r="C241" s="26"/>
+      <c r="D241" s="26"/>
+      <c r="E241" s="26"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="50">
+      <c r="A242" s="51">
         <v>240</v>
       </c>
-      <c r="B242" s="51"/>
-      <c r="C242" s="25"/>
-      <c r="D242" s="25"/>
-      <c r="E242" s="25"/>
+      <c r="B242" s="52"/>
+      <c r="C242" s="26"/>
+      <c r="D242" s="26"/>
+      <c r="E242" s="26"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="50">
+      <c r="A243" s="51">
         <v>241</v>
       </c>
-      <c r="B243" s="51"/>
-      <c r="C243" s="25"/>
-      <c r="D243" s="25"/>
-      <c r="E243" s="25"/>
+      <c r="B243" s="52"/>
+      <c r="C243" s="26"/>
+      <c r="D243" s="26"/>
+      <c r="E243" s="26"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="50">
+      <c r="A244" s="51">
         <v>242</v>
       </c>
-      <c r="B244" s="51"/>
-      <c r="C244" s="25"/>
-      <c r="D244" s="25"/>
-      <c r="E244" s="25"/>
+      <c r="B244" s="52"/>
+      <c r="C244" s="26"/>
+      <c r="D244" s="26"/>
+      <c r="E244" s="26"/>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="50">
+      <c r="A245" s="51">
         <v>243</v>
       </c>
-      <c r="B245" s="51"/>
-      <c r="C245" s="25"/>
-      <c r="D245" s="25"/>
-      <c r="E245" s="25"/>
+      <c r="B245" s="52"/>
+      <c r="C245" s="26"/>
+      <c r="D245" s="26"/>
+      <c r="E245" s="26"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="50">
+      <c r="A246" s="51">
         <v>244</v>
       </c>
-      <c r="B246" s="51"/>
-      <c r="C246" s="25"/>
-      <c r="D246" s="25"/>
-      <c r="E246" s="25"/>
+      <c r="B246" s="52"/>
+      <c r="C246" s="26"/>
+      <c r="D246" s="26"/>
+      <c r="E246" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4480,7 +4490,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -4615,13 +4625,13 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4635,10 +4645,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -4759,6 +4769,22 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="4:4">
+      <c r="D12" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -4811,7 +4837,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4820,16 +4846,16 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4838,34 +4864,34 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4874,7 +4900,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4883,7 +4909,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4947,40 +4973,40 @@
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5002,15 +5028,15 @@
         <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5071,13 +5097,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5104,13 +5130,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5143,7 +5169,7 @@
         <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5176,29 +5202,29 @@
         <v>118</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5214,13 +5240,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5236,7 +5262,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -5277,7 +5303,7 @@
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5288,7 +5314,7 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5299,7 +5325,7 @@
         <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5544,206 +5570,206 @@
   <sheetData>
     <row r="1" ht="15" spans="2:12">
       <c r="B1" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -5752,17 +5778,17 @@
     <row r="19" ht="15" spans="1:3">
       <c r="A19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1" spans="3:11">
       <c r="C23" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -5775,12 +5801,12 @@
     </row>
     <row r="26" ht="15" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5848,7 +5874,7 @@
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5867,259 +5893,259 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="59.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="52.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="52.5" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="26"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" s="20" customFormat="1" spans="1:3">
-      <c r="A15" s="27" t="s">
+    <row r="15" s="21" customFormat="1" spans="1:3">
+      <c r="A15" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" s="20" customFormat="1" spans="1:3">
-      <c r="A16" s="30" t="s">
+    <row r="16" s="21" customFormat="1" spans="1:3">
+      <c r="A16" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="27"/>
-    </row>
-    <row r="17" s="20" customFormat="1" spans="1:3">
-      <c r="A17" s="30" t="s">
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" s="21" customFormat="1" spans="1:3">
+      <c r="A17" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" ht="17.6" spans="1:3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="38" t="s">
+      <c r="C19" s="39" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="39" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="39" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" ht="17.6" spans="1:3">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="37"/>
+      <c r="C22" s="38"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="38" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="38" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="43" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6136,7 +6162,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -6162,28 +6188,28 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
@@ -6222,66 +6248,66 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="13"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="13"/>
+      <c r="D11" s="14"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="8"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
@@ -6318,7 +6344,7 @@
       <c r="C16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6446,7 +6472,7 @@
       <c r="D7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="15.2" spans="1:5">
       <c r="A8" t="s">
@@ -6458,7 +6484,7 @@
       <c r="C8" t="s">
         <v>119</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" ht="15.2" spans="1:5">
       <c r="A9" t="s">
@@ -6470,7 +6496,7 @@
       <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="16"/>
     </row>
     <row r="10" ht="15.2" spans="1:5">
       <c r="A10" t="s">
@@ -6482,7 +6508,7 @@
       <c r="C10" t="s">
         <v>123</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -6513,17 +6539,17 @@
     </row>
     <row r="18" ht="15.2" spans="4:5">
       <c r="D18" s="1"/>
-      <c r="E18" s="14"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" ht="15.2" spans="3:5">
       <c r="C19" s="1"/>
-      <c r="E19" s="15"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" ht="15.2" spans="5:5">
-      <c r="E20" s="15"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" ht="15.2" spans="5:5">
-      <c r="E21" s="15"/>
+      <c r="E21" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6670,8 +6696,8 @@
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -6738,13 +6764,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -6752,26 +6778,26 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6787,24 +6813,24 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6841,7 +6867,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C12" sqref="A8:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -6881,7 +6907,7 @@
         <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
         <v>159</v>
@@ -6892,7 +6918,7 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>161</v>
@@ -6910,24 +6936,24 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="A6" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -6998,7 +7024,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -7079,7 +7105,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C12"/>
+      <selection activeCell="C11" sqref="A3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -7180,7 +7206,7 @@
       <c r="C8" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="10"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -7216,13 +7242,13 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>192</v>
       </c>
     </row>

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12580" tabRatio="772" firstSheet="2" activeTab="10"/>
+    <workbookView windowWidth="28000" windowHeight="12580" tabRatio="772" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="subscription" sheetId="5" r:id="rId8"/>
     <sheet name="msgHist" sheetId="6" r:id="rId9"/>
     <sheet name="offlineMsg" sheetId="24" r:id="rId10"/>
-    <sheet name="mucHist" sheetId="23" r:id="rId11"/>
-    <sheet name="notification" sheetId="7" r:id="rId12"/>
-    <sheet name="resource" sheetId="10" r:id="rId13"/>
+    <sheet name="resource" sheetId="10" r:id="rId11"/>
+    <sheet name="mucHist" sheetId="23" r:id="rId12"/>
+    <sheet name="notification" sheetId="7" r:id="rId13"/>
     <sheet name="recentChat" sheetId="21" r:id="rId14"/>
     <sheet name="consultantClient" sheetId="20" r:id="rId15"/>
     <sheet name="consultationMsg" sheetId="26" r:id="rId16"/>
@@ -248,7 +248,7 @@
     <t>合并</t>
   </si>
   <si>
-    <t>uid</t>
+    <t>uId</t>
   </si>
   <si>
     <t>用于统一id数据类型</t>
@@ -364,6 +364,12 @@
     <t>Android、iOS、Unknown</t>
   </si>
   <si>
+    <t>header</t>
+  </si>
+  <si>
+    <t>头像</t>
+  </si>
+  <si>
     <t>requesterId</t>
   </si>
   <si>
@@ -514,9 +520,6 @@
     <t>群号</t>
   </si>
   <si>
-    <t>header</t>
-  </si>
-  <si>
     <t>群头像</t>
   </si>
   <si>
@@ -544,9 +547,6 @@
     <t>profilePhoto</t>
   </si>
   <si>
-    <t>头像</t>
-  </si>
-  <si>
     <t>群昵称</t>
   </si>
   <si>
@@ -641,6 +641,36 @@
   </si>
   <si>
     <t>咨询方向PIN POUT SIN SOUT NONE</t>
+  </si>
+  <si>
+    <t>资源名称</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>资源类型</t>
+  </si>
+  <si>
+    <t>localPath</t>
+  </si>
+  <si>
+    <t>本地路径</t>
+  </si>
+  <si>
+    <t>remotePath</t>
+  </si>
+  <si>
+    <t>远程路径</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>md5</t>
+  </si>
+  <si>
+    <t>资源唯一性确认</t>
   </si>
   <si>
     <r>
@@ -687,9 +717,6 @@
     <t>图片地址</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>消息类型：hotel、store、user</t>
   </si>
   <si>
@@ -699,34 +726,7 @@
     <t xml:space="preserve">状态：0 发送中 1:送达 2:已读 3:删除 </t>
   </si>
   <si>
-    <t>创建时间</t>
-  </si>
-  <si>
     <t>修改时间</t>
-  </si>
-  <si>
-    <t>资源名称</t>
-  </si>
-  <si>
-    <t>资源类型</t>
-  </si>
-  <si>
-    <t>localPath</t>
-  </si>
-  <si>
-    <t>本地路径</t>
-  </si>
-  <si>
-    <t>remotePath</t>
-  </si>
-  <si>
-    <t>远程路径</t>
-  </si>
-  <si>
-    <t>md5</t>
-  </si>
-  <si>
-    <t>资源唯一性确认</t>
   </si>
   <si>
     <t>msgId</t>
@@ -1068,9 +1068,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1153,6 +1153,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1167,8 +1182,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1183,19 +1214,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1209,7 +1232,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1223,46 +1246,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1276,7 +1260,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,7 +1357,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,55 +1435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1429,67 +1447,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1507,13 +1465,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1570,7 +1570,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1590,17 +1590,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1620,162 +1616,166 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4582,7 +4582,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -4593,10 +4593,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>187</v>
@@ -4604,10 +4604,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
         <v>120</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>188</v>
@@ -4618,7 +4618,7 @@
         <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>190</v>
@@ -4645,10 +4645,128 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.1666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -4724,12 +4842,12 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -4740,10 +4858,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
         <v>187</v>
@@ -4751,10 +4869,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
         <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>188</v>
@@ -4765,7 +4883,7 @@
         <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>190</v>
@@ -4779,12 +4897,12 @@
         <v>70</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4794,13 +4912,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -4837,7 +4955,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4846,70 +4964,70 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4918,125 +5036,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.1666666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5158,12 +5158,12 @@
         <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -5174,10 +5174,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>187</v>
@@ -5185,10 +5185,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
         <v>120</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
       </c>
       <c r="C12" t="s">
         <v>188</v>
@@ -5199,7 +5199,7 @@
         <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>226</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
@@ -5319,10 +5319,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>236</v>
@@ -5330,13 +5330,13 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
         <v>120</v>
       </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5355,7 +5355,7 @@
         <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>167</v>
@@ -5366,10 +5366,10 @@
         <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5388,7 +5388,7 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>169</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>187</v>
@@ -5517,10 +5517,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
         <v>120</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>188</v>
@@ -5531,7 +5531,7 @@
         <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>190</v>
@@ -6159,10 +6159,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -6360,6 +6360,17 @@
       </c>
       <c r="D17" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6414,114 +6425,114 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" ht="15.2" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E7" s="15"/>
     </row>
     <row r="8" ht="15.2" spans="1:5">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E8" s="16"/>
     </row>
     <row r="9" ht="15.2" spans="1:5">
       <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
-        <v>118</v>
-      </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E9" s="16"/>
     </row>
     <row r="10" ht="15.2" spans="1:5">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -6609,13 +6620,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6626,7 +6637,7 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6634,10 +6645,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6645,43 +6656,43 @@
         <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
-        <v>118</v>
-      </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6697,7 +6708,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -6732,49 +6743,49 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6783,66 +6794,66 @@
         <v>90</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13"/>
       <c r="B8" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6867,7 +6878,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="A8:C12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -6898,30 +6909,30 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6929,21 +6940,21 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6973,7 +6984,7 @@
         <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>167</v>
@@ -6984,10 +6995,10 @@
         <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7006,7 +7017,7 @@
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>169</v>
@@ -7024,7 +7035,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -7076,10 +7087,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>174</v>
@@ -7087,10 +7098,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
         <v>120</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -7104,8 +7115,8 @@
   <sheetPr/>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="A3:C11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
@@ -7198,7 +7209,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -7210,10 +7221,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>187</v>
@@ -7221,10 +7232,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
         <v>120</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>188</v>
@@ -7235,7 +7246,7 @@
         <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>190</v>

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12580" tabRatio="772" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="772" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
     <sheet name="表一览" sheetId="2" r:id="rId2"/>
     <sheet name="user" sheetId="1" r:id="rId3"/>
     <sheet name="invitation" sheetId="11" r:id="rId4"/>
-    <sheet name="friendship" sheetId="4" r:id="rId5"/>
+    <sheet name="friend" sheetId="4" r:id="rId5"/>
     <sheet name="group" sheetId="22" r:id="rId6"/>
     <sheet name="groupMember" sheetId="27" r:id="rId7"/>
     <sheet name="subscription" sheetId="5" r:id="rId8"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="270">
   <si>
     <t>修订历史</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>v2</t>
+  </si>
+  <si>
+    <t>刘张斌</t>
   </si>
   <si>
     <t>描述</t>
@@ -442,6 +445,18 @@
     <t>好友id</t>
   </si>
   <si>
+    <t>friendName</t>
+  </si>
+  <si>
+    <t>好友名字</t>
+  </si>
+  <si>
+    <t>friendProfile</t>
+  </si>
+  <si>
+    <t>好友头像</t>
+  </si>
+  <si>
     <t>好友备注</t>
   </si>
   <si>
@@ -458,6 +473,12 @@
   </si>
   <si>
     <t>是否置顶</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>好友状态</t>
   </si>
   <si>
     <t>name</t>
@@ -720,9 +741,6 @@
     <t>消息类型：hotel、store、user</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t xml:space="preserve">状态：0 发送中 1:送达 2:已读 3:删除 </t>
   </si>
   <si>
@@ -1069,8 +1087,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1138,8 +1156,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,6 +1168,81 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1168,49 +1262,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1231,52 +1285,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,7 +1375,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,25 +1489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,73 +1501,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,7 +1519,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,25 +1531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,54 +1562,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1616,6 +1586,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1631,6 +1619,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1639,149 +1642,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1843,7 +1861,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1876,54 +1894,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1964,8 +1982,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="254000" y="2929890"/>
-          <a:ext cx="6457315" cy="958215"/>
+          <a:off x="254000" y="3480435"/>
+          <a:ext cx="6457315" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2233,15 +2251,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="45" customWidth="1"/>
     <col min="2" max="2" width="9.66666666666667" style="46" customWidth="1"/>
@@ -2249,7 +2267,7 @@
     <col min="5" max="5" width="53.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.2" spans="1:5">
+    <row r="1" ht="20.25" spans="1:5">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -2292,8 +2310,12 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="52">
+        <v>44102</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
     </row>
@@ -4485,7 +4507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4493,7 +4515,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -4502,137 +4524,137 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4643,7 +4665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4651,7 +4673,7 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -4660,98 +4682,98 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -4761,7 +4783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4769,7 +4791,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -4778,131 +4800,131 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4913,7 +4935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4921,7 +4943,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="33.8333333333333" customWidth="1"/>
@@ -4929,114 +4951,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>218</v>
+        <v>142</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -5046,7 +5068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -5054,7 +5076,7 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -5063,190 +5085,190 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5257,7 +5279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -5265,7 +5287,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -5275,123 +5297,123 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5402,7 +5424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -5410,7 +5432,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -5418,134 +5440,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5555,7 +5577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -5563,232 +5585,232 @@
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:12">
+    <row r="1" spans="2:12">
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="19" ht="15" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1" spans="3:11">
       <c r="C23" s="2" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -5799,14 +5821,14 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="26" ht="15" spans="3:3">
+    <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5874,7 +5896,7 @@
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5888,7 +5910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -5896,7 +5918,7 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="59.3333333333333" customWidth="1"/>
@@ -5908,245 +5930,245 @@
         <v>4</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" s="21" customFormat="1" spans="1:3">
       <c r="A15" s="28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" s="21" customFormat="1" spans="1:3">
       <c r="A16" s="31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="28"/>
     </row>
     <row r="17" s="21" customFormat="1" spans="1:3">
       <c r="A17" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="36"/>
     </row>
-    <row r="19" ht="17.6" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>53</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" ht="17.6" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22" s="38"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6157,15 +6179,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -6175,97 +6197,97 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" s="14"/>
     </row>
@@ -6273,7 +6295,7 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D9" s="14"/>
     </row>
@@ -6281,7 +6303,7 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" s="14"/>
     </row>
@@ -6289,7 +6311,7 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="14"/>
     </row>
@@ -6297,7 +6319,7 @@
       <c r="A12" s="9"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="14"/>
     </row>
@@ -6305,72 +6327,72 @@
       <c r="A13" s="9"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6384,7 +6406,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -6392,7 +6414,7 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -6403,136 +6425,136 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" ht="15.2" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" ht="15.2" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" ht="15.2" spans="1:5">
-      <c r="A9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" t="s">
-        <v>120</v>
-      </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" ht="15.2" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -6548,18 +6570,18 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" ht="15.2" spans="4:5">
+    <row r="18" spans="4:5">
       <c r="D18" s="1"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" ht="15.2" spans="3:5">
+    <row r="19" spans="3:5">
       <c r="C19" s="1"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" ht="15.2" spans="5:5">
+    <row r="20" spans="5:5">
       <c r="E20" s="16"/>
     </row>
-    <row r="21" ht="15.2" spans="5:5">
+    <row r="21" spans="5:5">
       <c r="E21" s="16"/>
     </row>
   </sheetData>
@@ -6570,15 +6592,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
@@ -6587,112 +6609,145 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" s="7" customFormat="1" spans="1:3">
-      <c r="A8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>136</v>
+      <c r="B8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" s="7" customFormat="1" spans="1:3">
+      <c r="A10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>120</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C12" t="s">
         <v>122</v>
       </c>
-      <c r="B10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>123</v>
+      </c>
+      <c r="B13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6703,7 +6758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -6711,7 +6766,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
@@ -6721,139 +6776,139 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="13"/>
       <c r="B7" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13"/>
       <c r="B8" s="8" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6873,7 +6928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -6881,7 +6936,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="26.3333333333333" customWidth="1"/>
@@ -6889,138 +6944,138 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -7030,7 +7085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -7038,7 +7093,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
@@ -7046,62 +7101,62 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -7111,7 +7166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D69"/>
   <sheetViews>
@@ -7119,7 +7174,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.8333333333333" customWidth="1"/>
@@ -7129,138 +7184,138 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="3:3">

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="772" activeTab="4"/>
+    <workbookView windowWidth="28000" windowHeight="12580" tabRatio="772" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
     <sheet name="表一览" sheetId="2" r:id="rId2"/>
     <sheet name="user" sheetId="1" r:id="rId3"/>
     <sheet name="invitation" sheetId="11" r:id="rId4"/>
-    <sheet name="friend" sheetId="4" r:id="rId5"/>
+    <sheet name="friendship" sheetId="4" r:id="rId5"/>
     <sheet name="group" sheetId="22" r:id="rId6"/>
     <sheet name="groupMember" sheetId="27" r:id="rId7"/>
     <sheet name="subscription" sheetId="5" r:id="rId8"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264">
   <si>
     <t>修订历史</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>v2</t>
-  </si>
-  <si>
-    <t>刘张斌</t>
   </si>
   <si>
     <t>描述</t>
@@ -445,18 +442,6 @@
     <t>好友id</t>
   </si>
   <si>
-    <t>friendName</t>
-  </si>
-  <si>
-    <t>好友名字</t>
-  </si>
-  <si>
-    <t>friendProfile</t>
-  </si>
-  <si>
-    <t>好友头像</t>
-  </si>
-  <si>
     <t>好友备注</t>
   </si>
   <si>
@@ -475,12 +460,6 @@
     <t>是否置顶</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>好友状态</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -499,7 +478,7 @@
     <t>群二维码</t>
   </si>
   <si>
-    <t>setting</t>
+    <t>groupSetting</t>
   </si>
   <si>
     <t>群设置</t>
@@ -741,6 +720,9 @@
     <t>消息类型：hotel、store、user</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
     <t xml:space="preserve">状态：0 发送中 1:送达 2:已读 3:删除 </t>
   </si>
   <si>
@@ -1087,9 +1069,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1156,14 +1138,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -1178,25 +1152,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1210,14 +1201,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,9 +1251,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1247,54 +1276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1375,25 +1357,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,13 +1387,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,7 +1435,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,91 +1495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,11 +1544,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1595,15 +1614,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1619,187 +1629,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1861,7 +1843,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1894,54 +1876,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1982,8 +1964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="254000" y="3480435"/>
-          <a:ext cx="6457315" cy="1152525"/>
+          <a:off x="254000" y="2929890"/>
+          <a:ext cx="6457315" cy="958215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2251,15 +2233,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="45" customWidth="1"/>
     <col min="2" max="2" width="9.66666666666667" style="46" customWidth="1"/>
@@ -2267,7 +2249,7 @@
     <col min="5" max="5" width="53.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:5">
+    <row r="1" ht="17.2" spans="1:5">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -2310,12 +2292,8 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="51"/>
-      <c r="B4" s="52">
-        <v>44102</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
     </row>
@@ -4507,7 +4485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4515,7 +4493,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -4524,137 +4502,137 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4665,7 +4643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4673,7 +4651,7 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -4682,98 +4660,98 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
         <v>75</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
         <v>120</v>
       </c>
-      <c r="B8" t="s">
-        <v>121</v>
-      </c>
       <c r="C8" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4783,7 +4761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4791,7 +4769,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -4800,131 +4778,131 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" t="s">
         <v>120</v>
       </c>
-      <c r="B8" t="s">
-        <v>121</v>
-      </c>
       <c r="C8" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4935,7 +4913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4943,7 +4921,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="33.8333333333333" customWidth="1"/>
@@ -4951,114 +4929,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5068,7 +5046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -5076,7 +5054,7 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -5085,190 +5063,190 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
       <c r="A9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
         <v>120</v>
       </c>
-      <c r="B11" t="s">
-        <v>121</v>
-      </c>
       <c r="C11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5279,7 +5257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -5287,7 +5265,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -5297,123 +5275,123 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
         <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -5424,7 +5402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -5432,7 +5410,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -5440,134 +5418,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5577,7 +5555,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -5585,232 +5563,232 @@
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" ht="15" spans="2:12">
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="L11" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="15" spans="1:3">
       <c r="A19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1" spans="3:11">
       <c r="C23" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -5821,14 +5799,14 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" ht="15" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5896,7 +5874,7 @@
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5910,7 +5888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -5918,7 +5896,7 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="59.3333333333333" customWidth="1"/>
@@ -5930,245 +5908,245 @@
         <v>4</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>10</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="27"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>19</v>
       </c>
       <c r="C5" s="30"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>22</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>23</v>
       </c>
       <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="C10" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>33</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>34</v>
       </c>
       <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="32" t="s">
         <v>35</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>36</v>
       </c>
       <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="C13" s="27"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="C14" s="27" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" s="21" customFormat="1" spans="1:3">
       <c r="A15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="C15" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" s="21" customFormat="1" spans="1:3">
       <c r="A16" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>46</v>
       </c>
       <c r="C16" s="28"/>
     </row>
     <row r="17" s="21" customFormat="1" spans="1:3">
       <c r="A17" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>48</v>
       </c>
       <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="C18" s="36"/>
+    </row>
+    <row r="19" ht="17.6" spans="1:3">
+      <c r="A19" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="36"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="37" t="s">
+      <c r="B19" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="C19" s="39" t="s">
         <v>52</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>55</v>
-      </c>
       <c r="C20" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="C21" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="39" t="s">
+    </row>
+    <row r="22" ht="17.6" spans="1:3">
+      <c r="A22" s="37" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="37" t="s">
+      <c r="B22" s="38" t="s">
         <v>59</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>60</v>
       </c>
       <c r="C22" s="38"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="C23" s="38" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="C24" s="38" t="s">
         <v>65</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -6179,15 +6157,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -6197,97 +6175,97 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="D3" s="18"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="14" t="s">
         <v>86</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="14"/>
     </row>
@@ -6295,7 +6273,7 @@
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="14"/>
     </row>
@@ -6303,7 +6281,7 @@
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="14"/>
     </row>
@@ -6311,7 +6289,7 @@
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="14"/>
     </row>
@@ -6319,7 +6297,7 @@
       <c r="A12" s="9"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="14"/>
     </row>
@@ -6327,72 +6305,72 @@
       <c r="A13" s="9"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>95</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:4">
       <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
         <v>106</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6406,15 +6384,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -6425,136 +6403,136 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" ht="15.2" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
         <v>117</v>
       </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" ht="15.2" spans="1:5">
+      <c r="A8" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
         <v>121</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" ht="15.2" spans="1:5">
+      <c r="A9" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
         <v>123</v>
       </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" ht="15.2" spans="1:5">
+      <c r="A10" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
         <v>125</v>
-      </c>
-      <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
       </c>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -6570,18 +6548,18 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" ht="15.2" spans="4:5">
       <c r="D18" s="1"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" ht="15.2" spans="3:5">
       <c r="C19" s="1"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" ht="15.2" spans="5:5">
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" ht="15.2" spans="5:5">
       <c r="E21" s="16"/>
     </row>
   </sheetData>
@@ -6592,15 +6570,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
@@ -6609,145 +6587,112 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:4">
       <c r="A1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="8" s="7" customFormat="1" spans="1:3">
+      <c r="A8" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" s="7" customFormat="1" spans="1:3">
-      <c r="A10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" s="7" customFormat="1" spans="1:3">
-      <c r="A11" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
         <v>120</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C9" t="s">
         <v>121</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
         <v>123</v>
-      </c>
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -6758,15 +6703,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
@@ -6776,139 +6721,139 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="13"/>
       <c r="B7" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13"/>
       <c r="B8" s="8" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6928,15 +6873,15 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="26.3333333333333" customWidth="1"/>
@@ -6944,138 +6889,138 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7085,7 +7030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -7093,7 +7038,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
@@ -7101,62 +7046,62 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
         <v>120</v>
       </c>
-      <c r="B5" t="s">
-        <v>121</v>
-      </c>
       <c r="C5" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -7166,7 +7111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D69"/>
   <sheetViews>
@@ -7174,7 +7119,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.8333333333333" customWidth="1"/>
@@ -7184,138 +7129,138 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
         <v>70</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
         <v>120</v>
       </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="3:3">

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12580" tabRatio="772" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="772" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265">
   <si>
     <t>修订历史</t>
   </si>
@@ -673,6 +673,9 @@
     <t>资源唯一性确认</t>
   </si>
   <si>
+    <t>消息类型0：文本 1：音频 2：视频 3：位置 4：名片 5：图片 6：讯息 7：团购 8：通知 9：商品(商铺) 10：易货 11：店铺  12： 抢单 13：群聊邀请 14:群通知 15 文件 16 通知 17回复 18 @  19 预购单 20 配送 21 动态 22：折扣商品(自营) 23：秒杀商品(自营)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1068,10 +1071,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1138,43 +1141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1184,16 +1150,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,9 +1172,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,32 +1208,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1275,8 +1223,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,49 +1360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,7 +1390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1435,13 +1408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,7 +1432,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,25 +1462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,25 +1486,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,20 +1545,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1575,6 +1575,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1586,30 +1595,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1631,6 +1616,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1642,146 +1645,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1843,7 +1846,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1876,54 +1879,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1964,8 +1967,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="254000" y="2929890"/>
-          <a:ext cx="6457315" cy="958215"/>
+          <a:off x="254000" y="3480435"/>
+          <a:ext cx="6457315" cy="1152525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2233,7 +2236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E246"/>
   <sheetViews>
@@ -2241,7 +2244,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="45" customWidth="1"/>
     <col min="2" max="2" width="9.66666666666667" style="46" customWidth="1"/>
@@ -2249,7 +2252,7 @@
     <col min="5" max="5" width="53.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.2" spans="1:5">
+    <row r="1" ht="20.25" spans="1:5">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -4485,7 +4488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4493,7 +4496,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -4643,7 +4646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4651,7 +4654,7 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -4761,19 +4764,19 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="185.833333333333" customWidth="1"/>
+    <col min="3" max="3" width="221.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4831,10 +4834,10 @@
         <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>184</v>
       </c>
@@ -4842,7 +4845,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4902,7 +4905,7 @@
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4913,7 +4916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4921,7 +4924,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="33.8333333333333" customWidth="1"/>
@@ -4955,7 +4958,7 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4964,16 +4967,16 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4982,16 +4985,16 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5000,16 +5003,16 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5027,7 +5030,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5046,7 +5049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -5054,7 +5057,7 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -5097,13 +5100,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5130,13 +5133,13 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5150,7 +5153,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5169,7 +5172,7 @@
         <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5202,29 +5205,29 @@
         <v>120</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5240,13 +5243,13 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5257,7 +5260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -5265,7 +5268,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -5303,7 +5306,7 @@
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5314,7 +5317,7 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5325,7 +5328,7 @@
         <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5402,7 +5405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -5410,7 +5413,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -5555,7 +5558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -5563,232 +5566,232 @@
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="2:12">
+    <row r="1" spans="2:12">
       <c r="B1" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>245</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="F13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="F14" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="J14" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="19" ht="15" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1" spans="3:11">
       <c r="C23" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -5799,14 +5802,14 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="26" ht="15" spans="3:3">
+    <row r="26" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5874,7 +5877,7 @@
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5888,7 +5891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -5896,7 +5899,7 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="59.3333333333333" customWidth="1"/>
@@ -6080,7 +6083,7 @@
       </c>
       <c r="C18" s="36"/>
     </row>
-    <row r="19" ht="17.6" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" s="37" t="s">
         <v>50</v>
       </c>
@@ -6113,7 +6116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" ht="17.6" spans="1:3">
+    <row r="22" spans="1:3">
       <c r="A22" s="37" t="s">
         <v>58</v>
       </c>
@@ -6157,7 +6160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -6165,7 +6168,7 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -6323,7 +6326,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
@@ -6384,7 +6387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -6392,7 +6395,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.2" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -6470,7 +6473,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" ht="15.2" spans="1:5">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>116</v>
       </c>
@@ -6485,7 +6488,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" ht="15.2" spans="1:5">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -6497,7 +6500,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" ht="15.2" spans="1:5">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -6509,7 +6512,7 @@
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" ht="15.2" spans="1:5">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -6548,18 +6551,18 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" ht="15.2" spans="4:5">
+    <row r="18" spans="4:5">
       <c r="D18" s="1"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" ht="15.2" spans="3:5">
+    <row r="19" spans="3:5">
       <c r="C19" s="1"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" ht="15.2" spans="5:5">
+    <row r="20" spans="5:5">
       <c r="E20" s="16"/>
     </row>
-    <row r="21" ht="15.2" spans="5:5">
+    <row r="21" spans="5:5">
       <c r="E21" s="16"/>
     </row>
   </sheetData>
@@ -6570,15 +6573,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
@@ -6703,7 +6706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -6711,7 +6714,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
@@ -6873,7 +6876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -6881,7 +6884,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="26.3333333333333" customWidth="1"/>
@@ -7030,7 +7033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -7038,7 +7041,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
@@ -7111,15 +7114,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.8333333333333" customWidth="1"/>

--- a/doc/db/aiTalkDB_Backend.xlsx
+++ b/doc/db/aiTalkDB_Backend.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" tabRatio="772" firstSheet="3" activeTab="11"/>
+    <workbookView windowWidth="21600" tabRatio="772" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修订历史" sheetId="12" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272">
   <si>
     <t>修订历史</t>
   </si>
@@ -370,6 +370,30 @@
     <t>头像</t>
   </si>
   <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>用户状态</t>
+  </si>
+  <si>
+    <t>effective:有效 cancel:无效</t>
+  </si>
+  <si>
+    <t>userType</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>personal:个人 store：店铺</t>
+  </si>
+  <si>
     <t>requesterId</t>
   </si>
   <si>
@@ -723,9 +747,6 @@
     <t>消息类型：hotel、store、user</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t xml:space="preserve">状态：0 发送中 1:送达 2:已读 3:删除 </t>
   </si>
   <si>
@@ -1071,9 +1092,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -1141,6 +1162,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1149,9 +1230,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,29 +1277,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,28 +1287,6 @@
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1233,53 +1300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1360,7 +1381,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,13 +1465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1390,37 +1495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,85 +1525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,32 +1566,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1579,22 +1579,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1618,16 +1603,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1642,149 +1633,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1846,7 +1867,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1879,54 +1900,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1967,8 +1988,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="254000" y="3480435"/>
-          <a:ext cx="6457315" cy="1152525"/>
+          <a:off x="254000" y="2929890"/>
+          <a:ext cx="6457315" cy="958215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2236,7 +2257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E246"/>
   <sheetViews>
@@ -2244,7 +2265,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="4.5" style="45" customWidth="1"/>
     <col min="2" max="2" width="9.66666666666667" style="46" customWidth="1"/>
@@ -2252,7 +2273,7 @@
     <col min="5" max="5" width="53.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:5">
+    <row r="1" ht="17.2" spans="1:5">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
@@ -4488,7 +4509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4496,7 +4517,7 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -4525,117 +4546,117 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -4646,7 +4667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -4654,7 +4675,7 @@
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -4685,46 +4706,46 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4740,21 +4761,21 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4764,15 +4785,15 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -4801,111 +4822,111 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="1:3">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -4916,7 +4937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -4924,7 +4945,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="33.8333333333333" customWidth="1"/>
@@ -4958,79 +4979,79 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5039,7 +5060,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5049,7 +5070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -5057,7 +5078,7 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
@@ -5089,167 +5110,167 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:3">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C12" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5260,7 +5281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -5268,7 +5289,7 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -5300,57 +5321,57 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5358,10 +5379,10 @@
         <v>89</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5369,10 +5390,10 @@
         <v>90</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5383,7 +5404,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5391,10 +5412,10 @@
         <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5405,7 +5426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -5413,7 +5434,7 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -5438,117 +5459,117 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -5558,7 +5579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:L36"/>
   <sheetViews>
@@ -5566,232 +5587,232 @@
       <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="12.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" ht="15" spans="2:12">
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="15" spans="1:3">
       <c r="A19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1" spans="3:11">
       <c r="C23" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -5802,14 +5823,14 @@
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="26" spans="3:3">
+    <row r="26" ht="15" spans="3:3">
       <c r="C26" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="3:11">
       <c r="C27" s="2" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -5877,7 +5898,7 @@
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5891,7 +5912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
@@ -5899,7 +5920,7 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="32.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="59.3333333333333" customWidth="1"/>
@@ -6083,7 +6104,7 @@
       </c>
       <c r="C18" s="36"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" ht="17.6" spans="1:3">
       <c r="A19" s="37" t="s">
         <v>50</v>
       </c>
@@ -6116,7 +6137,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" ht="17.6" spans="1:3">
       <c r="A22" s="37" t="s">
         <v>58</v>
       </c>
@@ -6160,15 +6181,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -6326,7 +6347,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" ht="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
@@ -6374,6 +6395,34 @@
       </c>
       <c r="C18" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -6387,7 +6436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E21"/>
   <sheetViews>
@@ -6395,7 +6444,7 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="13.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.3333333333333" customWidth="1"/>
@@ -6428,114 +6477,114 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" ht="15.2" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" ht="15.2" spans="1:5">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="15.2" spans="1:5">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" ht="15.2" spans="1:5">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -6551,18 +6600,18 @@
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" ht="15.2" spans="4:5">
       <c r="D18" s="1"/>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" ht="15.2" spans="3:5">
       <c r="C19" s="1"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" ht="15.2" spans="5:5">
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" ht="15.2" spans="5:5">
       <c r="E21" s="16"/>
     </row>
   </sheetData>
@@ -6573,7 +6622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D10"/>
   <sheetViews>
@@ -6581,7 +6630,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="18.6666666666667" customWidth="1"/>
@@ -6623,13 +6672,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6640,7 +6689,7 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6648,10 +6697,10 @@
         <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6659,43 +6708,43 @@
         <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -6706,7 +6755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -6714,7 +6763,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="14.3333333333333" customWidth="1"/>
@@ -6746,49 +6795,49 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="13" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6797,55 +6846,55 @@
         <v>90</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="13"/>
       <c r="B8" s="8" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="9" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="8" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6856,7 +6905,7 @@
         <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -6876,7 +6925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -6884,7 +6933,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="26.3333333333333" customWidth="1"/>
@@ -6912,30 +6961,30 @@
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6943,15 +6992,15 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="12" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>78</v>
@@ -6979,7 +7028,7 @@
         <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6987,10 +7036,10 @@
         <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6998,10 +7047,10 @@
         <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -7012,7 +7061,7 @@
         <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7020,10 +7069,10 @@
         <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -7033,7 +7082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -7041,7 +7090,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="15.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
@@ -7068,43 +7117,43 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -7114,7 +7163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D69"/>
   <sheetViews>
@@ -7122,7 +7171,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.8333333333333" customWidth="1"/>
@@ -7152,118 +7201,118 @@
         <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="3:3">
